--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -115,18 +115,65 @@
   </si>
   <si>
     <t>RAKI</t>
+  </si>
+  <si>
+    <t>OKUL</t>
+  </si>
+  <si>
+    <t>KUL</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>O,K,U,L,A,K</t>
+  </si>
+  <si>
+    <t>KULAK</t>
+  </si>
+  <si>
+    <t>ULAK</t>
+  </si>
+  <si>
+    <t>Eğitim binası</t>
+  </si>
+  <si>
+    <t>Tanrının yarattığı insan</t>
+  </si>
+  <si>
+    <t>Yay ile atılan sistem</t>
+  </si>
+  <si>
+    <t>Duyma Organı</t>
+  </si>
+  <si>
+    <t>Haber taşıyan kimse</t>
+  </si>
+  <si>
+    <t>OLUK</t>
+  </si>
+  <si>
+    <t>Akma yeri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,6 +725,108 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -75,33 +75,12 @@
     <t>Beyaz renk.</t>
   </si>
   <si>
-    <t>LIK</t>
-  </si>
-  <si>
-    <t>Bir şeyin miktarı veya niteliği.</t>
-  </si>
-  <si>
     <t>B,I,Ç,A,K,R</t>
   </si>
   <si>
     <t>Kesici alet</t>
   </si>
   <si>
-    <t>Yağış türü; beyaz kristal</t>
-  </si>
-  <si>
-    <t>İçki servisi yapılan mekan</t>
-  </si>
-  <si>
-    <t>Uzak, mesafeli</t>
-  </si>
-  <si>
-    <t>Beyaz renk</t>
-  </si>
-  <si>
-    <t>Türk anasonlu içkisi</t>
-  </si>
-  <si>
     <t>BIÇAK</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>Yay ile atılan sistem</t>
   </si>
   <si>
-    <t>Duyma Organı</t>
-  </si>
-  <si>
     <t>Haber taşıyan kimse</t>
   </si>
   <si>
@@ -154,18 +130,533 @@
   </si>
   <si>
     <t>Akma yeri</t>
+  </si>
+  <si>
+    <t>ALIK</t>
+  </si>
+  <si>
+    <t>Akılsız, sersem.</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>ÇALI</t>
+  </si>
+  <si>
+    <t>ALÇI</t>
+  </si>
+  <si>
+    <t>BALÇIK</t>
+  </si>
+  <si>
+    <t>ÇAKIL</t>
+  </si>
+  <si>
+    <t>Çakıl taşı.</t>
+  </si>
+  <si>
+    <t>AKI</t>
+  </si>
+  <si>
+    <t>Bir kuvvet alanında, belli bir düzlemin belli bir bölümünden geçtiği varsayılan güç çizgileri.</t>
+  </si>
+  <si>
+    <t>Arıların ürettiği tatlı madde.</t>
+  </si>
+  <si>
+    <t>Odunsu bitki.</t>
+  </si>
+  <si>
+    <t>Yapılarda kullanılan madde.</t>
+  </si>
+  <si>
+    <t>Yapışkan çamur.</t>
+  </si>
+  <si>
+    <t>Yağış türü; beyaz kristal.</t>
+  </si>
+  <si>
+    <t>İçki servisi yapılan mekan.</t>
+  </si>
+  <si>
+    <t>Uzak, mesafeli.</t>
+  </si>
+  <si>
+    <t>Anasonlu Türk içkisi.</t>
+  </si>
+  <si>
+    <t>AÇI</t>
+  </si>
+  <si>
+    <t>İki ışın arasındaki açıklık.</t>
+  </si>
+  <si>
+    <t>ÇAKIR</t>
+  </si>
+  <si>
+    <t>Mavi hareli ela göz rengi.</t>
+  </si>
+  <si>
+    <t>ÇARK</t>
+  </si>
+  <si>
+    <t>Dönen mekanizma parçası.</t>
+  </si>
+  <si>
+    <t>A,K,T,O</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>TOKA</t>
+  </si>
+  <si>
+    <t>KAT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>TOK</t>
+  </si>
+  <si>
+    <t>OYUK</t>
+  </si>
+  <si>
+    <t>KOY</t>
+  </si>
+  <si>
+    <t>YOK</t>
+  </si>
+  <si>
+    <t>KOYU</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>O,Y,U,K</t>
+  </si>
+  <si>
+    <t>DAMA</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>AMA</t>
+  </si>
+  <si>
+    <t>DAM</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>D,A,M,A</t>
+  </si>
+  <si>
+    <t>K,A,R,A</t>
+  </si>
+  <si>
+    <t>KARA</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>AKAR</t>
+  </si>
+  <si>
+    <t>ARKA</t>
+  </si>
+  <si>
+    <t>T,A,Ç,I</t>
+  </si>
+  <si>
+    <t>TAÇ</t>
+  </si>
+  <si>
+    <t>ÇITA</t>
+  </si>
+  <si>
+    <t>ÇATI</t>
+  </si>
+  <si>
+    <t>ASIR</t>
+  </si>
+  <si>
+    <t>SIRA</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>SARI</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>A,S I,R</t>
+  </si>
+  <si>
+    <t>L,P,A,D,O</t>
+  </si>
+  <si>
+    <t>DOLAP</t>
+  </si>
+  <si>
+    <t>ALO</t>
+  </si>
+  <si>
+    <t>LAP</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>ODA</t>
+  </si>
+  <si>
+    <t>H,A,Y,K,A</t>
+  </si>
+  <si>
+    <t>KAYA</t>
+  </si>
+  <si>
+    <t>HAY</t>
+  </si>
+  <si>
+    <t>HAYA</t>
+  </si>
+  <si>
+    <t>AYAK</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AYNEN</t>
+  </si>
+  <si>
+    <t>NANE</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>YAN</t>
+  </si>
+  <si>
+    <t>NEY</t>
+  </si>
+  <si>
+    <t>A,Y,N,E,N</t>
+  </si>
+  <si>
+    <t>A,R,T,I,K</t>
+  </si>
+  <si>
+    <t>ARTI</t>
+  </si>
+  <si>
+    <t>ARTIK</t>
+  </si>
+  <si>
+    <t>TIK</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>KATIR</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>ATIK</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>K,I,Z,A,K</t>
+  </si>
+  <si>
+    <t>KIZ</t>
+  </si>
+  <si>
+    <t>KIZAK</t>
+  </si>
+  <si>
+    <t>KAZI</t>
+  </si>
+  <si>
+    <t>AZIK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>C,A,N,L,I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANLI </t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>ALIN</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>NAL</t>
+  </si>
+  <si>
+    <t>Yumuşak gövdeli bitki.</t>
+  </si>
+  <si>
+    <t>Saç tutucu.</t>
+  </si>
+  <si>
+    <t>Üst üste gelen bölüm.</t>
+  </si>
+  <si>
+    <t>Binilen veya yük taşınan hayvan.</t>
+  </si>
+  <si>
+    <t>Açlık hissi olmayan, doymuş.</t>
+  </si>
+  <si>
+    <t>Çukur boşluk.</t>
+  </si>
+  <si>
+    <t>Deniz girintisi.</t>
+  </si>
+  <si>
+    <t>Olmama.</t>
+  </si>
+  <si>
+    <t>Yoğun renkli.</t>
+  </si>
+  <si>
+    <t>Tercih bildirimi.</t>
+  </si>
+  <si>
+    <t>Oyun tahtası.</t>
+  </si>
+  <si>
+    <t>Evlerin üst kısmı, çatı.</t>
+  </si>
+  <si>
+    <t>Karşıtlık bildiren bağlaç.</t>
+  </si>
+  <si>
+    <t>Su çevreli kara.</t>
+  </si>
+  <si>
+    <t>Yetişkin erkek.</t>
+  </si>
+  <si>
+    <t>Yeryüzünün denizle örtülü olmayan bölümü.</t>
+  </si>
+  <si>
+    <t>Boşluk, mesafe.</t>
+  </si>
+  <si>
+    <t>Sıvı.</t>
+  </si>
+  <si>
+    <t>Bir şeyin tam ters yanı.</t>
+  </si>
+  <si>
+    <t>Değerli taşlarla süslü başlık.</t>
+  </si>
+  <si>
+    <t>İnce tahta.</t>
+  </si>
+  <si>
+    <t>Binanın üstünü örten yapı.</t>
+  </si>
+  <si>
+    <t>100 yıl.</t>
+  </si>
+  <si>
+    <t>Art arda olan şeyler, dizi.</t>
+  </si>
+  <si>
+    <t>Gizli bilgi.</t>
+  </si>
+  <si>
+    <t>Limon kabuğu rengi.</t>
+  </si>
+  <si>
+    <t>Bal yapan böcek.</t>
+  </si>
+  <si>
+    <t>Eşya konulan kapaklı mobilya.</t>
+  </si>
+  <si>
+    <t>Telefon selamlaması.</t>
+  </si>
+  <si>
+    <t>Yumuşak ve ağır bir şey düştüğünde çıkan ses.</t>
+  </si>
+  <si>
+    <t>Ağacın gövdesinden ayrılan kollardan her biri</t>
+  </si>
+  <si>
+    <t>Bir şeyden, kişiden bahsetmeye yarayan isim.</t>
+  </si>
+  <si>
+    <t>Ev veya başka bir yapının kapalı bir bölümü.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Büyük ve sert taş.</t>
+  </si>
+  <si>
+    <t>Azarlama, şaşma, sevinç vb. duyguları bildirmede kullanılan bir söz.</t>
+  </si>
+  <si>
+    <t>Utanma duygusu.</t>
+  </si>
+  <si>
+    <t>KAHYA</t>
+  </si>
+  <si>
+    <t>Çiftlik veya konakta işleri yöneten kişi.</t>
+  </si>
+  <si>
+    <t>Yürüme organı.</t>
+  </si>
+  <si>
+    <t>Gece gök cismi.</t>
+  </si>
+  <si>
+    <t>Olduğu gibi; aynıyla.</t>
+  </si>
+  <si>
+    <t>Baharat olarak kullanılan bir bitki.</t>
+  </si>
+  <si>
+    <t>Çocuğu olan kadın.</t>
+  </si>
+  <si>
+    <t>Bir şeyin sol veya sağ tarafı.</t>
+  </si>
+  <si>
+    <t>Kaval biçiminde üflemeli çalgı.</t>
+  </si>
+  <si>
+    <t>Toplama işleminde + işaretinin adı.</t>
+  </si>
+  <si>
+    <t>Kalan.</t>
+  </si>
+  <si>
+    <t>İnce ve küçük bir nesne ile sert bir yere vurulduğunda çıkan ses.</t>
+  </si>
+  <si>
+    <t>Uzun kamyon.</t>
+  </si>
+  <si>
+    <t>At ile eşek melezi.</t>
+  </si>
+  <si>
+    <t>İhtiyaca yetmeyecek kadar az.</t>
+  </si>
+  <si>
+    <t>Kullanım sonrası işe yaramayan madde.</t>
+  </si>
+  <si>
+    <t>Şehir dışında, genellikle tarım veya doğal alan olan yer.</t>
+  </si>
+  <si>
+    <t>Tahta vb. bir şeye vurulduğunda çıkan ses.</t>
+  </si>
+  <si>
+    <t>Dişi çocuk.</t>
+  </si>
+  <si>
+    <t>Kayak aracı.</t>
+  </si>
+  <si>
+    <t>Bir yeri kazma işi.</t>
+  </si>
+  <si>
+    <t>Gereken yiyecek ve içecek şeyler.</t>
+  </si>
+  <si>
+    <t>Nicelik, nitelik vb. bakımından eksik.</t>
+  </si>
+  <si>
+    <t>Suda veya karada yaşayan ve uçan kuş.</t>
+  </si>
+  <si>
+    <t>Hayat sahibi.</t>
+  </si>
+  <si>
+    <t>Yaşam, hayat veya yaşayan varlık.</t>
+  </si>
+  <si>
+    <t>Yüzün, kaşlarla saçlar arasındaki üst bölümü.</t>
+  </si>
+  <si>
+    <t>Hayvan ayağı koruyucusu.</t>
+  </si>
+  <si>
+    <t>Geçmişte yaşanmış ve hatırlanan olay.</t>
+  </si>
+  <si>
+    <t>Hoş olmayan, yakıcı tat.</t>
+  </si>
+  <si>
+    <t>Belirli, kısa süreli zaman dilimi.</t>
+  </si>
+  <si>
+    <t>Duyma Organı.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,11 +696,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -272,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -307,7 +799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -484,27 +976,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,309 +1013,1686 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D103" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E103" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -642,8 +642,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,27 +976,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1213,8 +1213,11 @@
       <c r="D13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1227,8 +1230,11 @@
       <c r="D14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1292,8 +1298,11 @@
       <c r="D18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1306,8 +1315,11 @@
       <c r="D19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1320,8 +1332,11 @@
       <c r="D20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1334,8 +1349,11 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1348,8 +1366,11 @@
       <c r="D22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1362,8 +1383,11 @@
       <c r="D23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1376,8 +1400,11 @@
       <c r="D24" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1390,8 +1417,11 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1404,8 +1434,11 @@
       <c r="D26" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1418,8 +1451,11 @@
       <c r="D27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1432,8 +1468,11 @@
       <c r="D28" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1446,8 +1485,11 @@
       <c r="D29" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1460,8 +1502,11 @@
       <c r="D30" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1474,8 +1519,11 @@
       <c r="D31" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1488,8 +1536,11 @@
       <c r="D32" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -1506,7 +1557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1523,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1540,7 +1591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1557,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1574,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1591,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1608,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1625,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1642,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1659,7 +1710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -1676,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1693,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1710,7 +1761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1727,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1744,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1761,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -1778,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1795,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1812,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1829,7 +1880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -1846,7 +1897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -1863,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1880,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1897,7 +1948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -1914,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -1931,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -1948,7 +1999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -1965,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -1982,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -1999,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2016,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -2033,7 +2084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -2050,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -2067,7 +2118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -2084,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -2101,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -2118,7 +2169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -2135,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -2152,7 +2203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12</v>
       </c>
@@ -2169,7 +2220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2186,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -2203,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -2220,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13</v>
       </c>
@@ -2237,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -2254,7 +2305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13</v>
       </c>
@@ -2271,7 +2322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13</v>
       </c>
@@ -2288,7 +2339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13</v>
       </c>
@@ -2305,7 +2356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>13</v>
       </c>
@@ -2322,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
@@ -2339,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13</v>
       </c>
@@ -2356,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13</v>
       </c>
@@ -2373,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
@@ -2390,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13</v>
       </c>
@@ -2407,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -2424,7 +2475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2441,7 +2492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -2458,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -2475,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -2492,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -2509,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -2526,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -2543,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -2560,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -2577,7 +2628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
@@ -2594,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>15</v>
       </c>
@@ -2611,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15</v>
       </c>
@@ -2628,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>15</v>
       </c>
@@ -2645,7 +2696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15</v>
       </c>
@@ -2662,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15</v>
       </c>
@@ -2679,7 +2730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>15</v>
       </c>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -300,9 +300,6 @@
     <t>ARI</t>
   </si>
   <si>
-    <t>A,S I,R</t>
-  </si>
-  <si>
     <t>L,P,A,D,O</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>Duyma Organı.</t>
+  </si>
+  <si>
+    <t>A,S,I,R</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -799,7 +799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1075,7 +1075,7 @@
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1092,7 +1092,7 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1109,7 +1109,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1126,7 +1126,7 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1143,7 +1143,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1160,7 +1160,7 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1194,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1211,7 +1211,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1228,7 +1228,7 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1245,7 +1245,7 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1262,7 +1262,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1330,7 +1330,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1364,7 +1364,7 @@
         <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1381,7 +1381,7 @@
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1398,7 +1398,7 @@
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1432,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1449,7 +1449,7 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1460,13 +1460,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1477,13 +1477,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1494,13 +1494,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -1511,13 +1511,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1528,13 +1528,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
         <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1545,13 +1545,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
         <v>94</v>
       </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1562,13 +1562,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -1579,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1596,13 +1596,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1613,13 +1613,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1630,13 +1630,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1664,13 +1664,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1698,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" t="s">
         <v>174</v>
-      </c>
-      <c r="D42" t="s">
-        <v>175</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
@@ -1715,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1732,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1749,13 +1749,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -1766,13 +1766,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -1783,13 +1783,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1800,13 +1800,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1817,13 +1817,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1834,13 +1834,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1851,13 +1851,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1868,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1885,13 +1885,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -1902,13 +1902,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1919,13 +1919,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1936,13 +1936,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -1953,13 +1953,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -1970,13 +1970,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1987,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -2004,13 +2004,13 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -2021,13 +2021,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2038,13 +2038,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -2055,13 +2055,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2072,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -2089,13 +2089,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2106,13 +2106,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -2123,7 +2123,7 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2140,13 +2140,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
         <v>130</v>
       </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
       <c r="D68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -2157,13 +2157,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -2174,13 +2174,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -2191,13 +2191,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -2225,13 +2225,13 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2242,13 +2242,13 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2259,13 +2259,13 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -2707,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -411,9 +411,6 @@
     <t>C,A,N,L,I</t>
   </si>
   <si>
-    <t xml:space="preserve">CANLI </t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>A,S,I,R</t>
+  </si>
+  <si>
+    <t>CANLI</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1075,7 +1075,7 @@
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1092,7 +1092,7 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1109,7 +1109,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1126,7 +1126,7 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1143,7 +1143,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1160,7 +1160,7 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1194,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1211,7 +1211,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1228,7 +1228,7 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1245,7 +1245,7 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1262,7 +1262,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1330,7 +1330,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1364,7 +1364,7 @@
         <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1381,7 +1381,7 @@
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1398,7 +1398,7 @@
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1432,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1449,7 +1449,7 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1460,13 +1460,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1477,13 +1477,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1494,13 +1494,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -1511,13 +1511,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1528,13 +1528,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
         <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1551,7 +1551,7 @@
         <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1568,7 +1568,7 @@
         <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -1585,7 +1585,7 @@
         <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1602,7 +1602,7 @@
         <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1619,7 +1619,7 @@
         <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1636,7 +1636,7 @@
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1653,7 +1653,7 @@
         <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1670,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1701,10 +1701,10 @@
         <v>100</v>
       </c>
       <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
         <v>173</v>
-      </c>
-      <c r="D42" t="s">
-        <v>174</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
@@ -1721,7 +1721,7 @@
         <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1738,7 +1738,7 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1755,7 +1755,7 @@
         <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -1772,7 +1772,7 @@
         <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -1789,7 +1789,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1806,7 +1806,7 @@
         <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1823,7 +1823,7 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1840,7 +1840,7 @@
         <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1857,7 +1857,7 @@
         <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1874,7 +1874,7 @@
         <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1891,7 +1891,7 @@
         <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -1908,7 +1908,7 @@
         <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1925,7 +1925,7 @@
         <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1942,7 +1942,7 @@
         <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -1959,7 +1959,7 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -1976,7 +1976,7 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1993,7 +1993,7 @@
         <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -2010,7 +2010,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -2027,7 +2027,7 @@
         <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2044,7 +2044,7 @@
         <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2078,7 +2078,7 @@
         <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -2095,7 +2095,7 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2112,7 +2112,7 @@
         <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -2143,10 +2143,10 @@
         <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -2160,10 +2160,10 @@
         <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -2177,10 +2177,10 @@
         <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -2194,10 +2194,10 @@
         <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -2228,10 +2228,10 @@
         <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2245,10 +2245,10 @@
         <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2262,10 +2262,10 @@
         <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -2707,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,9 +78,6 @@
     <t>B,I,Ç,A,K,R</t>
   </si>
   <si>
-    <t>Kesici alet</t>
-  </si>
-  <si>
     <t>BIÇAK</t>
   </si>
   <si>
@@ -114,24 +111,12 @@
     <t>ULAK</t>
   </si>
   <si>
-    <t>Eğitim binası</t>
-  </si>
-  <si>
     <t>Tanrının yarattığı insan</t>
   </si>
   <si>
-    <t>Yay ile atılan sistem</t>
-  </si>
-  <si>
-    <t>Haber taşıyan kimse</t>
-  </si>
-  <si>
     <t>OLUK</t>
   </si>
   <si>
-    <t>Akma yeri</t>
-  </si>
-  <si>
     <t>ALIK</t>
   </si>
   <si>
@@ -645,33 +630,21 @@
     <t>TUŞ</t>
   </si>
   <si>
-    <t>Küçük düğme</t>
-  </si>
-  <si>
     <t>ŞUT</t>
   </si>
   <si>
-    <t>Futbol terimi</t>
-  </si>
-  <si>
     <t>Ş,A,K</t>
   </si>
   <si>
     <t>ŞAK</t>
   </si>
   <si>
-    <t>Hızlı aniden</t>
-  </si>
-  <si>
     <t>eksra</t>
   </si>
   <si>
     <t>AŞK</t>
   </si>
   <si>
-    <t>Derin sevgi</t>
-  </si>
-  <si>
     <t>KAŞ</t>
   </si>
   <si>
@@ -684,9 +657,6 @@
     <t>NEŞE</t>
   </si>
   <si>
-    <t>Sevinç,iç huzuru</t>
-  </si>
-  <si>
     <t>ŞEN</t>
   </si>
   <si>
@@ -699,18 +669,9 @@
     <t>CAM</t>
   </si>
   <si>
-    <t>Saydam madde</t>
-  </si>
-  <si>
     <t>AMCA</t>
   </si>
   <si>
-    <t>Baba kardeşi</t>
-  </si>
-  <si>
-    <t>Bağlaç</t>
-  </si>
-  <si>
     <t>T,İ,M,Ü</t>
   </si>
   <si>
@@ -723,21 +684,12 @@
     <t>TÜM</t>
   </si>
   <si>
-    <t>Yarım olmayan</t>
-  </si>
-  <si>
     <t>ÜMİT</t>
   </si>
   <si>
-    <t>Ummaktan doğan güven duygusu,</t>
-  </si>
-  <si>
     <t>MİT</t>
   </si>
   <si>
-    <t>Kuşaktan kuşağa yayılan</t>
-  </si>
-  <si>
     <t>Ü,A,R,Y</t>
   </si>
   <si>
@@ -750,15 +702,9 @@
     <t>RÜYA</t>
   </si>
   <si>
-    <t>Hayal veya düş</t>
-  </si>
-  <si>
     <t>RAY</t>
   </si>
   <si>
-    <t>Bİrbirine koşut biçimdeki çelik yol</t>
-  </si>
-  <si>
     <t>U,K,O,Ş</t>
   </si>
   <si>
@@ -786,63 +732,36 @@
     <t>BİNA</t>
   </si>
   <si>
-    <t>Çok bölmeli yapı</t>
-  </si>
-  <si>
     <t>BİN</t>
   </si>
   <si>
-    <t>Dokuz yüz doksan dokuzdan bir artık olan</t>
-  </si>
-  <si>
     <t>ANİ</t>
   </si>
   <si>
-    <t>Birdenbire oluveren</t>
-  </si>
-  <si>
     <t>ABİ</t>
   </si>
   <si>
-    <t>Büyük erkek kardeş</t>
-  </si>
-  <si>
     <t>A,Y,I,P</t>
   </si>
   <si>
     <t>AYIP</t>
   </si>
   <si>
-    <t>Töre kurallarına aykırı olan</t>
-  </si>
-  <si>
     <t>PAY</t>
   </si>
   <si>
-    <t>Eşit bölüm</t>
-  </si>
-  <si>
     <t>YAPI</t>
   </si>
   <si>
-    <t>Yapılmakta olan konut</t>
-  </si>
-  <si>
     <t>AYI</t>
   </si>
   <si>
-    <t>Yabanıl bir hayvan</t>
-  </si>
-  <si>
     <t>N,İ,D,Ç</t>
   </si>
   <si>
     <t>ÇİN</t>
   </si>
   <si>
-    <t xml:space="preserve">Asyada bir ülke </t>
-  </si>
-  <si>
     <t>DİN</t>
   </si>
   <si>
@@ -852,12 +771,6 @@
     <t>DİNÇ</t>
   </si>
   <si>
-    <t>Gücü ve sağlığı yerinde</t>
-  </si>
-  <si>
-    <t>İki kişi arasında oynanan bir oyun</t>
-  </si>
-  <si>
     <t>Genel anlamda insan, insanoğlu.</t>
   </si>
   <si>
@@ -882,9 +795,6 @@
     <t>İLÇE</t>
   </si>
   <si>
-    <t>Bir kaymakamca yönetilen bölüm</t>
-  </si>
-  <si>
     <t>ÇİL</t>
   </si>
   <si>
@@ -900,9 +810,6 @@
     <t>İLE</t>
   </si>
   <si>
-    <t>Sözcüğün sonuna getirilerek urum bildiren tümleçler oluşturmaya yarar</t>
-  </si>
-  <si>
     <t>A,Y,B,O</t>
   </si>
   <si>
@@ -942,9 +849,6 @@
     <t>CEZA</t>
   </si>
   <si>
-    <t>Uygun olmayan tepki</t>
-  </si>
-  <si>
     <t>ACE</t>
   </si>
   <si>
@@ -954,9 +858,6 @@
     <t>EZA</t>
   </si>
   <si>
-    <t>Sıkıntı verme, sıkıntı çektirme</t>
-  </si>
-  <si>
     <t>ECZA</t>
   </si>
   <si>
@@ -966,14 +867,113 @@
     <t>CAZ</t>
   </si>
   <si>
-    <t>Afrika halk müziğiyle batı halk müziğinin bir karışımı</t>
+    <t>Afrika halk müziğiyle batı halk müziğinin bir karışımı.</t>
+  </si>
+  <si>
+    <t>Uygun olmayan tepki.</t>
+  </si>
+  <si>
+    <t>Sıkıntı verme, sıkıntı çektirme.</t>
+  </si>
+  <si>
+    <t>Asyada bir ülke.</t>
+  </si>
+  <si>
+    <t>Yabanıl bir hayvan.</t>
+  </si>
+  <si>
+    <t>Yapılmakta olan konut.</t>
+  </si>
+  <si>
+    <t>Eşit bölüm.</t>
+  </si>
+  <si>
+    <t>Töre kurallarına aykırı olan.</t>
+  </si>
+  <si>
+    <t>Büyük erkek kardeş.</t>
+  </si>
+  <si>
+    <t>Birdenbire oluveren.</t>
+  </si>
+  <si>
+    <t>Dokuz yüz doksan dokuzdan bir artık olan.</t>
+  </si>
+  <si>
+    <t>Çok bölmeli yapı.</t>
+  </si>
+  <si>
+    <t>Bİrbirine koşut biçimdeki çelik yol.</t>
+  </si>
+  <si>
+    <t>Sevinç, iç huzuru.</t>
+  </si>
+  <si>
+    <t>Saydam madde.</t>
+  </si>
+  <si>
+    <t>Baba erkek kardeşi.</t>
+  </si>
+  <si>
+    <t>Bağlaç.</t>
+  </si>
+  <si>
+    <t>Yarım olmayan.</t>
+  </si>
+  <si>
+    <t>Ummaktan doğan güven duygusu.</t>
+  </si>
+  <si>
+    <t>Kuşaktan kuşağa yayılan.</t>
+  </si>
+  <si>
+    <t>Sözcüğün sonuna getirilerek urum bildiren tümleçler oluşturmaya yarar.</t>
+  </si>
+  <si>
+    <t>Bir kaymakamca yönetilen bölüm.</t>
+  </si>
+  <si>
+    <t>İki kişi arasında oynanan bir oyun.</t>
+  </si>
+  <si>
+    <t>Gücü ve sağlığı yerinde.</t>
+  </si>
+  <si>
+    <t>Hayal veya düş.</t>
+  </si>
+  <si>
+    <t>Derin sevgi.</t>
+  </si>
+  <si>
+    <t>Hızlı aniden.</t>
+  </si>
+  <si>
+    <t>Futbol terimi.</t>
+  </si>
+  <si>
+    <t>Küçük düğme.</t>
+  </si>
+  <si>
+    <t>Yay ile atılan sistem.</t>
+  </si>
+  <si>
+    <t>Haber taşıyan kimse.</t>
+  </si>
+  <si>
+    <t>Akma yeri.</t>
+  </si>
+  <si>
+    <t>Eğitim binası.</t>
+  </si>
+  <si>
+    <t>Kesici alet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,7 +1084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1119,7 +1119,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1296,27 +1296,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,12 +1333,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1350,318 +1350,318 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
@@ -1673,777 +1673,777 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>8</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>8</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>8</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="1">
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30">
       <c r="A59" s="1">
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>16</v>
@@ -2455,80 +2455,80 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>13</v>
@@ -2540,58 +2540,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>12</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>13</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>13</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>13</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>13</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>13</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>13</v>
       </c>
@@ -2684,16 +2684,16 @@
         <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>13</v>
       </c>
@@ -2701,16 +2701,16 @@
         <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>13</v>
       </c>
@@ -2718,16 +2718,16 @@
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>13</v>
       </c>
@@ -2735,16 +2735,16 @@
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>13</v>
       </c>
@@ -2752,16 +2752,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -2769,16 +2769,16 @@
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30">
       <c r="A87" s="1">
         <v>13</v>
       </c>
@@ -2786,16 +2786,16 @@
         <v>5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -2803,16 +2803,16 @@
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -2820,16 +2820,16 @@
         <v>18</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>14</v>
       </c>
@@ -2837,16 +2837,16 @@
         <v>18</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>14</v>
       </c>
@@ -2854,16 +2854,16 @@
         <v>18</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>14</v>
       </c>
@@ -2871,16 +2871,16 @@
         <v>18</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>14</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>14</v>
       </c>
@@ -2905,16 +2905,16 @@
         <v>18</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -2922,16 +2922,16 @@
         <v>18</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>14</v>
       </c>
@@ -2939,16 +2939,16 @@
         <v>18</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>14</v>
       </c>
@@ -2956,979 +2956,979 @@
         <v>18</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>15</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>15</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>15</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>15</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>15</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>15</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>15</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>15</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>15</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>15</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D103" s="2" t="s">
-        <v>36</v>
+        <v>313</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>16</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>17</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>20</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>21</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>21</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>22</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>22</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>22</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>23</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>23</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>23</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>24</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>24</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>24</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>24</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>25</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>25</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>25</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>26</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>26</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>26</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>26</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>26</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>27</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>27</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="30">
       <c r="A143" s="1">
         <v>27</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="30">
       <c r="A144" s="1">
         <v>27</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>28</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>28</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>28</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>28</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>28</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>29</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="30">
       <c r="A151" s="1">
         <v>29</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>29</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>29</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="30">
       <c r="A154" s="1">
         <v>29</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>8</v>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="323">
   <si>
     <t>id</t>
   </si>
@@ -967,13 +967,34 @@
   </si>
   <si>
     <t>Kesici alet.</t>
+  </si>
+  <si>
+    <t>YAKA</t>
+  </si>
+  <si>
+    <t>HAK</t>
+  </si>
+  <si>
+    <t>YEN</t>
+  </si>
+  <si>
+    <t>KARI</t>
+  </si>
+  <si>
+    <t>KART</t>
+  </si>
+  <si>
+    <t>ATKI</t>
+  </si>
+  <si>
+    <t>ÇAKI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,12 +1018,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1017,13 +1044,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,27 +1326,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1350,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1367,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1384,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1401,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1418,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1435,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1469,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1486,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1503,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1520,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1537,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1554,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1588,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1605,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1622,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1639,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1656,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1673,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1690,7 +1720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1707,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1724,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1741,7 +1771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1758,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1775,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -1809,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -1826,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1843,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1877,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -1894,7 +1924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -1911,7 +1941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1928,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -1945,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -1962,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -1979,7 +2009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -1987,16 +2017,14 @@
         <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -2004,16 +2032,14 @@
         <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -2021,16 +2047,14 @@
         <v>95</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -2038,16 +2062,16 @@
         <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -2055,67 +2079,67 @@
         <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9</v>
       </c>
@@ -2123,16 +2147,16 @@
         <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -2140,16 +2164,16 @@
         <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2157,84 +2181,82 @@
         <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="1">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>10</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2242,16 +2264,16 @@
         <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -2259,16 +2281,16 @@
         <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10</v>
       </c>
@@ -2276,16 +2298,14 @@
         <v>107</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -2293,16 +2313,14 @@
         <v>107</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10</v>
       </c>
@@ -2310,16 +2328,14 @@
         <v>107</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -2327,254 +2343,254 @@
         <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>11</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>11</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
+      <c r="E69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>11</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
+      <c r="E70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>11</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
+      <c r="E71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>11</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>11</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
+      <c r="E73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>11</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>12</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>12</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>12</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>12</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>12</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>12</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>12</v>
       </c>
@@ -2582,74 +2598,74 @@
         <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>124</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>11</v>
+        <v>124</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>13</v>
-      </c>
       <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -2659,58 +2675,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>16</v>
+        <v>124</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>32</v>
+        <v>124</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>34</v>
+        <v>124</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>13</v>
       </c>
@@ -2718,16 +2734,16 @@
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>13</v>
       </c>
@@ -2735,16 +2751,16 @@
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>13</v>
       </c>
@@ -2752,16 +2768,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -2769,16 +2785,16 @@
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>13</v>
       </c>
@@ -2786,16 +2802,16 @@
         <v>5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -2803,152 +2819,150 @@
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>14</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>14</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>14</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>14</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>14</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>14</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>14</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>14</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>14</v>
       </c>
@@ -2956,981 +2970,1117 @@
         <v>18</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>14</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>14</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>14</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>14</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>14</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>14</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>14</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>14</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>15</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>15</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>15</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>15</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>15</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>15</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>15</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>15</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>15</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>15</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>15</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
+      <c r="E111" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>16</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
+      <c r="E112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>16</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
+      <c r="E113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>17</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>17</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
+      <c r="E115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>17</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>18</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>18</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>19</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
+      <c r="E119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>19</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
+      <c r="E120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>19</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
+      <c r="E121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>20</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>20</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>20</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
+      <c r="E124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>20</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
+      <c r="E125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>21</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
+      <c r="E126" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>21</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
+      <c r="E127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>21</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
+      <c r="E128" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>22</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>22</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
+      <c r="E130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>22</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
+      <c r="E131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>23</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
+      <c r="E132" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>23</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
+      <c r="E133" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>23</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
+      <c r="E134" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>23</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
+      <c r="E135" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>24</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>24</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
+      <c r="E137" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>24</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1">
+      <c r="E138" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>24</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1">
+      <c r="E139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>25</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>25</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>25</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
+      <c r="E142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>26</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
+      <c r="E143" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>26</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
+      <c r="E144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>26</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
+      <c r="E145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>26</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
+      <c r="E146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>26</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>27</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1">
+      <c r="E148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>27</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="1">
+      <c r="E149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>27</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30">
-      <c r="A143" s="1">
+      <c r="E150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>27</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30">
-      <c r="A144" s="1">
+      <c r="E151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>27</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1">
+      <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>28</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="1">
+      <c r="E153" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>28</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1">
+      <c r="E154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>28</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1">
+      <c r="E155" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>28</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1">
+      <c r="E156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>28</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="1">
+      <c r="E157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>29</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="30">
-      <c r="A151" s="1">
+      <c r="E158" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>29</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1">
+      <c r="E159" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>29</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="1">
+      <c r="E160" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>29</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30">
-      <c r="A154" s="1">
+      <c r="E161" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>29</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -621,9 +621,6 @@
     <t>Büyük ve sert taş.</t>
   </si>
   <si>
-    <t xml:space="preserve">CANLI </t>
-  </si>
-  <si>
     <t>T,U,Ş</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>PARA</t>
+  </si>
+  <si>
+    <t>CANLI</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="G681" sqref="G681"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4255,7 +4255,7 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>909</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>190</v>
@@ -4615,7 +4615,7 @@
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>8</v>
@@ -4768,7 +4768,7 @@
         <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>8</v>
@@ -4802,7 +4802,7 @@
         <v>26</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>8</v>
@@ -4836,7 +4836,7 @@
         <v>29</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>15</v>
@@ -4853,7 +4853,7 @@
         <v>31</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>15</v>
@@ -4864,13 +4864,13 @@
         <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
@@ -4881,13 +4881,13 @@
         <v>16</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
@@ -4898,16 +4898,16 @@
         <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4915,13 +4915,13 @@
         <v>17</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>8</v>
@@ -4932,13 +4932,13 @@
         <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
@@ -4949,13 +4949,13 @@
         <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>8</v>
@@ -4966,13 +4966,13 @@
         <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>8</v>
@@ -4983,13 +4983,13 @@
         <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D111" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
@@ -5000,13 +5000,13 @@
         <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>8</v>
@@ -5017,13 +5017,13 @@
         <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
@@ -5034,13 +5034,13 @@
         <v>20</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
@@ -5051,13 +5051,13 @@
         <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
@@ -5068,13 +5068,13 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
@@ -5085,13 +5085,13 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>8</v>
@@ -5102,13 +5102,13 @@
         <v>21</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>8</v>
@@ -5119,13 +5119,13 @@
         <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
@@ -5136,13 +5136,13 @@
         <v>21</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
@@ -5153,13 +5153,13 @@
         <v>22</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>8</v>
@@ -5170,13 +5170,13 @@
         <v>22</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
@@ -5187,13 +5187,13 @@
         <v>22</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
@@ -5204,13 +5204,13 @@
         <v>23</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D124" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>8</v>
@@ -5221,13 +5221,13 @@
         <v>23</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>8</v>
@@ -5238,13 +5238,13 @@
         <v>23</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>8</v>
@@ -5255,13 +5255,13 @@
         <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>8</v>
@@ -5272,13 +5272,13 @@
         <v>24</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D128" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>8</v>
@@ -5289,13 +5289,13 @@
         <v>24</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
@@ -5306,13 +5306,13 @@
         <v>24</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>8</v>
@@ -5323,13 +5323,13 @@
         <v>24</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>8</v>
@@ -5340,13 +5340,13 @@
         <v>25</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>8</v>
@@ -5357,13 +5357,13 @@
         <v>25</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>8</v>
@@ -5374,13 +5374,13 @@
         <v>25</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>8</v>
@@ -5397,7 +5397,7 @@
         <v>68</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>8</v>
@@ -5414,7 +5414,7 @@
         <v>69</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>8</v>
@@ -5431,7 +5431,7 @@
         <v>71</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>8</v>
@@ -5448,7 +5448,7 @@
         <v>70</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>8</v>
@@ -5465,7 +5465,7 @@
         <v>72</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>8</v>
@@ -5476,13 +5476,13 @@
         <v>27</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
@@ -5493,13 +5493,13 @@
         <v>27</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>8</v>
@@ -5510,13 +5510,13 @@
         <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>8</v>
@@ -5527,13 +5527,13 @@
         <v>27</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>8</v>
@@ -5544,13 +5544,13 @@
         <v>27</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>15</v>
@@ -5561,13 +5561,13 @@
         <v>28</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>8</v>
@@ -5578,13 +5578,13 @@
         <v>28</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>8</v>
@@ -5595,13 +5595,13 @@
         <v>28</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>8</v>
@@ -5612,13 +5612,13 @@
         <v>28</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>8</v>
@@ -5629,13 +5629,13 @@
         <v>28</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>8</v>
@@ -5646,13 +5646,13 @@
         <v>29</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="D150" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>8</v>
@@ -5663,13 +5663,13 @@
         <v>29</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>15</v>
@@ -5680,13 +5680,13 @@
         <v>29</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>8</v>
@@ -5697,13 +5697,13 @@
         <v>29</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>8</v>
@@ -5714,13 +5714,13 @@
         <v>29</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>8</v>
@@ -5731,13 +5731,13 @@
         <v>30</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>8</v>
@@ -5748,13 +5748,13 @@
         <v>30</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>8</v>
@@ -5765,13 +5765,13 @@
         <v>30</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>15</v>
@@ -5782,13 +5782,13 @@
         <v>31</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="D158" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>8</v>
@@ -5799,13 +5799,13 @@
         <v>31</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>8</v>
@@ -5816,13 +5816,13 @@
         <v>31</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>8</v>
@@ -5833,13 +5833,13 @@
         <v>31</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C161" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>15</v>
@@ -5850,13 +5850,13 @@
         <v>31</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>8</v>
@@ -5867,13 +5867,13 @@
         <v>31</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>15</v>
@@ -5884,13 +5884,13 @@
         <v>31</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>8</v>
@@ -5901,13 +5901,13 @@
         <v>32</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>8</v>
@@ -5918,13 +5918,13 @@
         <v>32</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C166" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>15</v>
@@ -5935,13 +5935,13 @@
         <v>32</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C167" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>15</v>
@@ -5952,13 +5952,13 @@
         <v>32</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>15</v>
@@ -5969,13 +5969,13 @@
         <v>32</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>8</v>
@@ -5986,13 +5986,13 @@
         <v>32</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C170" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>8</v>
@@ -6003,13 +6003,13 @@
         <v>33</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="D171" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>8</v>
@@ -6020,13 +6020,13 @@
         <v>33</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>15</v>
@@ -6037,13 +6037,13 @@
         <v>33</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C173" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>8</v>
@@ -6054,13 +6054,13 @@
         <v>34</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="D174" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>15</v>
@@ -6071,13 +6071,13 @@
         <v>34</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>8</v>
@@ -6088,13 +6088,13 @@
         <v>34</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C176" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>8</v>
@@ -6105,10 +6105,10 @@
         <v>34</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
@@ -6120,13 +6120,13 @@
         <v>34</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C178" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>8</v>
@@ -6137,13 +6137,13 @@
         <v>34</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C179" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>8</v>
@@ -6154,13 +6154,13 @@
         <v>34</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>8</v>
@@ -6171,13 +6171,13 @@
         <v>35</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="D181" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>8</v>
@@ -6188,13 +6188,13 @@
         <v>35</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C182" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>8</v>
@@ -6205,13 +6205,13 @@
         <v>35</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>15</v>
@@ -6222,13 +6222,13 @@
         <v>35</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>8</v>
@@ -6239,13 +6239,13 @@
         <v>35</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C185" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>8</v>
@@ -6256,13 +6256,13 @@
         <v>36</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="D186" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>8</v>
@@ -6273,13 +6273,13 @@
         <v>36</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C187" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>15</v>
@@ -6290,13 +6290,13 @@
         <v>36</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>8</v>
@@ -6307,13 +6307,13 @@
         <v>36</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>8</v>
@@ -6324,13 +6324,13 @@
         <v>37</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="D190" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>8</v>
@@ -6341,13 +6341,13 @@
         <v>37</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>15</v>
@@ -6358,13 +6358,13 @@
         <v>37</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C192" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>15</v>
@@ -6375,13 +6375,13 @@
         <v>37</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>15</v>
@@ -6392,13 +6392,13 @@
         <v>37</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>15</v>
@@ -6409,13 +6409,13 @@
         <v>37</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>15</v>
@@ -6426,13 +6426,13 @@
         <v>37</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>8</v>
@@ -6443,13 +6443,13 @@
         <v>37</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>8</v>
@@ -6460,13 +6460,13 @@
         <v>37</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>15</v>
@@ -6477,13 +6477,13 @@
         <v>37</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>8</v>
@@ -6494,13 +6494,13 @@
         <v>37</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>8</v>
@@ -6511,13 +6511,13 @@
         <v>38</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>15</v>
@@ -6528,13 +6528,13 @@
         <v>38</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C202" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>8</v>
@@ -6545,13 +6545,13 @@
         <v>38</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>8</v>
@@ -6562,13 +6562,13 @@
         <v>38</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C204" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>8</v>
@@ -6579,13 +6579,13 @@
         <v>38</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>8</v>
@@ -6596,13 +6596,13 @@
         <v>39</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>8</v>
@@ -6613,13 +6613,13 @@
         <v>39</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="D207" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>8</v>
@@ -6630,13 +6630,13 @@
         <v>39</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>15</v>
@@ -6647,13 +6647,13 @@
         <v>39</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C209" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>8</v>
@@ -6664,13 +6664,13 @@
         <v>39</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>8</v>
@@ -6681,13 +6681,13 @@
         <v>39</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C211" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>8</v>
@@ -6698,13 +6698,13 @@
         <v>40</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="D212" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>15</v>
@@ -6715,13 +6715,13 @@
         <v>40</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>8</v>
@@ -6732,13 +6732,13 @@
         <v>40</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>8</v>
@@ -6749,13 +6749,13 @@
         <v>40</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>8</v>
@@ -6766,13 +6766,13 @@
         <v>40</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>8</v>
@@ -6783,13 +6783,13 @@
         <v>41</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="D217" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>15</v>
@@ -6800,13 +6800,13 @@
         <v>41</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C218" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>8</v>
@@ -6817,13 +6817,13 @@
         <v>41</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C219" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D219" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>8</v>
@@ -6834,13 +6834,13 @@
         <v>41</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C220" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>8</v>
@@ -6851,13 +6851,13 @@
         <v>42</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C221" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>8</v>
@@ -6868,13 +6868,13 @@
         <v>42</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>8</v>
@@ -6885,13 +6885,13 @@
         <v>42</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C223" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>8</v>
@@ -6902,13 +6902,13 @@
         <v>42</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C224" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D224" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>15</v>
@@ -6919,13 +6919,13 @@
         <v>43</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="D225" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>8</v>
@@ -6936,13 +6936,13 @@
         <v>43</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>15</v>
@@ -6953,13 +6953,13 @@
         <v>43</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C227" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>8</v>
@@ -6970,13 +6970,13 @@
         <v>43</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C228" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>8</v>
@@ -6987,13 +6987,13 @@
         <v>43</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C229" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>8</v>
@@ -7004,13 +7004,13 @@
         <v>43</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C230" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>8</v>
@@ -7021,13 +7021,13 @@
         <v>44</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="D231" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>15</v>
@@ -7038,13 +7038,13 @@
         <v>44</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C232" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>8</v>
@@ -7055,13 +7055,13 @@
         <v>44</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C233" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>8</v>
@@ -7072,13 +7072,13 @@
         <v>44</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C234" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>8</v>
@@ -7089,13 +7089,13 @@
         <v>45</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="D235" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>8</v>
@@ -7106,13 +7106,13 @@
         <v>45</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C236" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D236" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>8</v>
@@ -7123,13 +7123,13 @@
         <v>45</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C237" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D237" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>15</v>
@@ -7140,13 +7140,13 @@
         <v>45</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C238" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D238" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>8</v>
@@ -7157,13 +7157,13 @@
         <v>45</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C239" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>8</v>
@@ -7174,13 +7174,13 @@
         <v>45</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C240" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D240" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>8</v>
@@ -7191,13 +7191,13 @@
         <v>46</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="D241" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>15</v>
@@ -7208,13 +7208,13 @@
         <v>46</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C242" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D242" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>8</v>
@@ -7225,13 +7225,13 @@
         <v>46</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C243" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D243" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>8</v>
@@ -7242,13 +7242,13 @@
         <v>46</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C244" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D244" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>8</v>
@@ -7259,13 +7259,13 @@
         <v>46</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C245" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D245" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>8</v>
@@ -7276,13 +7276,13 @@
         <v>46</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C246" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>8</v>
@@ -7293,13 +7293,13 @@
         <v>46</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C247" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D247" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>15</v>
@@ -7310,13 +7310,13 @@
         <v>46</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C248" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D248" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>8</v>
@@ -7327,13 +7327,13 @@
         <v>47</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="D249" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>8</v>
@@ -7344,13 +7344,13 @@
         <v>47</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C250" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D250" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>8</v>
@@ -7361,13 +7361,13 @@
         <v>47</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C251" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>8</v>
@@ -7378,13 +7378,13 @@
         <v>47</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C252" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D252" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>15</v>
@@ -7395,13 +7395,13 @@
         <v>48</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="D253" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>15</v>
@@ -7412,13 +7412,13 @@
         <v>48</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C254" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D254" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>8</v>
@@ -7429,13 +7429,13 @@
         <v>48</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C255" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>8</v>
@@ -7446,13 +7446,13 @@
         <v>48</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C256" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D256" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>8</v>
@@ -7463,13 +7463,13 @@
         <v>49</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="D257" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>528</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>8</v>
@@ -7480,13 +7480,13 @@
         <v>49</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C258" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>8</v>
@@ -7497,13 +7497,13 @@
         <v>49</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C259" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D259" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>15</v>
@@ -7514,13 +7514,13 @@
         <v>49</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>8</v>
@@ -7531,13 +7531,13 @@
         <v>49</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C261" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D261" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>8</v>
@@ -7548,13 +7548,13 @@
         <v>49</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C262" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>8</v>
@@ -7565,13 +7565,13 @@
         <v>49</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C263" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>15</v>
@@ -7582,13 +7582,13 @@
         <v>49</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>8</v>
@@ -7599,13 +7599,13 @@
         <v>50</v>
       </c>
       <c r="B265" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="D265" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>8</v>
@@ -7616,13 +7616,13 @@
         <v>50</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C266" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>8</v>
@@ -7633,13 +7633,13 @@
         <v>50</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C267" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D267" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>8</v>
@@ -7650,13 +7650,13 @@
         <v>50</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C268" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D268" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>8</v>
@@ -7667,13 +7667,13 @@
         <v>50</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>8</v>
@@ -7684,13 +7684,13 @@
         <v>50</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C270" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D270" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>8</v>
@@ -7701,13 +7701,13 @@
         <v>50</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C271" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D271" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>554</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>15</v>
@@ -7718,13 +7718,13 @@
         <v>51</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="D272" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>8</v>
@@ -7735,13 +7735,13 @@
         <v>51</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C273" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D273" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>8</v>
@@ -7752,13 +7752,13 @@
         <v>51</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C274" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>15</v>
@@ -7769,13 +7769,13 @@
         <v>51</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C275" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>8</v>
@@ -7786,13 +7786,13 @@
         <v>51</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C276" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>15</v>
@@ -7803,13 +7803,13 @@
         <v>51</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>8</v>
@@ -7820,13 +7820,13 @@
         <v>51</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C278" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D278" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>15</v>
@@ -7837,13 +7837,13 @@
         <v>51</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C279" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>8</v>
@@ -7854,13 +7854,13 @@
         <v>51</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C280" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>8</v>
@@ -7871,13 +7871,13 @@
         <v>51</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C281" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>8</v>
@@ -7888,13 +7888,13 @@
         <v>51</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C282" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D282" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>8</v>
@@ -7905,13 +7905,13 @@
         <v>52</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="D283" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>15</v>
@@ -7922,13 +7922,13 @@
         <v>52</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>8</v>
@@ -7939,13 +7939,13 @@
         <v>52</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>8</v>
@@ -7956,13 +7956,13 @@
         <v>52</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C286" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>8</v>
@@ -7973,13 +7973,13 @@
         <v>52</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C287" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D287" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>8</v>
@@ -7990,13 +7990,13 @@
         <v>53</v>
       </c>
       <c r="B288" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="D288" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>8</v>
@@ -8007,13 +8007,13 @@
         <v>53</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C289" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D289" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>8</v>
@@ -8024,13 +8024,13 @@
         <v>53</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C290" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D290" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="D290" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>8</v>
@@ -8041,13 +8041,13 @@
         <v>53</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C291" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D291" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>8</v>
@@ -8058,13 +8058,13 @@
         <v>53</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C292" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D292" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>8</v>
@@ -8075,13 +8075,13 @@
         <v>53</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C293" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D293" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>8</v>
@@ -8092,13 +8092,13 @@
         <v>53</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C294" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D294" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="D294" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>8</v>
@@ -8109,13 +8109,13 @@
         <v>53</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C295" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D295" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>15</v>
@@ -8126,13 +8126,13 @@
         <v>54</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>8</v>
@@ -8143,10 +8143,10 @@
         <v>54</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="4" t="s">
@@ -8158,10 +8158,10 @@
         <v>54</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
@@ -8173,10 +8173,10 @@
         <v>54</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
@@ -8188,10 +8188,10 @@
         <v>55</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
@@ -8203,10 +8203,10 @@
         <v>55</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
@@ -8218,10 +8218,10 @@
         <v>55</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
@@ -8233,10 +8233,10 @@
         <v>55</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
@@ -8248,10 +8248,10 @@
         <v>55</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
@@ -8263,10 +8263,10 @@
         <v>55</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
@@ -8278,10 +8278,10 @@
         <v>55</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
@@ -8293,10 +8293,10 @@
         <v>56</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
@@ -8308,10 +8308,10 @@
         <v>56</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
@@ -8323,7 +8323,7 @@
         <v>56</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>71</v>
@@ -8338,10 +8338,10 @@
         <v>56</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="4" t="s">
@@ -8353,10 +8353,10 @@
         <v>56</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="4" t="s">
@@ -8368,10 +8368,10 @@
         <v>57</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>618</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="4" t="s">
@@ -8383,10 +8383,10 @@
         <v>57</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
@@ -8398,10 +8398,10 @@
         <v>57</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="4" t="s">
@@ -8413,10 +8413,10 @@
         <v>57</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="4" t="s">
@@ -8428,7 +8428,7 @@
         <v>57</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>87</v>
@@ -8443,7 +8443,7 @@
         <v>57</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>129</v>
@@ -8458,7 +8458,7 @@
         <v>57</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>50</v>
@@ -8473,10 +8473,10 @@
         <v>57</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
@@ -8488,10 +8488,10 @@
         <v>58</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
@@ -8503,10 +8503,10 @@
         <v>58</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
@@ -8518,10 +8518,10 @@
         <v>58</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
@@ -8533,10 +8533,10 @@
         <v>58</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="4" t="s">
@@ -8548,10 +8548,10 @@
         <v>58</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
@@ -8563,10 +8563,10 @@
         <v>58</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="4" t="s">
@@ -8578,10 +8578,10 @@
         <v>58</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="4" t="s">
@@ -8593,10 +8593,10 @@
         <v>58</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="4" t="s">
@@ -8608,10 +8608,10 @@
         <v>59</v>
       </c>
       <c r="B328" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C328" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328" s="4" t="s">
@@ -8623,10 +8623,10 @@
         <v>59</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="4" t="s">
@@ -8638,10 +8638,10 @@
         <v>59</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="4" t="s">
@@ -8653,10 +8653,10 @@
         <v>59</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
@@ -8668,10 +8668,10 @@
         <v>59</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D332" s="4"/>
       <c r="E332" s="4" t="s">
@@ -8683,10 +8683,10 @@
         <v>59</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="4" t="s">
@@ -8698,10 +8698,10 @@
         <v>59</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="4" t="s">
@@ -8713,10 +8713,10 @@
         <v>59</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D335" s="4"/>
       <c r="E335" s="4" t="s">
@@ -8728,7 +8728,7 @@
         <v>60</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>87</v>
@@ -8743,10 +8743,10 @@
         <v>60</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
@@ -8758,10 +8758,10 @@
         <v>60</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="4" t="s">
@@ -8773,10 +8773,10 @@
         <v>60</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339" s="4" t="s">
@@ -8788,10 +8788,10 @@
         <v>60</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="4" t="s">
@@ -8803,10 +8803,10 @@
         <v>60</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="4" t="s">
@@ -8818,7 +8818,7 @@
         <v>60</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>50</v>
@@ -8833,10 +8833,10 @@
         <v>60</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D343" s="4"/>
       <c r="E343" s="4" t="s">
@@ -8848,10 +8848,10 @@
         <v>60</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="4" t="s">
@@ -8863,10 +8863,10 @@
         <v>61</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="4" t="s">
@@ -8878,10 +8878,10 @@
         <v>61</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C346" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="4" t="s">
@@ -8893,10 +8893,10 @@
         <v>61</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="4" t="s">
@@ -8908,10 +8908,10 @@
         <v>61</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="4" t="s">
@@ -8923,10 +8923,10 @@
         <v>61</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="4" t="s">
@@ -8938,10 +8938,10 @@
         <v>61</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="4" t="s">
@@ -8953,10 +8953,10 @@
         <v>61</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="4" t="s">
@@ -8968,10 +8968,10 @@
         <v>62</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352" s="4" t="s">
@@ -8983,10 +8983,10 @@
         <v>62</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4" t="s">
@@ -8998,10 +8998,10 @@
         <v>62</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="4" t="s">
@@ -9013,10 +9013,10 @@
         <v>62</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4" t="s">
@@ -9028,10 +9028,10 @@
         <v>62</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4" t="s">
@@ -9043,10 +9043,10 @@
         <v>62</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4" t="s">
@@ -9058,10 +9058,10 @@
         <v>63</v>
       </c>
       <c r="B358" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C358" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4" t="s">
@@ -9073,10 +9073,10 @@
         <v>63</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
@@ -9088,10 +9088,10 @@
         <v>63</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="4" t="s">
@@ -9103,10 +9103,10 @@
         <v>63</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="4" t="s">
@@ -9118,10 +9118,10 @@
         <v>63</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="4" t="s">
@@ -9133,10 +9133,10 @@
         <v>63</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
@@ -9148,10 +9148,10 @@
         <v>63</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
@@ -9163,10 +9163,10 @@
         <v>64</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="4" t="s">
@@ -9178,10 +9178,10 @@
         <v>64</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
@@ -9193,10 +9193,10 @@
         <v>64</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367" s="4" t="s">
@@ -9208,10 +9208,10 @@
         <v>64</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="4" t="s">
@@ -9223,10 +9223,10 @@
         <v>64</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="4" t="s">
@@ -9238,10 +9238,10 @@
         <v>64</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="4" t="s">
@@ -9253,10 +9253,10 @@
         <v>65</v>
       </c>
       <c r="B371" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C371" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371" s="4" t="s">
@@ -9268,10 +9268,10 @@
         <v>65</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372" s="4" t="s">
@@ -9283,10 +9283,10 @@
         <v>65</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373" s="4" t="s">
@@ -9298,10 +9298,10 @@
         <v>65</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D374" s="4"/>
       <c r="E374" s="4" t="s">
@@ -9313,10 +9313,10 @@
         <v>65</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375" s="4" t="s">
@@ -9328,10 +9328,10 @@
         <v>66</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C376" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376" s="4" t="s">
@@ -9343,10 +9343,10 @@
         <v>66</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="4" t="s">
@@ -9358,10 +9358,10 @@
         <v>66</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378" s="4" t="s">
@@ -9373,10 +9373,10 @@
         <v>66</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D379" s="4"/>
       <c r="E379" s="4" t="s">
@@ -9388,10 +9388,10 @@
         <v>66</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380" s="4" t="s">
@@ -9403,10 +9403,10 @@
         <v>66</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381" s="4" t="s">
@@ -9418,10 +9418,10 @@
         <v>66</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="4" t="s">
@@ -9433,10 +9433,10 @@
         <v>66</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="4" t="s">
@@ -9448,10 +9448,10 @@
         <v>66</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="4" t="s">
@@ -9463,10 +9463,10 @@
         <v>67</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D385" s="4"/>
       <c r="E385" s="4" t="s">
@@ -9478,10 +9478,10 @@
         <v>67</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D386" s="4"/>
       <c r="E386" s="4" t="s">
@@ -9493,10 +9493,10 @@
         <v>67</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D387" s="4"/>
       <c r="E387" s="4" t="s">
@@ -9508,10 +9508,10 @@
         <v>67</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4" t="s">
@@ -9523,10 +9523,10 @@
         <v>67</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="4" t="s">
@@ -9538,10 +9538,10 @@
         <v>68</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D390" s="4"/>
       <c r="E390" s="4" t="s">
@@ -9553,10 +9553,10 @@
         <v>68</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>687</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4" t="s">
@@ -9568,10 +9568,10 @@
         <v>68</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4" t="s">
@@ -9583,10 +9583,10 @@
         <v>68</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4" t="s">
@@ -9598,10 +9598,10 @@
         <v>68</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4" t="s">
@@ -9613,10 +9613,10 @@
         <v>68</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4" t="s">
@@ -9628,10 +9628,10 @@
         <v>68</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4" t="s">
@@ -9643,10 +9643,10 @@
         <v>69</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>689</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>690</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4" t="s">
@@ -9658,10 +9658,10 @@
         <v>69</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4" t="s">
@@ -9673,10 +9673,10 @@
         <v>69</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4" t="s">
@@ -9688,10 +9688,10 @@
         <v>69</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4" t="s">
@@ -9703,10 +9703,10 @@
         <v>69</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4" t="s">
@@ -9718,10 +9718,10 @@
         <v>69</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4" t="s">
@@ -9733,10 +9733,10 @@
         <v>70</v>
       </c>
       <c r="B403" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C403" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4" t="s">
@@ -9748,10 +9748,10 @@
         <v>70</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4" t="s">
@@ -9763,10 +9763,10 @@
         <v>70</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
@@ -9778,10 +9778,10 @@
         <v>70</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4" t="s">
@@ -9793,10 +9793,10 @@
         <v>70</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4" t="s">
@@ -9808,10 +9808,10 @@
         <v>71</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4" t="s">
@@ -9823,10 +9823,10 @@
         <v>71</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4" t="s">
@@ -9838,10 +9838,10 @@
         <v>71</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4" t="s">
@@ -9853,10 +9853,10 @@
         <v>71</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4" t="s">
@@ -9868,10 +9868,10 @@
         <v>71</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4" t="s">
@@ -9883,10 +9883,10 @@
         <v>71</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4" t="s">
@@ -9898,10 +9898,10 @@
         <v>71</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4" t="s">
@@ -9913,7 +9913,7 @@
         <v>72</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>61</v>
@@ -9928,10 +9928,10 @@
         <v>72</v>
       </c>
       <c r="B416" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C416" s="4" t="s">
         <v>704</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>705</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4" t="s">
@@ -9943,10 +9943,10 @@
         <v>72</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4" t="s">
@@ -9958,10 +9958,10 @@
         <v>72</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4" t="s">
@@ -9973,10 +9973,10 @@
         <v>72</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4" t="s">
@@ -9988,10 +9988,10 @@
         <v>72</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4" t="s">
@@ -10003,10 +10003,10 @@
         <v>73</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4" t="s">
@@ -10018,10 +10018,10 @@
         <v>73</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4" t="s">
@@ -10033,10 +10033,10 @@
         <v>73</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4" t="s">
@@ -10048,10 +10048,10 @@
         <v>73</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4" t="s">
@@ -10063,10 +10063,10 @@
         <v>73</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4" t="s">
@@ -10078,10 +10078,10 @@
         <v>73</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4" t="s">
@@ -10093,10 +10093,10 @@
         <v>73</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4" t="s">
@@ -10108,10 +10108,10 @@
         <v>74</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4" t="s">
@@ -10123,10 +10123,10 @@
         <v>74</v>
       </c>
       <c r="B429" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C429" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="C429" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4" t="s">
@@ -10138,10 +10138,10 @@
         <v>74</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4" t="s">
@@ -10153,10 +10153,10 @@
         <v>74</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4" t="s">
@@ -10168,7 +10168,7 @@
         <v>74</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>114</v>
@@ -10183,7 +10183,7 @@
         <v>74</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>59</v>
@@ -10198,10 +10198,10 @@
         <v>74</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
@@ -10213,10 +10213,10 @@
         <v>74</v>
       </c>
       <c r="B435" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C435" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
@@ -10228,10 +10228,10 @@
         <v>75</v>
       </c>
       <c r="B436" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C436" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4" t="s">
@@ -10243,10 +10243,10 @@
         <v>75</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
@@ -10258,10 +10258,10 @@
         <v>75</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4" t="s">
@@ -10273,10 +10273,10 @@
         <v>75</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4" t="s">
@@ -10288,10 +10288,10 @@
         <v>75</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D440" s="4"/>
       <c r="E440" s="4" t="s">
@@ -10303,10 +10303,10 @@
         <v>75</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D441" s="4"/>
       <c r="E441" s="4" t="s">
@@ -10318,10 +10318,10 @@
         <v>75</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D442" s="4"/>
       <c r="E442" s="4" t="s">
@@ -10333,10 +10333,10 @@
         <v>76</v>
       </c>
       <c r="B443" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="C443" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="D443" s="4"/>
       <c r="E443" s="4" t="s">
@@ -10348,10 +10348,10 @@
         <v>76</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D444" s="4"/>
       <c r="E444" s="4" t="s">
@@ -10363,10 +10363,10 @@
         <v>76</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D445" s="4"/>
       <c r="E445" s="4" t="s">
@@ -10378,10 +10378,10 @@
         <v>76</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
@@ -10393,10 +10393,10 @@
         <v>76</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D447" s="4"/>
       <c r="E447" s="4" t="s">
@@ -10408,10 +10408,10 @@
         <v>76</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D448" s="4"/>
       <c r="E448" s="4" t="s">
@@ -10423,10 +10423,10 @@
         <v>76</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D449" s="4"/>
       <c r="E449" s="4" t="s">
@@ -10438,10 +10438,10 @@
         <v>76</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D450" s="4"/>
       <c r="E450" s="4" t="s">
@@ -10453,10 +10453,10 @@
         <v>77</v>
       </c>
       <c r="B451" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C451" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="D451" s="4"/>
       <c r="E451" s="4" t="s">
@@ -10468,10 +10468,10 @@
         <v>77</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D452" s="4"/>
       <c r="E452" s="4" t="s">
@@ -10483,10 +10483,10 @@
         <v>77</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453" s="4" t="s">
@@ -10498,10 +10498,10 @@
         <v>77</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="4" t="s">
@@ -10513,10 +10513,10 @@
         <v>77</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
@@ -10528,10 +10528,10 @@
         <v>77</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456" s="4" t="s">
@@ -10543,10 +10543,10 @@
         <v>77</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D457" s="4"/>
       <c r="E457" s="4" t="s">
@@ -10558,10 +10558,10 @@
         <v>78</v>
       </c>
       <c r="B458" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C458" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="D458" s="4"/>
       <c r="E458" s="4" t="s">
@@ -10573,10 +10573,10 @@
         <v>78</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D459" s="4"/>
       <c r="E459" s="4" t="s">
@@ -10588,10 +10588,10 @@
         <v>78</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D460" s="4"/>
       <c r="E460" s="4" t="s">
@@ -10603,10 +10603,10 @@
         <v>78</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
@@ -10618,10 +10618,10 @@
         <v>78</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D462" s="4"/>
       <c r="E462" s="4" t="s">
@@ -10633,10 +10633,10 @@
         <v>79</v>
       </c>
       <c r="B463" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C463" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="D463" s="4"/>
       <c r="E463" s="4" t="s">
@@ -10648,10 +10648,10 @@
         <v>79</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D464" s="4"/>
       <c r="E464" s="4" t="s">
@@ -10663,10 +10663,10 @@
         <v>79</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
@@ -10678,7 +10678,7 @@
         <v>79</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>128</v>
@@ -10693,10 +10693,10 @@
         <v>79</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D467" s="4"/>
       <c r="E467" s="4" t="s">
@@ -10708,10 +10708,10 @@
         <v>79</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D468" s="4"/>
       <c r="E468" s="4" t="s">
@@ -10723,10 +10723,10 @@
         <v>80</v>
       </c>
       <c r="B469" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="D469" s="4"/>
       <c r="E469" s="4" t="s">
@@ -10738,10 +10738,10 @@
         <v>80</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D470" s="4"/>
       <c r="E470" s="4" t="s">
@@ -10753,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D471" s="4"/>
       <c r="E471" s="4" t="s">
@@ -10768,10 +10768,10 @@
         <v>80</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D472" s="4"/>
       <c r="E472" s="4" t="s">
@@ -10783,10 +10783,10 @@
         <v>80</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473" s="4" t="s">
@@ -10798,10 +10798,10 @@
         <v>80</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474" s="4" t="s">
@@ -10813,10 +10813,10 @@
         <v>81</v>
       </c>
       <c r="B475" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475" s="4" t="s">
@@ -10828,10 +10828,10 @@
         <v>81</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D476" s="4"/>
       <c r="E476" s="4" t="s">
@@ -10843,10 +10843,10 @@
         <v>81</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D477" s="4"/>
       <c r="E477" s="4" t="s">
@@ -10858,10 +10858,10 @@
         <v>81</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D478" s="4"/>
       <c r="E478" s="4" t="s">
@@ -10873,10 +10873,10 @@
         <v>81</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D479" s="4"/>
       <c r="E479" s="4" t="s">
@@ -10888,7 +10888,7 @@
         <v>82</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>115</v>
@@ -10903,7 +10903,7 @@
         <v>82</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>20</v>
@@ -10918,7 +10918,7 @@
         <v>82</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>22</v>
@@ -10933,10 +10933,10 @@
         <v>82</v>
       </c>
       <c r="B483" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C483" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="D483" s="4"/>
       <c r="E483" s="4" t="s">
@@ -10948,7 +10948,7 @@
         <v>82</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>23</v>
@@ -10963,7 +10963,7 @@
         <v>82</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>87</v>
@@ -10978,7 +10978,7 @@
         <v>83</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>63</v>
@@ -10993,7 +10993,7 @@
         <v>83</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>64</v>
@@ -11008,10 +11008,10 @@
         <v>83</v>
       </c>
       <c r="B488" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="4" t="s">
@@ -11023,10 +11023,10 @@
         <v>83</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D489" s="4"/>
       <c r="E489" s="4" t="s">
@@ -11038,10 +11038,10 @@
         <v>83</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D490" s="4"/>
       <c r="E490" s="4" t="s">
@@ -11053,10 +11053,10 @@
         <v>83</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D491" s="4"/>
       <c r="E491" s="4" t="s">
@@ -11068,10 +11068,10 @@
         <v>83</v>
       </c>
       <c r="B492" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
@@ -11083,7 +11083,7 @@
         <v>84</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>99</v>
@@ -11098,10 +11098,10 @@
         <v>84</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D494" s="4"/>
       <c r="E494" s="4" t="s">
@@ -11113,7 +11113,7 @@
         <v>84</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>96</v>
@@ -11128,10 +11128,10 @@
         <v>84</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496" s="4" t="s">
@@ -11143,10 +11143,10 @@
         <v>84</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D497" s="4"/>
       <c r="E497" s="4" t="s">
@@ -11158,10 +11158,10 @@
         <v>84</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="4" t="s">
@@ -11173,7 +11173,7 @@
         <v>84</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>72</v>
@@ -11188,10 +11188,10 @@
         <v>85</v>
       </c>
       <c r="B500" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>776</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500" s="4" t="s">
@@ -11203,10 +11203,10 @@
         <v>85</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="4" t="s">
@@ -11218,10 +11218,10 @@
         <v>85</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4" t="s">
@@ -11233,10 +11233,10 @@
         <v>85</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4" t="s">
@@ -11248,10 +11248,10 @@
         <v>85</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504" s="4" t="s">
@@ -11263,10 +11263,10 @@
         <v>85</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="4" t="s">
@@ -11278,10 +11278,10 @@
         <v>86</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
@@ -11293,10 +11293,10 @@
         <v>86</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="4" t="s">
@@ -11308,10 +11308,10 @@
         <v>86</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508" s="4" t="s">
@@ -11323,10 +11323,10 @@
         <v>86</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509" s="4" t="s">
@@ -11338,10 +11338,10 @@
         <v>86</v>
       </c>
       <c r="B510" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C510" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="C510" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="D510" s="4"/>
       <c r="E510" s="4" t="s">
@@ -11353,10 +11353,10 @@
         <v>86</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D511" s="4"/>
       <c r="E511" s="4" t="s">
@@ -11368,10 +11368,10 @@
         <v>86</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512" s="4" t="s">
@@ -11383,10 +11383,10 @@
         <v>87</v>
       </c>
       <c r="B513" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C513" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="C513" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513" s="4" t="s">
@@ -11398,7 +11398,7 @@
         <v>87</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>102</v>
@@ -11413,10 +11413,10 @@
         <v>87</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="4" t="s">
@@ -11428,10 +11428,10 @@
         <v>87</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="4" t="s">
@@ -11443,10 +11443,10 @@
         <v>87</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D517" s="4"/>
       <c r="E517" s="4" t="s">
@@ -11458,10 +11458,10 @@
         <v>87</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D518" s="4"/>
       <c r="E518" s="4" t="s">
@@ -11473,7 +11473,7 @@
         <v>87</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>103</v>
@@ -11488,10 +11488,10 @@
         <v>87</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4" t="s">
@@ -11503,10 +11503,10 @@
         <v>88</v>
       </c>
       <c r="B521" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C521" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="C521" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
@@ -11518,10 +11518,10 @@
         <v>88</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4" t="s">
@@ -11533,10 +11533,10 @@
         <v>88</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523" s="4" t="s">
@@ -11548,7 +11548,7 @@
         <v>88</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>108</v>
@@ -11563,7 +11563,7 @@
         <v>88</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>87</v>
@@ -11578,10 +11578,10 @@
         <v>88</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526" s="4" t="s">
@@ -11593,7 +11593,7 @@
         <v>88</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>111</v>
@@ -11608,10 +11608,10 @@
         <v>89</v>
       </c>
       <c r="B528" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C528" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="C528" s="4" t="s">
-        <v>793</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
@@ -11623,10 +11623,10 @@
         <v>89</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
@@ -11638,10 +11638,10 @@
         <v>89</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -11653,10 +11653,10 @@
         <v>89</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -11668,10 +11668,10 @@
         <v>89</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532" s="4" t="s">
@@ -11683,10 +11683,10 @@
         <v>89</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D533" s="4"/>
       <c r="E533" s="4" t="s">
@@ -11698,10 +11698,10 @@
         <v>90</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534" s="4" t="s">
@@ -11713,10 +11713,10 @@
         <v>90</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535" s="4" t="s">
@@ -11728,10 +11728,10 @@
         <v>90</v>
       </c>
       <c r="B536" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C536" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="4" t="s">
@@ -11743,10 +11743,10 @@
         <v>90</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537" s="4" t="s">
@@ -11758,10 +11758,10 @@
         <v>90</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538" s="4" t="s">
@@ -11773,10 +11773,10 @@
         <v>90</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
@@ -11788,10 +11788,10 @@
         <v>90</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
@@ -11803,7 +11803,7 @@
         <v>91</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>34</v>
@@ -11818,10 +11818,10 @@
         <v>91</v>
       </c>
       <c r="B542" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C542" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
@@ -11833,10 +11833,10 @@
         <v>91</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D543" s="4"/>
       <c r="E543" s="4" t="s">
@@ -11848,10 +11848,10 @@
         <v>91</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D544" s="4"/>
       <c r="E544" s="4" t="s">
@@ -11863,10 +11863,10 @@
         <v>91</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -11878,10 +11878,10 @@
         <v>91</v>
       </c>
       <c r="B546" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C546" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
@@ -11893,10 +11893,10 @@
         <v>92</v>
       </c>
       <c r="B547" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C547" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
@@ -11908,10 +11908,10 @@
         <v>92</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
@@ -11923,10 +11923,10 @@
         <v>92</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4" t="s">
@@ -11938,10 +11938,10 @@
         <v>92</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
@@ -11953,10 +11953,10 @@
         <v>92</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
@@ -11968,10 +11968,10 @@
         <v>92</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -11983,10 +11983,10 @@
         <v>92</v>
       </c>
       <c r="B553" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C553" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="C553" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
@@ -11998,10 +11998,10 @@
         <v>93</v>
       </c>
       <c r="B554" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
@@ -12013,10 +12013,10 @@
         <v>93</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12028,10 +12028,10 @@
         <v>93</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
@@ -12043,10 +12043,10 @@
         <v>93</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12058,10 +12058,10 @@
         <v>93</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4" t="s">
@@ -12073,10 +12073,10 @@
         <v>93</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12088,10 +12088,10 @@
         <v>93</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4" t="s">
@@ -12103,10 +12103,10 @@
         <v>94</v>
       </c>
       <c r="B561" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C561" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C561" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
@@ -12118,10 +12118,10 @@
         <v>94</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4" t="s">
@@ -12133,10 +12133,10 @@
         <v>94</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12148,10 +12148,10 @@
         <v>94</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12163,10 +12163,10 @@
         <v>94</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="4" t="s">
@@ -12178,10 +12178,10 @@
         <v>94</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566" s="4" t="s">
@@ -12193,10 +12193,10 @@
         <v>94</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12208,10 +12208,10 @@
         <v>95</v>
       </c>
       <c r="B568" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C568" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12223,10 +12223,10 @@
         <v>95</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
@@ -12238,10 +12238,10 @@
         <v>95</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
@@ -12253,10 +12253,10 @@
         <v>95</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4" t="s">
@@ -12268,10 +12268,10 @@
         <v>95</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572" s="4" t="s">
@@ -12283,10 +12283,10 @@
         <v>95</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12298,10 +12298,10 @@
         <v>95</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12313,10 +12313,10 @@
         <v>95</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12328,10 +12328,10 @@
         <v>95</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4" t="s">
@@ -12343,10 +12343,10 @@
         <v>96</v>
       </c>
       <c r="B577" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C577" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12358,10 +12358,10 @@
         <v>96</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4" t="s">
@@ -12373,10 +12373,10 @@
         <v>96</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12388,10 +12388,10 @@
         <v>96</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
@@ -12403,10 +12403,10 @@
         <v>96</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
@@ -12418,10 +12418,10 @@
         <v>96</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12433,10 +12433,10 @@
         <v>97</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12448,7 +12448,7 @@
         <v>97</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>130</v>
@@ -12463,10 +12463,10 @@
         <v>97</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
@@ -12478,10 +12478,10 @@
         <v>97</v>
       </c>
       <c r="B586" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C586" s="4" t="s">
         <v>833</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>834</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="4" t="s">
@@ -12493,10 +12493,10 @@
         <v>97</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
@@ -12508,10 +12508,10 @@
         <v>97</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588" s="4" t="s">
@@ -12523,10 +12523,10 @@
         <v>97</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589" s="4" t="s">
@@ -12538,10 +12538,10 @@
         <v>98</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590" s="4" t="s">
@@ -12553,10 +12553,10 @@
         <v>98</v>
       </c>
       <c r="B591" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C591" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>839</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="4" t="s">
@@ -12568,10 +12568,10 @@
         <v>98</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
@@ -12583,10 +12583,10 @@
         <v>98</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593" s="4" t="s">
@@ -12598,10 +12598,10 @@
         <v>98</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -12613,10 +12613,10 @@
         <v>98</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -12628,7 +12628,7 @@
         <v>99</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C596" s="4" t="s">
         <v>71</v>
@@ -12643,10 +12643,10 @@
         <v>99</v>
       </c>
       <c r="B597" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C597" s="4" t="s">
         <v>842</v>
-      </c>
-      <c r="C597" s="4" t="s">
-        <v>843</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
@@ -12658,10 +12658,10 @@
         <v>99</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -12673,7 +12673,7 @@
         <v>99</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>90</v>
@@ -12688,7 +12688,7 @@
         <v>99</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>94</v>
@@ -12703,10 +12703,10 @@
         <v>99</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
@@ -12718,10 +12718,10 @@
         <v>99</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="4" t="s">
@@ -12733,7 +12733,7 @@
         <v>99</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>92</v>
@@ -12748,10 +12748,10 @@
         <v>100</v>
       </c>
       <c r="B604" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C604" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="C604" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
@@ -12763,10 +12763,10 @@
         <v>100</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
@@ -12778,10 +12778,10 @@
         <v>100</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="4" t="s">
@@ -12793,7 +12793,7 @@
         <v>100</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>21</v>
@@ -12808,10 +12808,10 @@
         <v>100</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12823,10 +12823,10 @@
         <v>100</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
@@ -12838,10 +12838,10 @@
         <v>101</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -12853,10 +12853,10 @@
         <v>101</v>
       </c>
       <c r="B611" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C611" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="C611" s="4" t="s">
-        <v>853</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12868,10 +12868,10 @@
         <v>101</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612" s="4" t="s">
@@ -12883,10 +12883,10 @@
         <v>101</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -12898,10 +12898,10 @@
         <v>101</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
@@ -12913,10 +12913,10 @@
         <v>101</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -12928,10 +12928,10 @@
         <v>101</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="4" t="s">
@@ -12943,10 +12943,10 @@
         <v>101</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617" s="4" t="s">
@@ -12958,10 +12958,10 @@
         <v>102</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618" s="4" t="s">
@@ -12973,10 +12973,10 @@
         <v>102</v>
       </c>
       <c r="B619" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C619" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="C619" s="4" t="s">
-        <v>861</v>
       </c>
       <c r="D619" s="4"/>
       <c r="E619" s="4" t="s">
@@ -12988,10 +12988,10 @@
         <v>102</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620" s="4" t="s">
@@ -13003,10 +13003,10 @@
         <v>102</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621" s="4" t="s">
@@ -13018,10 +13018,10 @@
         <v>102</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="4" t="s">
@@ -13033,10 +13033,10 @@
         <v>102</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="4" t="s">
@@ -13048,10 +13048,10 @@
         <v>102</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624" s="4" t="s">
@@ -13063,10 +13063,10 @@
         <v>102</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13078,10 +13078,10 @@
         <v>103</v>
       </c>
       <c r="B626" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C626" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="C626" s="4" t="s">
-        <v>863</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13093,10 +13093,10 @@
         <v>103</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
@@ -13108,10 +13108,10 @@
         <v>103</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13123,10 +13123,10 @@
         <v>103</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13138,10 +13138,10 @@
         <v>103</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
@@ -13153,10 +13153,10 @@
         <v>103</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
@@ -13168,10 +13168,10 @@
         <v>103</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13183,10 +13183,10 @@
         <v>104</v>
       </c>
       <c r="B633" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C633" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="C633" s="4" t="s">
-        <v>871</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13198,10 +13198,10 @@
         <v>104</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13213,10 +13213,10 @@
         <v>104</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635" s="4" t="s">
@@ -13228,10 +13228,10 @@
         <v>104</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
@@ -13243,10 +13243,10 @@
         <v>104</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637" s="4" t="s">
@@ -13258,10 +13258,10 @@
         <v>104</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13273,10 +13273,10 @@
         <v>105</v>
       </c>
       <c r="B639" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C639" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="C639" s="4" t="s">
-        <v>876</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13288,10 +13288,10 @@
         <v>105</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
@@ -13303,10 +13303,10 @@
         <v>105</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
@@ -13318,10 +13318,10 @@
         <v>105</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13333,10 +13333,10 @@
         <v>105</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13348,10 +13348,10 @@
         <v>105</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="4" t="s">
@@ -13363,10 +13363,10 @@
         <v>105</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645" s="4" t="s">
@@ -13378,10 +13378,10 @@
         <v>106</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D646" s="4"/>
       <c r="E646" s="4" t="s">
@@ -13393,10 +13393,10 @@
         <v>106</v>
       </c>
       <c r="B647" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C647" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="C647" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13408,10 +13408,10 @@
         <v>106</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13423,10 +13423,10 @@
         <v>106</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649" s="4" t="s">
@@ -13438,7 +13438,7 @@
         <v>106</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>105</v>
@@ -13453,10 +13453,10 @@
         <v>106</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651" s="4" t="s">
@@ -13468,10 +13468,10 @@
         <v>106</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="4" t="s">
@@ -13483,10 +13483,10 @@
         <v>106</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13498,10 +13498,10 @@
         <v>107</v>
       </c>
       <c r="B654" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C654" s="4" t="s">
         <v>888</v>
-      </c>
-      <c r="C654" s="4" t="s">
-        <v>889</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13513,10 +13513,10 @@
         <v>107</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="4" t="s">
@@ -13528,7 +13528,7 @@
         <v>107</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C656" s="4" t="s">
         <v>128</v>
@@ -13543,10 +13543,10 @@
         <v>107</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13558,10 +13558,10 @@
         <v>107</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
@@ -13573,10 +13573,10 @@
         <v>107</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
@@ -13588,10 +13588,10 @@
         <v>107</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13603,10 +13603,10 @@
         <v>107</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13618,10 +13618,10 @@
         <v>107</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13633,10 +13633,10 @@
         <v>108</v>
       </c>
       <c r="B663" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C663" s="4" t="s">
         <v>897</v>
-      </c>
-      <c r="C663" s="4" t="s">
-        <v>898</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663" s="4" t="s">
@@ -13648,10 +13648,10 @@
         <v>108</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
@@ -13663,10 +13663,10 @@
         <v>108</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665" s="4" t="s">
@@ -13678,10 +13678,10 @@
         <v>108</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13693,10 +13693,10 @@
         <v>108</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13708,10 +13708,10 @@
         <v>108</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="4" t="s">
@@ -13723,10 +13723,10 @@
         <v>109</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669" s="4" t="s">
@@ -13738,10 +13738,10 @@
         <v>109</v>
       </c>
       <c r="B670" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C670" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="D670" s="4"/>
       <c r="E670" s="4" t="s">
@@ -13753,7 +13753,7 @@
         <v>109</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C671" s="4" t="s">
         <v>76</v>
@@ -13768,10 +13768,10 @@
         <v>109</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D672" s="4"/>
       <c r="E672" s="4" t="s">
@@ -13783,10 +13783,10 @@
         <v>109</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D673" s="4"/>
       <c r="E673" s="4" t="s">
@@ -13798,10 +13798,10 @@
         <v>109</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D674" s="4"/>
       <c r="E674" s="4" t="s">
@@ -13813,10 +13813,10 @@
         <v>109</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D675" s="4"/>
       <c r="E675" s="4" t="s">

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -1815,9 +1815,6 @@
     <t>Simgesi N, atom sayısı 7, atom ağırlığı 14.01 olan, havanın beşte dördünü oluşturan, rengi, kokusu, tadı olmayan bir element.</t>
   </si>
   <si>
-    <t>C,N,A,N</t>
-  </si>
-  <si>
     <t>Yaşama, yaşam.</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>CANLI</t>
+  </si>
+  <si>
+    <t>C,N,A,N,A</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4255,7 +4255,7 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>190</v>
@@ -8126,13 +8126,13 @@
         <v>54</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>598</v>
+        <v>909</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>8</v>
@@ -8143,10 +8143,10 @@
         <v>54</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>598</v>
+        <v>909</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="4" t="s">
@@ -8158,10 +8158,10 @@
         <v>54</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>598</v>
+        <v>909</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
@@ -8173,10 +8173,10 @@
         <v>54</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>598</v>
+        <v>909</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
@@ -8188,10 +8188,10 @@
         <v>55</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
@@ -8203,10 +8203,10 @@
         <v>55</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
@@ -8218,10 +8218,10 @@
         <v>55</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
@@ -8233,10 +8233,10 @@
         <v>55</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
@@ -8248,10 +8248,10 @@
         <v>55</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
@@ -8263,10 +8263,10 @@
         <v>55</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
@@ -8278,10 +8278,10 @@
         <v>55</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
@@ -8293,10 +8293,10 @@
         <v>56</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
@@ -8308,10 +8308,10 @@
         <v>56</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
@@ -8323,7 +8323,7 @@
         <v>56</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>71</v>
@@ -8338,10 +8338,10 @@
         <v>56</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="4" t="s">
@@ -8353,10 +8353,10 @@
         <v>56</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="4" t="s">
@@ -8368,10 +8368,10 @@
         <v>57</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="4" t="s">
@@ -8383,10 +8383,10 @@
         <v>57</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
@@ -8398,10 +8398,10 @@
         <v>57</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="4" t="s">
@@ -8413,10 +8413,10 @@
         <v>57</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="4" t="s">
@@ -8428,7 +8428,7 @@
         <v>57</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>87</v>
@@ -8443,7 +8443,7 @@
         <v>57</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>129</v>
@@ -8458,7 +8458,7 @@
         <v>57</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>50</v>
@@ -8473,10 +8473,10 @@
         <v>57</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
@@ -8488,10 +8488,10 @@
         <v>58</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
@@ -8503,10 +8503,10 @@
         <v>58</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
@@ -8518,10 +8518,10 @@
         <v>58</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
@@ -8533,10 +8533,10 @@
         <v>58</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="4" t="s">
@@ -8548,10 +8548,10 @@
         <v>58</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
@@ -8563,10 +8563,10 @@
         <v>58</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="4" t="s">
@@ -8578,10 +8578,10 @@
         <v>58</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="4" t="s">
@@ -8593,10 +8593,10 @@
         <v>58</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="4" t="s">
@@ -8608,10 +8608,10 @@
         <v>59</v>
       </c>
       <c r="B328" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C328" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328" s="4" t="s">
@@ -8623,10 +8623,10 @@
         <v>59</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="4" t="s">
@@ -8638,10 +8638,10 @@
         <v>59</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="4" t="s">
@@ -8653,10 +8653,10 @@
         <v>59</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
@@ -8668,10 +8668,10 @@
         <v>59</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D332" s="4"/>
       <c r="E332" s="4" t="s">
@@ -8683,10 +8683,10 @@
         <v>59</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="4" t="s">
@@ -8698,10 +8698,10 @@
         <v>59</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="4" t="s">
@@ -8713,10 +8713,10 @@
         <v>59</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D335" s="4"/>
       <c r="E335" s="4" t="s">
@@ -8728,7 +8728,7 @@
         <v>60</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>87</v>
@@ -8743,10 +8743,10 @@
         <v>60</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
@@ -8758,10 +8758,10 @@
         <v>60</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="4" t="s">
@@ -8773,10 +8773,10 @@
         <v>60</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339" s="4" t="s">
@@ -8788,10 +8788,10 @@
         <v>60</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="4" t="s">
@@ -8803,10 +8803,10 @@
         <v>60</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="4" t="s">
@@ -8818,7 +8818,7 @@
         <v>60</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>50</v>
@@ -8833,10 +8833,10 @@
         <v>60</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D343" s="4"/>
       <c r="E343" s="4" t="s">
@@ -8848,10 +8848,10 @@
         <v>60</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="4" t="s">
@@ -8863,10 +8863,10 @@
         <v>61</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="4" t="s">
@@ -8878,10 +8878,10 @@
         <v>61</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C346" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="4" t="s">
@@ -8893,10 +8893,10 @@
         <v>61</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="4" t="s">
@@ -8908,10 +8908,10 @@
         <v>61</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="4" t="s">
@@ -8923,10 +8923,10 @@
         <v>61</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="4" t="s">
@@ -8938,10 +8938,10 @@
         <v>61</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="4" t="s">
@@ -8953,10 +8953,10 @@
         <v>61</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="4" t="s">
@@ -8968,10 +8968,10 @@
         <v>62</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352" s="4" t="s">
@@ -8983,10 +8983,10 @@
         <v>62</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4" t="s">
@@ -8998,7 +8998,7 @@
         <v>62</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>326</v>
@@ -9013,10 +9013,10 @@
         <v>62</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4" t="s">
@@ -9028,10 +9028,10 @@
         <v>62</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4" t="s">
@@ -9043,10 +9043,10 @@
         <v>62</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4" t="s">
@@ -9058,10 +9058,10 @@
         <v>63</v>
       </c>
       <c r="B358" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C358" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4" t="s">
@@ -9073,10 +9073,10 @@
         <v>63</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
@@ -9088,10 +9088,10 @@
         <v>63</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="4" t="s">
@@ -9103,10 +9103,10 @@
         <v>63</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="4" t="s">
@@ -9118,10 +9118,10 @@
         <v>63</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="4" t="s">
@@ -9133,10 +9133,10 @@
         <v>63</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
@@ -9148,10 +9148,10 @@
         <v>63</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
@@ -9163,10 +9163,10 @@
         <v>64</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="4" t="s">
@@ -9178,10 +9178,10 @@
         <v>64</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
@@ -9193,7 +9193,7 @@
         <v>64</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>416</v>
@@ -9208,10 +9208,10 @@
         <v>64</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="4" t="s">
@@ -9223,10 +9223,10 @@
         <v>64</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="4" t="s">
@@ -9238,10 +9238,10 @@
         <v>64</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="4" t="s">
@@ -9253,10 +9253,10 @@
         <v>65</v>
       </c>
       <c r="B371" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C371" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>672</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371" s="4" t="s">
@@ -9268,10 +9268,10 @@
         <v>65</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372" s="4" t="s">
@@ -9283,10 +9283,10 @@
         <v>65</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373" s="4" t="s">
@@ -9298,10 +9298,10 @@
         <v>65</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D374" s="4"/>
       <c r="E374" s="4" t="s">
@@ -9313,10 +9313,10 @@
         <v>65</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375" s="4" t="s">
@@ -9328,10 +9328,10 @@
         <v>66</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C376" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376" s="4" t="s">
@@ -9343,10 +9343,10 @@
         <v>66</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="4" t="s">
@@ -9358,10 +9358,10 @@
         <v>66</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378" s="4" t="s">
@@ -9373,7 +9373,7 @@
         <v>66</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>484</v>
@@ -9388,10 +9388,10 @@
         <v>66</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380" s="4" t="s">
@@ -9403,7 +9403,7 @@
         <v>66</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>488</v>
@@ -9418,10 +9418,10 @@
         <v>66</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="4" t="s">
@@ -9433,10 +9433,10 @@
         <v>66</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="4" t="s">
@@ -9448,10 +9448,10 @@
         <v>66</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="4" t="s">
@@ -9463,7 +9463,7 @@
         <v>67</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>333</v>
@@ -9478,7 +9478,7 @@
         <v>67</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>331</v>
@@ -9493,7 +9493,7 @@
         <v>67</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>337</v>
@@ -9508,10 +9508,10 @@
         <v>67</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4" t="s">
@@ -9523,7 +9523,7 @@
         <v>67</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>269</v>
@@ -9538,7 +9538,7 @@
         <v>68</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>488</v>
@@ -9553,10 +9553,10 @@
         <v>68</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4" t="s">
@@ -9568,10 +9568,10 @@
         <v>68</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4" t="s">
@@ -9583,10 +9583,10 @@
         <v>68</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4" t="s">
@@ -9598,10 +9598,10 @@
         <v>68</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4" t="s">
@@ -9613,10 +9613,10 @@
         <v>68</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4" t="s">
@@ -9628,7 +9628,7 @@
         <v>68</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>378</v>
@@ -9643,10 +9643,10 @@
         <v>69</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4" t="s">
@@ -9658,10 +9658,10 @@
         <v>69</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4" t="s">
@@ -9673,10 +9673,10 @@
         <v>69</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4" t="s">
@@ -9688,10 +9688,10 @@
         <v>69</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4" t="s">
@@ -9703,10 +9703,10 @@
         <v>69</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4" t="s">
@@ -9718,10 +9718,10 @@
         <v>69</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4" t="s">
@@ -9733,10 +9733,10 @@
         <v>70</v>
       </c>
       <c r="B403" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C403" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4" t="s">
@@ -9748,10 +9748,10 @@
         <v>70</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4" t="s">
@@ -9763,10 +9763,10 @@
         <v>70</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
@@ -9778,7 +9778,7 @@
         <v>70</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>484</v>
@@ -9793,10 +9793,10 @@
         <v>70</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4" t="s">
@@ -9808,7 +9808,7 @@
         <v>71</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>237</v>
@@ -9823,10 +9823,10 @@
         <v>71</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4" t="s">
@@ -9838,7 +9838,7 @@
         <v>71</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>342</v>
@@ -9853,10 +9853,10 @@
         <v>71</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4" t="s">
@@ -9868,10 +9868,10 @@
         <v>71</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4" t="s">
@@ -9883,7 +9883,7 @@
         <v>71</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>478</v>
@@ -9898,10 +9898,10 @@
         <v>71</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4" t="s">
@@ -9913,7 +9913,7 @@
         <v>72</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>61</v>
@@ -9928,10 +9928,10 @@
         <v>72</v>
       </c>
       <c r="B416" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C416" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4" t="s">
@@ -9943,7 +9943,7 @@
         <v>72</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>364</v>
@@ -9958,10 +9958,10 @@
         <v>72</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4" t="s">
@@ -9973,10 +9973,10 @@
         <v>72</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4" t="s">
@@ -9988,7 +9988,7 @@
         <v>72</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>362</v>
@@ -10003,10 +10003,10 @@
         <v>73</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>708</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4" t="s">
@@ -10018,10 +10018,10 @@
         <v>73</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4" t="s">
@@ -10033,7 +10033,7 @@
         <v>73</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>512</v>
@@ -10048,10 +10048,10 @@
         <v>73</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4" t="s">
@@ -10063,10 +10063,10 @@
         <v>73</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4" t="s">
@@ -10078,10 +10078,10 @@
         <v>73</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4" t="s">
@@ -10093,10 +10093,10 @@
         <v>73</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4" t="s">
@@ -10108,7 +10108,7 @@
         <v>74</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>283</v>
@@ -10123,10 +10123,10 @@
         <v>74</v>
       </c>
       <c r="B429" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C429" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="C429" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4" t="s">
@@ -10138,10 +10138,10 @@
         <v>74</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4" t="s">
@@ -10153,10 +10153,10 @@
         <v>74</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4" t="s">
@@ -10168,7 +10168,7 @@
         <v>74</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>114</v>
@@ -10183,7 +10183,7 @@
         <v>74</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>59</v>
@@ -10198,10 +10198,10 @@
         <v>74</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
@@ -10213,10 +10213,10 @@
         <v>74</v>
       </c>
       <c r="B435" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C435" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
@@ -10228,10 +10228,10 @@
         <v>75</v>
       </c>
       <c r="B436" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C436" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>719</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4" t="s">
@@ -10243,10 +10243,10 @@
         <v>75</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
@@ -10258,10 +10258,10 @@
         <v>75</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4" t="s">
@@ -10273,10 +10273,10 @@
         <v>75</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4" t="s">
@@ -10288,10 +10288,10 @@
         <v>75</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D440" s="4"/>
       <c r="E440" s="4" t="s">
@@ -10303,7 +10303,7 @@
         <v>75</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>588</v>
@@ -10318,7 +10318,7 @@
         <v>75</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>584</v>
@@ -10333,10 +10333,10 @@
         <v>76</v>
       </c>
       <c r="B443" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="C443" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="D443" s="4"/>
       <c r="E443" s="4" t="s">
@@ -10348,10 +10348,10 @@
         <v>76</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D444" s="4"/>
       <c r="E444" s="4" t="s">
@@ -10363,10 +10363,10 @@
         <v>76</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D445" s="4"/>
       <c r="E445" s="4" t="s">
@@ -10378,10 +10378,10 @@
         <v>76</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
@@ -10393,10 +10393,10 @@
         <v>76</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D447" s="4"/>
       <c r="E447" s="4" t="s">
@@ -10408,10 +10408,10 @@
         <v>76</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D448" s="4"/>
       <c r="E448" s="4" t="s">
@@ -10423,10 +10423,10 @@
         <v>76</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D449" s="4"/>
       <c r="E449" s="4" t="s">
@@ -10438,10 +10438,10 @@
         <v>76</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D450" s="4"/>
       <c r="E450" s="4" t="s">
@@ -10453,10 +10453,10 @@
         <v>77</v>
       </c>
       <c r="B451" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C451" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="D451" s="4"/>
       <c r="E451" s="4" t="s">
@@ -10468,10 +10468,10 @@
         <v>77</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D452" s="4"/>
       <c r="E452" s="4" t="s">
@@ -10483,10 +10483,10 @@
         <v>77</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453" s="4" t="s">
@@ -10498,10 +10498,10 @@
         <v>77</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="4" t="s">
@@ -10513,10 +10513,10 @@
         <v>77</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
@@ -10528,10 +10528,10 @@
         <v>77</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456" s="4" t="s">
@@ -10543,10 +10543,10 @@
         <v>77</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D457" s="4"/>
       <c r="E457" s="4" t="s">
@@ -10558,10 +10558,10 @@
         <v>78</v>
       </c>
       <c r="B458" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C458" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="D458" s="4"/>
       <c r="E458" s="4" t="s">
@@ -10573,10 +10573,10 @@
         <v>78</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D459" s="4"/>
       <c r="E459" s="4" t="s">
@@ -10588,10 +10588,10 @@
         <v>78</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D460" s="4"/>
       <c r="E460" s="4" t="s">
@@ -10603,10 +10603,10 @@
         <v>78</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
@@ -10618,10 +10618,10 @@
         <v>78</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D462" s="4"/>
       <c r="E462" s="4" t="s">
@@ -10633,10 +10633,10 @@
         <v>79</v>
       </c>
       <c r="B463" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C463" s="4" t="s">
         <v>745</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="D463" s="4"/>
       <c r="E463" s="4" t="s">
@@ -10648,10 +10648,10 @@
         <v>79</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D464" s="4"/>
       <c r="E464" s="4" t="s">
@@ -10663,10 +10663,10 @@
         <v>79</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
@@ -10678,7 +10678,7 @@
         <v>79</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>128</v>
@@ -10693,10 +10693,10 @@
         <v>79</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D467" s="4"/>
       <c r="E467" s="4" t="s">
@@ -10708,10 +10708,10 @@
         <v>79</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D468" s="4"/>
       <c r="E468" s="4" t="s">
@@ -10723,10 +10723,10 @@
         <v>80</v>
       </c>
       <c r="B469" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>751</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>752</v>
       </c>
       <c r="D469" s="4"/>
       <c r="E469" s="4" t="s">
@@ -10738,10 +10738,10 @@
         <v>80</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D470" s="4"/>
       <c r="E470" s="4" t="s">
@@ -10753,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D471" s="4"/>
       <c r="E471" s="4" t="s">
@@ -10768,10 +10768,10 @@
         <v>80</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D472" s="4"/>
       <c r="E472" s="4" t="s">
@@ -10783,10 +10783,10 @@
         <v>80</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473" s="4" t="s">
@@ -10798,10 +10798,10 @@
         <v>80</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474" s="4" t="s">
@@ -10813,10 +10813,10 @@
         <v>81</v>
       </c>
       <c r="B475" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475" s="4" t="s">
@@ -10828,10 +10828,10 @@
         <v>81</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D476" s="4"/>
       <c r="E476" s="4" t="s">
@@ -10843,10 +10843,10 @@
         <v>81</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D477" s="4"/>
       <c r="E477" s="4" t="s">
@@ -10858,10 +10858,10 @@
         <v>81</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D478" s="4"/>
       <c r="E478" s="4" t="s">
@@ -10873,10 +10873,10 @@
         <v>81</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D479" s="4"/>
       <c r="E479" s="4" t="s">
@@ -10888,7 +10888,7 @@
         <v>82</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>115</v>
@@ -10903,7 +10903,7 @@
         <v>82</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>20</v>
@@ -10918,7 +10918,7 @@
         <v>82</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>22</v>
@@ -10933,10 +10933,10 @@
         <v>82</v>
       </c>
       <c r="B483" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C483" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="D483" s="4"/>
       <c r="E483" s="4" t="s">
@@ -10948,7 +10948,7 @@
         <v>82</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>23</v>
@@ -10963,7 +10963,7 @@
         <v>82</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>87</v>
@@ -10978,7 +10978,7 @@
         <v>83</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>63</v>
@@ -10993,7 +10993,7 @@
         <v>83</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>64</v>
@@ -11008,10 +11008,10 @@
         <v>83</v>
       </c>
       <c r="B488" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>767</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="4" t="s">
@@ -11023,10 +11023,10 @@
         <v>83</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D489" s="4"/>
       <c r="E489" s="4" t="s">
@@ -11038,7 +11038,7 @@
         <v>83</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>271</v>
@@ -11053,10 +11053,10 @@
         <v>83</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D491" s="4"/>
       <c r="E491" s="4" t="s">
@@ -11068,10 +11068,10 @@
         <v>83</v>
       </c>
       <c r="B492" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>767</v>
       </c>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
@@ -11083,7 +11083,7 @@
         <v>84</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>99</v>
@@ -11098,7 +11098,7 @@
         <v>84</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>281</v>
@@ -11113,7 +11113,7 @@
         <v>84</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>96</v>
@@ -11128,10 +11128,10 @@
         <v>84</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496" s="4" t="s">
@@ -11143,10 +11143,10 @@
         <v>84</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D497" s="4"/>
       <c r="E497" s="4" t="s">
@@ -11158,10 +11158,10 @@
         <v>84</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="4" t="s">
@@ -11173,7 +11173,7 @@
         <v>84</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>72</v>
@@ -11188,10 +11188,10 @@
         <v>85</v>
       </c>
       <c r="B500" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500" s="4" t="s">
@@ -11203,7 +11203,7 @@
         <v>85</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>236</v>
@@ -11218,10 +11218,10 @@
         <v>85</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4" t="s">
@@ -11233,10 +11233,10 @@
         <v>85</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4" t="s">
@@ -11248,10 +11248,10 @@
         <v>85</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504" s="4" t="s">
@@ -11263,10 +11263,10 @@
         <v>85</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="4" t="s">
@@ -11278,7 +11278,7 @@
         <v>86</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>457</v>
@@ -11293,7 +11293,7 @@
         <v>86</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>350</v>
@@ -11308,7 +11308,7 @@
         <v>86</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>464</v>
@@ -11323,7 +11323,7 @@
         <v>86</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>466</v>
@@ -11338,10 +11338,10 @@
         <v>86</v>
       </c>
       <c r="B510" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C510" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="C510" s="4" t="s">
-        <v>781</v>
       </c>
       <c r="D510" s="4"/>
       <c r="E510" s="4" t="s">
@@ -11353,7 +11353,7 @@
         <v>86</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>462</v>
@@ -11368,7 +11368,7 @@
         <v>86</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>460</v>
@@ -11383,10 +11383,10 @@
         <v>87</v>
       </c>
       <c r="B513" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C513" s="4" t="s">
         <v>782</v>
-      </c>
-      <c r="C513" s="4" t="s">
-        <v>783</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513" s="4" t="s">
@@ -11398,7 +11398,7 @@
         <v>87</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>102</v>
@@ -11413,10 +11413,10 @@
         <v>87</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="4" t="s">
@@ -11428,10 +11428,10 @@
         <v>87</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="4" t="s">
@@ -11443,7 +11443,7 @@
         <v>87</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>369</v>
@@ -11458,10 +11458,10 @@
         <v>87</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D518" s="4"/>
       <c r="E518" s="4" t="s">
@@ -11473,7 +11473,7 @@
         <v>87</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>103</v>
@@ -11488,7 +11488,7 @@
         <v>87</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>360</v>
@@ -11503,10 +11503,10 @@
         <v>88</v>
       </c>
       <c r="B521" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C521" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="C521" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
@@ -11518,10 +11518,10 @@
         <v>88</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4" t="s">
@@ -11533,10 +11533,10 @@
         <v>88</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523" s="4" t="s">
@@ -11548,7 +11548,7 @@
         <v>88</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>108</v>
@@ -11563,7 +11563,7 @@
         <v>88</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>87</v>
@@ -11578,10 +11578,10 @@
         <v>88</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526" s="4" t="s">
@@ -11593,7 +11593,7 @@
         <v>88</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>111</v>
@@ -11608,10 +11608,10 @@
         <v>89</v>
       </c>
       <c r="B528" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C528" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="C528" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
@@ -11623,10 +11623,10 @@
         <v>89</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
@@ -11638,10 +11638,10 @@
         <v>89</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -11653,10 +11653,10 @@
         <v>89</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -11668,10 +11668,10 @@
         <v>89</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532" s="4" t="s">
@@ -11683,10 +11683,10 @@
         <v>89</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D533" s="4"/>
       <c r="E533" s="4" t="s">
@@ -11698,7 +11698,7 @@
         <v>90</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>331</v>
@@ -11713,7 +11713,7 @@
         <v>90</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>385</v>
@@ -11728,10 +11728,10 @@
         <v>90</v>
       </c>
       <c r="B536" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C536" s="4" t="s">
         <v>795</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>796</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="4" t="s">
@@ -11743,10 +11743,10 @@
         <v>90</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537" s="4" t="s">
@@ -11758,7 +11758,7 @@
         <v>90</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C538" s="4" t="s">
         <v>267</v>
@@ -11773,10 +11773,10 @@
         <v>90</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
@@ -11788,10 +11788,10 @@
         <v>90</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
@@ -11803,7 +11803,7 @@
         <v>91</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>34</v>
@@ -11818,10 +11818,10 @@
         <v>91</v>
       </c>
       <c r="B542" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C542" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>801</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
@@ -11833,10 +11833,10 @@
         <v>91</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D543" s="4"/>
       <c r="E543" s="4" t="s">
@@ -11848,10 +11848,10 @@
         <v>91</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D544" s="4"/>
       <c r="E544" s="4" t="s">
@@ -11863,10 +11863,10 @@
         <v>91</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -11878,10 +11878,10 @@
         <v>91</v>
       </c>
       <c r="B546" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C546" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>801</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
@@ -11893,10 +11893,10 @@
         <v>92</v>
       </c>
       <c r="B547" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C547" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
@@ -11908,10 +11908,10 @@
         <v>92</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
@@ -11923,10 +11923,10 @@
         <v>92</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4" t="s">
@@ -11938,10 +11938,10 @@
         <v>92</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
@@ -11953,10 +11953,10 @@
         <v>92</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
@@ -11968,10 +11968,10 @@
         <v>92</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -11983,10 +11983,10 @@
         <v>92</v>
       </c>
       <c r="B553" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C553" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C553" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
@@ -11998,10 +11998,10 @@
         <v>93</v>
       </c>
       <c r="B554" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>809</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
@@ -12013,10 +12013,10 @@
         <v>93</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12028,10 +12028,10 @@
         <v>93</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
@@ -12043,10 +12043,10 @@
         <v>93</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12058,10 +12058,10 @@
         <v>93</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4" t="s">
@@ -12073,10 +12073,10 @@
         <v>93</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12088,10 +12088,10 @@
         <v>93</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4" t="s">
@@ -12103,10 +12103,10 @@
         <v>94</v>
       </c>
       <c r="B561" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C561" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="C561" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
@@ -12118,10 +12118,10 @@
         <v>94</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4" t="s">
@@ -12133,10 +12133,10 @@
         <v>94</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12148,10 +12148,10 @@
         <v>94</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12163,10 +12163,10 @@
         <v>94</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="4" t="s">
@@ -12178,10 +12178,10 @@
         <v>94</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566" s="4" t="s">
@@ -12193,10 +12193,10 @@
         <v>94</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12208,10 +12208,10 @@
         <v>95</v>
       </c>
       <c r="B568" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C568" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12223,10 +12223,10 @@
         <v>95</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
@@ -12238,7 +12238,7 @@
         <v>95</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>559</v>
@@ -12253,7 +12253,7 @@
         <v>95</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C571" s="4" t="s">
         <v>555</v>
@@ -12268,7 +12268,7 @@
         <v>95</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C572" s="4" t="s">
         <v>559</v>
@@ -12283,10 +12283,10 @@
         <v>95</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12298,10 +12298,10 @@
         <v>95</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12313,10 +12313,10 @@
         <v>95</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12328,10 +12328,10 @@
         <v>95</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4" t="s">
@@ -12343,10 +12343,10 @@
         <v>96</v>
       </c>
       <c r="B577" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C577" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12358,7 +12358,7 @@
         <v>96</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C578" s="4" t="s">
         <v>243</v>
@@ -12373,10 +12373,10 @@
         <v>96</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12388,10 +12388,10 @@
         <v>96</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
@@ -12403,10 +12403,10 @@
         <v>96</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
@@ -12418,7 +12418,7 @@
         <v>96</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C582" s="4" t="s">
         <v>333</v>
@@ -12433,10 +12433,10 @@
         <v>97</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12448,7 +12448,7 @@
         <v>97</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>130</v>
@@ -12463,10 +12463,10 @@
         <v>97</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
@@ -12478,10 +12478,10 @@
         <v>97</v>
       </c>
       <c r="B586" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C586" s="4" t="s">
         <v>832</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>833</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="4" t="s">
@@ -12493,10 +12493,10 @@
         <v>97</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
@@ -12508,10 +12508,10 @@
         <v>97</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588" s="4" t="s">
@@ -12523,10 +12523,10 @@
         <v>97</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589" s="4" t="s">
@@ -12538,10 +12538,10 @@
         <v>98</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590" s="4" t="s">
@@ -12553,10 +12553,10 @@
         <v>98</v>
       </c>
       <c r="B591" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C591" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="4" t="s">
@@ -12568,10 +12568,10 @@
         <v>98</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
@@ -12583,10 +12583,10 @@
         <v>98</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593" s="4" t="s">
@@ -12598,10 +12598,10 @@
         <v>98</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -12613,10 +12613,10 @@
         <v>98</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -12628,7 +12628,7 @@
         <v>99</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C596" s="4" t="s">
         <v>71</v>
@@ -12643,10 +12643,10 @@
         <v>99</v>
       </c>
       <c r="B597" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C597" s="4" t="s">
         <v>841</v>
-      </c>
-      <c r="C597" s="4" t="s">
-        <v>842</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
@@ -12658,10 +12658,10 @@
         <v>99</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -12673,7 +12673,7 @@
         <v>99</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>90</v>
@@ -12688,7 +12688,7 @@
         <v>99</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>94</v>
@@ -12703,10 +12703,10 @@
         <v>99</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
@@ -12718,10 +12718,10 @@
         <v>99</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="4" t="s">
@@ -12733,7 +12733,7 @@
         <v>99</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>92</v>
@@ -12748,10 +12748,10 @@
         <v>100</v>
       </c>
       <c r="B604" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C604" s="4" t="s">
         <v>846</v>
-      </c>
-      <c r="C604" s="4" t="s">
-        <v>847</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
@@ -12763,10 +12763,10 @@
         <v>100</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
@@ -12778,7 +12778,7 @@
         <v>100</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>471</v>
@@ -12793,7 +12793,7 @@
         <v>100</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>21</v>
@@ -12808,10 +12808,10 @@
         <v>100</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12823,10 +12823,10 @@
         <v>100</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
@@ -12838,10 +12838,10 @@
         <v>101</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -12853,10 +12853,10 @@
         <v>101</v>
       </c>
       <c r="B611" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C611" s="4" t="s">
         <v>851</v>
-      </c>
-      <c r="C611" s="4" t="s">
-        <v>852</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12868,10 +12868,10 @@
         <v>101</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612" s="4" t="s">
@@ -12883,10 +12883,10 @@
         <v>101</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -12898,10 +12898,10 @@
         <v>101</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
@@ -12913,10 +12913,10 @@
         <v>101</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -12928,10 +12928,10 @@
         <v>101</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="4" t="s">
@@ -12943,10 +12943,10 @@
         <v>101</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617" s="4" t="s">
@@ -12958,7 +12958,7 @@
         <v>102</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>246</v>
@@ -12973,10 +12973,10 @@
         <v>102</v>
       </c>
       <c r="B619" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C619" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="C619" s="4" t="s">
-        <v>860</v>
       </c>
       <c r="D619" s="4"/>
       <c r="E619" s="4" t="s">
@@ -12988,7 +12988,7 @@
         <v>102</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>537</v>
@@ -13003,7 +13003,7 @@
         <v>102</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>237</v>
@@ -13018,7 +13018,7 @@
         <v>102</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>533</v>
@@ -13033,7 +13033,7 @@
         <v>102</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C623" s="4" t="s">
         <v>528</v>
@@ -13048,7 +13048,7 @@
         <v>102</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C624" s="4" t="s">
         <v>535</v>
@@ -13063,7 +13063,7 @@
         <v>102</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C625" s="4" t="s">
         <v>526</v>
@@ -13078,10 +13078,10 @@
         <v>103</v>
       </c>
       <c r="B626" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C626" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="C626" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13093,10 +13093,10 @@
         <v>103</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
@@ -13108,10 +13108,10 @@
         <v>103</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13123,10 +13123,10 @@
         <v>103</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13138,10 +13138,10 @@
         <v>103</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
@@ -13153,10 +13153,10 @@
         <v>103</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
@@ -13168,10 +13168,10 @@
         <v>103</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13183,10 +13183,10 @@
         <v>104</v>
       </c>
       <c r="B633" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C633" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="C633" s="4" t="s">
-        <v>870</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13198,10 +13198,10 @@
         <v>104</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13213,10 +13213,10 @@
         <v>104</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635" s="4" t="s">
@@ -13228,7 +13228,7 @@
         <v>104</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>282</v>
@@ -13243,10 +13243,10 @@
         <v>104</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637" s="4" t="s">
@@ -13258,10 +13258,10 @@
         <v>104</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13273,10 +13273,10 @@
         <v>105</v>
       </c>
       <c r="B639" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C639" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="C639" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13288,10 +13288,10 @@
         <v>105</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
@@ -13303,10 +13303,10 @@
         <v>105</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
@@ -13318,10 +13318,10 @@
         <v>105</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13333,10 +13333,10 @@
         <v>105</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13348,10 +13348,10 @@
         <v>105</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="4" t="s">
@@ -13363,10 +13363,10 @@
         <v>105</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645" s="4" t="s">
@@ -13378,7 +13378,7 @@
         <v>106</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C646" s="4" t="s">
         <v>329</v>
@@ -13393,10 +13393,10 @@
         <v>106</v>
       </c>
       <c r="B647" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C647" s="4" t="s">
         <v>882</v>
-      </c>
-      <c r="C647" s="4" t="s">
-        <v>883</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13408,10 +13408,10 @@
         <v>106</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13423,10 +13423,10 @@
         <v>106</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649" s="4" t="s">
@@ -13438,7 +13438,7 @@
         <v>106</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>105</v>
@@ -13453,10 +13453,10 @@
         <v>106</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651" s="4" t="s">
@@ -13468,7 +13468,7 @@
         <v>106</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>236</v>
@@ -13483,10 +13483,10 @@
         <v>106</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13498,10 +13498,10 @@
         <v>107</v>
       </c>
       <c r="B654" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C654" s="4" t="s">
         <v>887</v>
-      </c>
-      <c r="C654" s="4" t="s">
-        <v>888</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13513,10 +13513,10 @@
         <v>107</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="4" t="s">
@@ -13528,7 +13528,7 @@
         <v>107</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C656" s="4" t="s">
         <v>128</v>
@@ -13543,10 +13543,10 @@
         <v>107</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13558,10 +13558,10 @@
         <v>107</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
@@ -13573,10 +13573,10 @@
         <v>107</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
@@ -13588,10 +13588,10 @@
         <v>107</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13603,10 +13603,10 @@
         <v>107</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13618,10 +13618,10 @@
         <v>107</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13633,10 +13633,10 @@
         <v>108</v>
       </c>
       <c r="B663" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C663" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="C663" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663" s="4" t="s">
@@ -13648,10 +13648,10 @@
         <v>108</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
@@ -13663,10 +13663,10 @@
         <v>108</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665" s="4" t="s">
@@ -13678,10 +13678,10 @@
         <v>108</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13693,10 +13693,10 @@
         <v>108</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13708,10 +13708,10 @@
         <v>108</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="4" t="s">
@@ -13723,7 +13723,7 @@
         <v>109</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C669" s="4" t="s">
         <v>395</v>
@@ -13738,10 +13738,10 @@
         <v>109</v>
       </c>
       <c r="B670" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C670" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="D670" s="4"/>
       <c r="E670" s="4" t="s">
@@ -13753,7 +13753,7 @@
         <v>109</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C671" s="4" t="s">
         <v>76</v>
@@ -13768,10 +13768,10 @@
         <v>109</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D672" s="4"/>
       <c r="E672" s="4" t="s">
@@ -13783,10 +13783,10 @@
         <v>109</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D673" s="4"/>
       <c r="E673" s="4" t="s">
@@ -13798,10 +13798,10 @@
         <v>109</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D674" s="4"/>
       <c r="E674" s="4" t="s">
@@ -13813,10 +13813,10 @@
         <v>109</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D675" s="4"/>
       <c r="E675" s="4" t="s">

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="910">
   <si>
     <t>id</t>
   </si>
@@ -3096,10 +3096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E675"/>
+  <dimension ref="A1:E674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="L460" sqref="L460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10615,13 +10615,13 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D462" s="4"/>
       <c r="E462" s="4" t="s">
@@ -10636,7 +10636,7 @@
         <v>744</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D463" s="4"/>
       <c r="E463" s="4" t="s">
@@ -10651,7 +10651,7 @@
         <v>744</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D464" s="4"/>
       <c r="E464" s="4" t="s">
@@ -10666,11 +10666,11 @@
         <v>744</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>747</v>
+        <v>128</v>
       </c>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10681,11 +10681,11 @@
         <v>744</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>128</v>
+        <v>748</v>
       </c>
       <c r="D466" s="4"/>
       <c r="E466" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10696,7 +10696,7 @@
         <v>744</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D467" s="4"/>
       <c r="E467" s="4" t="s">
@@ -10705,17 +10705,17 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D468" s="4"/>
       <c r="E468" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -10726,11 +10726,11 @@
         <v>750</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D469" s="4"/>
       <c r="E469" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -10741,7 +10741,7 @@
         <v>750</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D470" s="4"/>
       <c r="E470" s="4" t="s">
@@ -10756,7 +10756,7 @@
         <v>750</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D471" s="4"/>
       <c r="E471" s="4" t="s">
@@ -10771,7 +10771,7 @@
         <v>750</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D472" s="4"/>
       <c r="E472" s="4" t="s">
@@ -10786,7 +10786,7 @@
         <v>750</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473" s="4" t="s">
@@ -10795,13 +10795,13 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474" s="4" t="s">
@@ -10816,7 +10816,7 @@
         <v>757</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475" s="4" t="s">
@@ -10831,7 +10831,7 @@
         <v>757</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D476" s="4"/>
       <c r="E476" s="4" t="s">
@@ -10846,7 +10846,7 @@
         <v>757</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D477" s="4"/>
       <c r="E477" s="4" t="s">
@@ -10861,26 +10861,26 @@
         <v>757</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D478" s="4"/>
       <c r="E478" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>762</v>
+        <v>115</v>
       </c>
       <c r="D479" s="4"/>
       <c r="E479" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -10891,7 +10891,7 @@
         <v>763</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D480" s="4"/>
       <c r="E480" s="4" t="s">
@@ -10906,7 +10906,7 @@
         <v>763</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D481" s="4"/>
       <c r="E481" s="4" t="s">
@@ -10921,7 +10921,7 @@
         <v>763</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>22</v>
+        <v>764</v>
       </c>
       <c r="D482" s="4"/>
       <c r="E482" s="4" t="s">
@@ -10936,11 +10936,11 @@
         <v>763</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>764</v>
+        <v>23</v>
       </c>
       <c r="D483" s="4"/>
       <c r="E483" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -10951,22 +10951,22 @@
         <v>763</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D484" s="4"/>
       <c r="E484" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D485" s="4"/>
       <c r="E485" s="4" t="s">
@@ -10981,11 +10981,11 @@
         <v>765</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D486" s="4"/>
       <c r="E486" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -10996,11 +10996,11 @@
         <v>765</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>64</v>
+        <v>766</v>
       </c>
       <c r="D487" s="4"/>
       <c r="E487" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11011,7 +11011,7 @@
         <v>765</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="4" t="s">
@@ -11026,7 +11026,7 @@
         <v>765</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>767</v>
+        <v>271</v>
       </c>
       <c r="D489" s="4"/>
       <c r="E489" s="4" t="s">
@@ -11041,7 +11041,7 @@
         <v>765</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>271</v>
+        <v>768</v>
       </c>
       <c r="D490" s="4"/>
       <c r="E490" s="4" t="s">
@@ -11056,7 +11056,7 @@
         <v>765</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D491" s="4"/>
       <c r="E491" s="4" t="s">
@@ -11065,13 +11065,13 @@
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>766</v>
+        <v>99</v>
       </c>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
@@ -11086,7 +11086,7 @@
         <v>769</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="D493" s="4"/>
       <c r="E493" s="4" t="s">
@@ -11101,11 +11101,11 @@
         <v>769</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="D494" s="4"/>
       <c r="E494" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11116,11 +11116,11 @@
         <v>769</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>96</v>
+        <v>770</v>
       </c>
       <c r="D495" s="4"/>
       <c r="E495" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11131,7 +11131,7 @@
         <v>769</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496" s="4" t="s">
@@ -11146,7 +11146,7 @@
         <v>769</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D497" s="4"/>
       <c r="E497" s="4" t="s">
@@ -11161,7 +11161,7 @@
         <v>769</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>772</v>
+        <v>72</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="4" t="s">
@@ -11170,13 +11170,13 @@
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>72</v>
+        <v>774</v>
       </c>
       <c r="D499" s="4"/>
       <c r="E499" s="4" t="s">
@@ -11191,7 +11191,7 @@
         <v>773</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>774</v>
+        <v>236</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500" s="4" t="s">
@@ -11206,11 +11206,11 @@
         <v>773</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>236</v>
+        <v>775</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11221,11 +11221,11 @@
         <v>773</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11236,7 +11236,7 @@
         <v>773</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4" t="s">
@@ -11251,7 +11251,7 @@
         <v>773</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504" s="4" t="s">
@@ -11260,13 +11260,13 @@
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>778</v>
+        <v>457</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="4" t="s">
@@ -11281,7 +11281,7 @@
         <v>779</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
@@ -11296,7 +11296,7 @@
         <v>779</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="4" t="s">
@@ -11311,7 +11311,7 @@
         <v>779</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508" s="4" t="s">
@@ -11326,11 +11326,11 @@
         <v>779</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>466</v>
+        <v>780</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11341,11 +11341,11 @@
         <v>779</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>780</v>
+        <v>462</v>
       </c>
       <c r="D510" s="4"/>
       <c r="E510" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11356,7 +11356,7 @@
         <v>779</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D511" s="4"/>
       <c r="E511" s="4" t="s">
@@ -11365,13 +11365,13 @@
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>460</v>
+        <v>782</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512" s="4" t="s">
@@ -11386,7 +11386,7 @@
         <v>781</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>782</v>
+        <v>102</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513" s="4" t="s">
@@ -11401,11 +11401,11 @@
         <v>781</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>102</v>
+        <v>783</v>
       </c>
       <c r="D514" s="4"/>
       <c r="E514" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11416,11 +11416,11 @@
         <v>781</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11431,7 +11431,7 @@
         <v>781</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>784</v>
+        <v>369</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="4" t="s">
@@ -11446,7 +11446,7 @@
         <v>781</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>369</v>
+        <v>785</v>
       </c>
       <c r="D517" s="4"/>
       <c r="E517" s="4" t="s">
@@ -11461,7 +11461,7 @@
         <v>781</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>785</v>
+        <v>103</v>
       </c>
       <c r="D518" s="4"/>
       <c r="E518" s="4" t="s">
@@ -11476,7 +11476,7 @@
         <v>781</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="D519" s="4"/>
       <c r="E519" s="4" t="s">
@@ -11485,17 +11485,17 @@
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>360</v>
+        <v>787</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11506,11 +11506,11 @@
         <v>786</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>787</v>
+        <v>718</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11521,7 +11521,7 @@
         <v>786</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4" t="s">
@@ -11536,7 +11536,7 @@
         <v>786</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>788</v>
+        <v>108</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523" s="4" t="s">
@@ -11551,7 +11551,7 @@
         <v>786</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D524" s="4"/>
       <c r="E524" s="4" t="s">
@@ -11566,7 +11566,7 @@
         <v>786</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>87</v>
+        <v>789</v>
       </c>
       <c r="D525" s="4"/>
       <c r="E525" s="4" t="s">
@@ -11581,7 +11581,7 @@
         <v>786</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>789</v>
+        <v>111</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526" s="4" t="s">
@@ -11590,13 +11590,13 @@
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>111</v>
+        <v>791</v>
       </c>
       <c r="D527" s="4"/>
       <c r="E527" s="4" t="s">
@@ -11611,11 +11611,11 @@
         <v>790</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11626,11 +11626,11 @@
         <v>790</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11641,7 +11641,7 @@
         <v>790</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>793</v>
+        <v>703</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -11656,7 +11656,7 @@
         <v>790</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>703</v>
+        <v>761</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -11671,7 +11671,7 @@
         <v>790</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532" s="4" t="s">
@@ -11680,17 +11680,17 @@
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>760</v>
+        <v>331</v>
       </c>
       <c r="D533" s="4"/>
       <c r="E533" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11701,11 +11701,11 @@
         <v>794</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -11716,7 +11716,7 @@
         <v>794</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>385</v>
+        <v>795</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535" s="4" t="s">
@@ -11731,7 +11731,7 @@
         <v>794</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="4" t="s">
@@ -11746,7 +11746,7 @@
         <v>794</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>796</v>
+        <v>267</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537" s="4" t="s">
@@ -11761,7 +11761,7 @@
         <v>794</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>267</v>
+        <v>797</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538" s="4" t="s">
@@ -11776,7 +11776,7 @@
         <v>794</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
@@ -11785,13 +11785,13 @@
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>798</v>
+        <v>34</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
@@ -11806,11 +11806,11 @@
         <v>799</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>34</v>
+        <v>800</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -11821,11 +11821,11 @@
         <v>799</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -11836,7 +11836,7 @@
         <v>799</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D543" s="4"/>
       <c r="E543" s="4" t="s">
@@ -11866,7 +11866,7 @@
         <v>799</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>673</v>
+        <v>800</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -11875,17 +11875,17 @@
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -11896,11 +11896,11 @@
         <v>801</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -11911,7 +11911,7 @@
         <v>801</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>803</v>
+        <v>612</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
@@ -11926,7 +11926,7 @@
         <v>801</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>612</v>
+        <v>804</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4" t="s">
@@ -11941,7 +11941,7 @@
         <v>801</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
@@ -11956,7 +11956,7 @@
         <v>801</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
@@ -11971,7 +11971,7 @@
         <v>801</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -11980,17 +11980,17 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12001,11 +12001,11 @@
         <v>807</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12016,7 +12016,7 @@
         <v>807</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>809</v>
+        <v>688</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12031,7 +12031,7 @@
         <v>807</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>688</v>
+        <v>810</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
@@ -12046,7 +12046,7 @@
         <v>807</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>810</v>
+        <v>693</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12061,7 +12061,7 @@
         <v>807</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4" t="s">
@@ -12076,7 +12076,7 @@
         <v>807</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>690</v>
+        <v>811</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12085,13 +12085,13 @@
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4" t="s">
@@ -12106,7 +12106,7 @@
         <v>812</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
@@ -12121,7 +12121,7 @@
         <v>812</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4" t="s">
@@ -12136,7 +12136,7 @@
         <v>812</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12151,7 +12151,7 @@
         <v>812</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12166,11 +12166,11 @@
         <v>812</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12181,22 +12181,22 @@
         <v>812</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12211,7 +12211,7 @@
         <v>819</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12226,7 +12226,7 @@
         <v>819</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>821</v>
+        <v>559</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
@@ -12241,11 +12241,11 @@
         <v>819</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12256,11 +12256,11 @@
         <v>819</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12271,7 +12271,7 @@
         <v>819</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>559</v>
+        <v>822</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572" s="4" t="s">
@@ -12286,7 +12286,7 @@
         <v>819</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12301,7 +12301,7 @@
         <v>819</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12316,7 +12316,7 @@
         <v>819</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12325,13 +12325,13 @@
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4" t="s">
@@ -12346,7 +12346,7 @@
         <v>826</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>827</v>
+        <v>243</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12361,7 +12361,7 @@
         <v>826</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>243</v>
+        <v>828</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4" t="s">
@@ -12376,7 +12376,7 @@
         <v>826</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12391,11 +12391,11 @@
         <v>826</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12406,22 +12406,22 @@
         <v>826</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>830</v>
+        <v>333</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>333</v>
+        <v>708</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12436,7 +12436,7 @@
         <v>831</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>708</v>
+        <v>130</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12451,7 +12451,7 @@
         <v>831</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="D584" s="4"/>
       <c r="E584" s="4" t="s">
@@ -12466,11 +12466,11 @@
         <v>831</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>600</v>
+        <v>832</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -12481,11 +12481,11 @@
         <v>831</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -12496,7 +12496,7 @@
         <v>831</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
@@ -12511,7 +12511,7 @@
         <v>831</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588" s="4" t="s">
@@ -12520,13 +12520,13 @@
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>835</v>
+        <v>608</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589" s="4" t="s">
@@ -12541,7 +12541,7 @@
         <v>836</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>608</v>
+        <v>837</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590" s="4" t="s">
@@ -12556,7 +12556,7 @@
         <v>836</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>837</v>
+        <v>604</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="4" t="s">
@@ -12571,11 +12571,11 @@
         <v>836</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>604</v>
+        <v>838</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -12586,11 +12586,11 @@
         <v>836</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>838</v>
+        <v>605</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -12601,7 +12601,7 @@
         <v>836</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>605</v>
+        <v>839</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -12610,13 +12610,13 @@
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>839</v>
+        <v>71</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -12631,7 +12631,7 @@
         <v>840</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>71</v>
+        <v>841</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596" s="4" t="s">
@@ -12646,7 +12646,7 @@
         <v>840</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
@@ -12661,7 +12661,7 @@
         <v>840</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>842</v>
+        <v>90</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -12676,7 +12676,7 @@
         <v>840</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D599" s="4"/>
       <c r="E599" s="4" t="s">
@@ -12691,7 +12691,7 @@
         <v>840</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>94</v>
+        <v>843</v>
       </c>
       <c r="D600" s="4"/>
       <c r="E600" s="4" t="s">
@@ -12706,11 +12706,11 @@
         <v>840</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -12721,22 +12721,22 @@
         <v>840</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>844</v>
+        <v>92</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>92</v>
+        <v>846</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="4" t="s">
@@ -12751,11 +12751,11 @@
         <v>845</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -12766,11 +12766,11 @@
         <v>845</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>847</v>
+        <v>471</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -12781,7 +12781,7 @@
         <v>845</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>471</v>
+        <v>21</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="4" t="s">
@@ -12796,7 +12796,7 @@
         <v>845</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>21</v>
+        <v>848</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="4" t="s">
@@ -12811,7 +12811,7 @@
         <v>845</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12820,17 +12820,17 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>849</v>
+        <v>698</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -12841,11 +12841,11 @@
         <v>850</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>698</v>
+        <v>851</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -12856,7 +12856,7 @@
         <v>850</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12871,7 +12871,7 @@
         <v>850</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612" s="4" t="s">
@@ -12886,7 +12886,7 @@
         <v>850</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -12901,7 +12901,7 @@
         <v>850</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
@@ -12916,7 +12916,7 @@
         <v>850</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -12931,7 +12931,7 @@
         <v>850</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="4" t="s">
@@ -12940,13 +12940,13 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>857</v>
+        <v>246</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617" s="4" t="s">
@@ -12961,11 +12961,11 @@
         <v>858</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>246</v>
+        <v>859</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -12976,11 +12976,11 @@
         <v>858</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>859</v>
+        <v>537</v>
       </c>
       <c r="D619" s="4"/>
       <c r="E619" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -12991,7 +12991,7 @@
         <v>858</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>537</v>
+        <v>237</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620" s="4" t="s">
@@ -13006,7 +13006,7 @@
         <v>858</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>237</v>
+        <v>533</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621" s="4" t="s">
@@ -13021,7 +13021,7 @@
         <v>858</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="4" t="s">
@@ -13036,7 +13036,7 @@
         <v>858</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="4" t="s">
@@ -13051,7 +13051,7 @@
         <v>858</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624" s="4" t="s">
@@ -13060,13 +13060,13 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>526</v>
+        <v>861</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13081,7 +13081,7 @@
         <v>860</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13096,11 +13096,11 @@
         <v>860</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13111,11 +13111,11 @@
         <v>860</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13126,7 +13126,7 @@
         <v>860</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13141,7 +13141,7 @@
         <v>860</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
@@ -13156,7 +13156,7 @@
         <v>860</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
@@ -13165,13 +13165,13 @@
     </row>
     <row r="632" spans="1:5">
       <c r="A632" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13186,7 +13186,7 @@
         <v>868</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13201,7 +13201,7 @@
         <v>868</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13216,11 +13216,11 @@
         <v>868</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>871</v>
+        <v>282</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13231,11 +13231,11 @@
         <v>868</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>282</v>
+        <v>872</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13246,7 +13246,7 @@
         <v>868</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>872</v>
+        <v>658</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637" s="4" t="s">
@@ -13255,13 +13255,13 @@
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>658</v>
+        <v>874</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13276,7 +13276,7 @@
         <v>873</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13291,11 +13291,11 @@
         <v>873</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13306,11 +13306,11 @@
         <v>873</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -13321,7 +13321,7 @@
         <v>873</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13336,7 +13336,7 @@
         <v>873</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13351,7 +13351,7 @@
         <v>873</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="4" t="s">
@@ -13360,17 +13360,17 @@
     </row>
     <row r="645" spans="1:5">
       <c r="A645" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>880</v>
+        <v>329</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -13381,11 +13381,11 @@
         <v>881</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>329</v>
+        <v>882</v>
       </c>
       <c r="D646" s="4"/>
       <c r="E646" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -13396,7 +13396,7 @@
         <v>881</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13411,7 +13411,7 @@
         <v>881</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13426,7 +13426,7 @@
         <v>881</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>884</v>
+        <v>105</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649" s="4" t="s">
@@ -13441,7 +13441,7 @@
         <v>881</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>105</v>
+        <v>885</v>
       </c>
       <c r="D650" s="4"/>
       <c r="E650" s="4" t="s">
@@ -13456,7 +13456,7 @@
         <v>881</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>885</v>
+        <v>236</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651" s="4" t="s">
@@ -13471,7 +13471,7 @@
         <v>881</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>236</v>
+        <v>774</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="4" t="s">
@@ -13480,13 +13480,13 @@
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>774</v>
+        <v>887</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13501,7 +13501,7 @@
         <v>886</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13516,11 +13516,11 @@
         <v>886</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>888</v>
+        <v>128</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -13531,11 +13531,11 @@
         <v>886</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>128</v>
+        <v>889</v>
       </c>
       <c r="D656" s="4"/>
       <c r="E656" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -13546,7 +13546,7 @@
         <v>886</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13561,7 +13561,7 @@
         <v>886</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
@@ -13576,7 +13576,7 @@
         <v>886</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
@@ -13591,7 +13591,7 @@
         <v>886</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13606,7 +13606,7 @@
         <v>886</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13615,13 +13615,13 @@
     </row>
     <row r="662" spans="1:5">
       <c r="A662" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13636,11 +13636,11 @@
         <v>895</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -13651,11 +13651,11 @@
         <v>895</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -13666,7 +13666,7 @@
         <v>895</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665" s="4" t="s">
@@ -13681,7 +13681,7 @@
         <v>895</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13696,7 +13696,7 @@
         <v>895</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13705,17 +13705,17 @@
     </row>
     <row r="668" spans="1:5">
       <c r="A668" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>901</v>
+        <v>395</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -13726,11 +13726,11 @@
         <v>902</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>395</v>
+        <v>903</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -13741,7 +13741,7 @@
         <v>902</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>903</v>
+        <v>76</v>
       </c>
       <c r="D670" s="4"/>
       <c r="E670" s="4" t="s">
@@ -13756,7 +13756,7 @@
         <v>902</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>76</v>
+        <v>904</v>
       </c>
       <c r="D671" s="4"/>
       <c r="E671" s="4" t="s">
@@ -13771,7 +13771,7 @@
         <v>902</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D672" s="4"/>
       <c r="E672" s="4" t="s">
@@ -13786,7 +13786,7 @@
         <v>902</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D673" s="4"/>
       <c r="E673" s="4" t="s">
@@ -13801,25 +13801,10 @@
         <v>902</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D674" s="4"/>
       <c r="E674" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="675" spans="1:5">
-      <c r="A675" s="4">
-        <v>109</v>
-      </c>
-      <c r="B675" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="C675" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="D675" s="4"/>
-      <c r="E675" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -2070,12 +2070,6 @@
     <t>HAP</t>
   </si>
   <si>
-    <t>E,Y,B,Z,A</t>
-  </si>
-  <si>
-    <t>E,K,T,P,E</t>
-  </si>
-  <si>
     <t>TEPE</t>
   </si>
   <si>
@@ -2749,6 +2743,12 @@
   </si>
   <si>
     <t>C,N,A,N,A</t>
+  </si>
+  <si>
+    <t>E,Y,B,Z,A,E</t>
+  </si>
+  <si>
+    <t>E,K,T,P,E,H</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="L460" sqref="L460"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4255,7 +4255,7 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>190</v>
@@ -8126,7 +8126,7 @@
         <v>54</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>125</v>
@@ -8143,7 +8143,7 @@
         <v>54</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>599</v>
@@ -8158,7 +8158,7 @@
         <v>54</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>600</v>
@@ -8173,7 +8173,7 @@
         <v>54</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>601</v>
@@ -9463,7 +9463,7 @@
         <v>67</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>683</v>
+        <v>908</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>333</v>
@@ -9478,7 +9478,7 @@
         <v>67</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>683</v>
+        <v>908</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>331</v>
@@ -9493,7 +9493,7 @@
         <v>67</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>683</v>
+        <v>908</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>337</v>
@@ -9508,7 +9508,7 @@
         <v>67</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>683</v>
+        <v>908</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>655</v>
@@ -9523,7 +9523,7 @@
         <v>67</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>683</v>
+        <v>908</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>269</v>
@@ -9538,7 +9538,7 @@
         <v>68</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>488</v>
@@ -9553,10 +9553,10 @@
         <v>68</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4" t="s">
@@ -9568,7 +9568,7 @@
         <v>68</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>605</v>
@@ -9583,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>604</v>
@@ -9598,7 +9598,7 @@
         <v>68</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>608</v>
@@ -9613,10 +9613,10 @@
         <v>68</v>
       </c>
       <c r="B395" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C395" s="4" t="s">
         <v>684</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4" t="s">
@@ -9628,7 +9628,7 @@
         <v>68</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>378</v>
@@ -9643,10 +9643,10 @@
         <v>69</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4" t="s">
@@ -9658,10 +9658,10 @@
         <v>69</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4" t="s">
@@ -9673,10 +9673,10 @@
         <v>69</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4" t="s">
@@ -9688,10 +9688,10 @@
         <v>69</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4" t="s">
@@ -9703,10 +9703,10 @@
         <v>69</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4" t="s">
@@ -9718,10 +9718,10 @@
         <v>69</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4" t="s">
@@ -9733,10 +9733,10 @@
         <v>70</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4" t="s">
@@ -9748,10 +9748,10 @@
         <v>70</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C404" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4" t="s">
@@ -9763,10 +9763,10 @@
         <v>70</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
@@ -9778,7 +9778,7 @@
         <v>70</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>484</v>
@@ -9793,10 +9793,10 @@
         <v>70</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4" t="s">
@@ -9808,7 +9808,7 @@
         <v>71</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>237</v>
@@ -9823,10 +9823,10 @@
         <v>71</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4" t="s">
@@ -9838,7 +9838,7 @@
         <v>71</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>342</v>
@@ -9853,10 +9853,10 @@
         <v>71</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C411" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4" t="s">
@@ -9868,7 +9868,7 @@
         <v>71</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>678</v>
@@ -9883,7 +9883,7 @@
         <v>71</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>478</v>
@@ -9898,7 +9898,7 @@
         <v>71</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>679</v>
@@ -9913,7 +9913,7 @@
         <v>72</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>61</v>
@@ -9928,10 +9928,10 @@
         <v>72</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4" t="s">
@@ -9943,7 +9943,7 @@
         <v>72</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>364</v>
@@ -9958,10 +9958,10 @@
         <v>72</v>
       </c>
       <c r="B418" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4" t="s">
@@ -9973,10 +9973,10 @@
         <v>72</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4" t="s">
@@ -9988,7 +9988,7 @@
         <v>72</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>362</v>
@@ -10003,10 +10003,10 @@
         <v>73</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4" t="s">
@@ -10018,10 +10018,10 @@
         <v>73</v>
       </c>
       <c r="B422" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C422" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>708</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4" t="s">
@@ -10033,7 +10033,7 @@
         <v>73</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>512</v>
@@ -10048,10 +10048,10 @@
         <v>73</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4" t="s">
@@ -10063,7 +10063,7 @@
         <v>73</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>600</v>
@@ -10078,10 +10078,10 @@
         <v>73</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4" t="s">
@@ -10093,10 +10093,10 @@
         <v>73</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4" t="s">
@@ -10108,7 +10108,7 @@
         <v>74</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>283</v>
@@ -10123,10 +10123,10 @@
         <v>74</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4" t="s">
@@ -10138,10 +10138,10 @@
         <v>74</v>
       </c>
       <c r="B430" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C430" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4" t="s">
@@ -10153,10 +10153,10 @@
         <v>74</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4" t="s">
@@ -10168,7 +10168,7 @@
         <v>74</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>114</v>
@@ -10183,7 +10183,7 @@
         <v>74</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>59</v>
@@ -10198,10 +10198,10 @@
         <v>74</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
@@ -10213,10 +10213,10 @@
         <v>74</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
@@ -10228,10 +10228,10 @@
         <v>75</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4" t="s">
@@ -10243,10 +10243,10 @@
         <v>75</v>
       </c>
       <c r="B437" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C437" s="4" t="s">
         <v>717</v>
-      </c>
-      <c r="C437" s="4" t="s">
-        <v>719</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
@@ -10258,10 +10258,10 @@
         <v>75</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4" t="s">
@@ -10273,10 +10273,10 @@
         <v>75</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4" t="s">
@@ -10288,10 +10288,10 @@
         <v>75</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D440" s="4"/>
       <c r="E440" s="4" t="s">
@@ -10303,7 +10303,7 @@
         <v>75</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>588</v>
@@ -10318,7 +10318,7 @@
         <v>75</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>584</v>
@@ -10333,10 +10333,10 @@
         <v>76</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D443" s="4"/>
       <c r="E443" s="4" t="s">
@@ -10348,10 +10348,10 @@
         <v>76</v>
       </c>
       <c r="B444" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C444" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="D444" s="4"/>
       <c r="E444" s="4" t="s">
@@ -10363,10 +10363,10 @@
         <v>76</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D445" s="4"/>
       <c r="E445" s="4" t="s">
@@ -10378,10 +10378,10 @@
         <v>76</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
@@ -10393,10 +10393,10 @@
         <v>76</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D447" s="4"/>
       <c r="E447" s="4" t="s">
@@ -10408,10 +10408,10 @@
         <v>76</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D448" s="4"/>
       <c r="E448" s="4" t="s">
@@ -10423,10 +10423,10 @@
         <v>76</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D449" s="4"/>
       <c r="E449" s="4" t="s">
@@ -10438,10 +10438,10 @@
         <v>76</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D450" s="4"/>
       <c r="E450" s="4" t="s">
@@ -10453,10 +10453,10 @@
         <v>77</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D451" s="4"/>
       <c r="E451" s="4" t="s">
@@ -10468,10 +10468,10 @@
         <v>77</v>
       </c>
       <c r="B452" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C452" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="D452" s="4"/>
       <c r="E452" s="4" t="s">
@@ -10483,10 +10483,10 @@
         <v>77</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453" s="4" t="s">
@@ -10498,10 +10498,10 @@
         <v>77</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="4" t="s">
@@ -10513,10 +10513,10 @@
         <v>77</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
@@ -10528,10 +10528,10 @@
         <v>77</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456" s="4" t="s">
@@ -10543,10 +10543,10 @@
         <v>77</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D457" s="4"/>
       <c r="E457" s="4" t="s">
@@ -10558,10 +10558,10 @@
         <v>78</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D458" s="4"/>
       <c r="E458" s="4" t="s">
@@ -10573,10 +10573,10 @@
         <v>78</v>
       </c>
       <c r="B459" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C459" s="4" t="s">
         <v>740</v>
-      </c>
-      <c r="C459" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="D459" s="4"/>
       <c r="E459" s="4" t="s">
@@ -10588,7 +10588,7 @@
         <v>78</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>630</v>
@@ -10603,10 +10603,10 @@
         <v>78</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
@@ -10618,10 +10618,10 @@
         <v>79</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D462" s="4"/>
       <c r="E462" s="4" t="s">
@@ -10633,10 +10633,10 @@
         <v>79</v>
       </c>
       <c r="B463" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C463" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="D463" s="4"/>
       <c r="E463" s="4" t="s">
@@ -10648,10 +10648,10 @@
         <v>79</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D464" s="4"/>
       <c r="E464" s="4" t="s">
@@ -10663,7 +10663,7 @@
         <v>79</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>128</v>
@@ -10678,10 +10678,10 @@
         <v>79</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D466" s="4"/>
       <c r="E466" s="4" t="s">
@@ -10693,10 +10693,10 @@
         <v>79</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D467" s="4"/>
       <c r="E467" s="4" t="s">
@@ -10708,10 +10708,10 @@
         <v>80</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D468" s="4"/>
       <c r="E468" s="4" t="s">
@@ -10723,10 +10723,10 @@
         <v>80</v>
       </c>
       <c r="B469" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>752</v>
       </c>
       <c r="D469" s="4"/>
       <c r="E469" s="4" t="s">
@@ -10738,10 +10738,10 @@
         <v>80</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D470" s="4"/>
       <c r="E470" s="4" t="s">
@@ -10753,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D471" s="4"/>
       <c r="E471" s="4" t="s">
@@ -10768,10 +10768,10 @@
         <v>80</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D472" s="4"/>
       <c r="E472" s="4" t="s">
@@ -10783,10 +10783,10 @@
         <v>80</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473" s="4" t="s">
@@ -10798,10 +10798,10 @@
         <v>81</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474" s="4" t="s">
@@ -10813,10 +10813,10 @@
         <v>81</v>
       </c>
       <c r="B475" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475" s="4" t="s">
@@ -10828,10 +10828,10 @@
         <v>81</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D476" s="4"/>
       <c r="E476" s="4" t="s">
@@ -10843,10 +10843,10 @@
         <v>81</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D477" s="4"/>
       <c r="E477" s="4" t="s">
@@ -10858,10 +10858,10 @@
         <v>81</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D478" s="4"/>
       <c r="E478" s="4" t="s">
@@ -10873,7 +10873,7 @@
         <v>82</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>115</v>
@@ -10888,7 +10888,7 @@
         <v>82</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>20</v>
@@ -10903,7 +10903,7 @@
         <v>82</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>22</v>
@@ -10918,10 +10918,10 @@
         <v>82</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D482" s="4"/>
       <c r="E482" s="4" t="s">
@@ -10933,7 +10933,7 @@
         <v>82</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>23</v>
@@ -10948,7 +10948,7 @@
         <v>82</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>87</v>
@@ -10963,7 +10963,7 @@
         <v>83</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>63</v>
@@ -10978,7 +10978,7 @@
         <v>83</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>64</v>
@@ -10993,10 +10993,10 @@
         <v>83</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D487" s="4"/>
       <c r="E487" s="4" t="s">
@@ -11008,10 +11008,10 @@
         <v>83</v>
       </c>
       <c r="B488" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>767</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="4" t="s">
@@ -11023,7 +11023,7 @@
         <v>83</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>271</v>
@@ -11038,10 +11038,10 @@
         <v>83</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D490" s="4"/>
       <c r="E490" s="4" t="s">
@@ -11053,10 +11053,10 @@
         <v>83</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D491" s="4"/>
       <c r="E491" s="4" t="s">
@@ -11068,7 +11068,7 @@
         <v>84</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>99</v>
@@ -11083,7 +11083,7 @@
         <v>84</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>281</v>
@@ -11098,7 +11098,7 @@
         <v>84</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>96</v>
@@ -11113,10 +11113,10 @@
         <v>84</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D495" s="4"/>
       <c r="E495" s="4" t="s">
@@ -11128,10 +11128,10 @@
         <v>84</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496" s="4" t="s">
@@ -11143,10 +11143,10 @@
         <v>84</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D497" s="4"/>
       <c r="E497" s="4" t="s">
@@ -11158,7 +11158,7 @@
         <v>84</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>72</v>
@@ -11173,10 +11173,10 @@
         <v>85</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D499" s="4"/>
       <c r="E499" s="4" t="s">
@@ -11188,7 +11188,7 @@
         <v>85</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>236</v>
@@ -11203,10 +11203,10 @@
         <v>85</v>
       </c>
       <c r="B501" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C501" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="C501" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="4" t="s">
@@ -11218,10 +11218,10 @@
         <v>85</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4" t="s">
@@ -11233,10 +11233,10 @@
         <v>85</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4" t="s">
@@ -11248,10 +11248,10 @@
         <v>85</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504" s="4" t="s">
@@ -11263,7 +11263,7 @@
         <v>86</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>457</v>
@@ -11278,7 +11278,7 @@
         <v>86</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>350</v>
@@ -11293,7 +11293,7 @@
         <v>86</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>464</v>
@@ -11308,7 +11308,7 @@
         <v>86</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>466</v>
@@ -11323,10 +11323,10 @@
         <v>86</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509" s="4" t="s">
@@ -11338,7 +11338,7 @@
         <v>86</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>462</v>
@@ -11353,7 +11353,7 @@
         <v>86</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>460</v>
@@ -11368,10 +11368,10 @@
         <v>87</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512" s="4" t="s">
@@ -11383,7 +11383,7 @@
         <v>87</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>102</v>
@@ -11398,10 +11398,10 @@
         <v>87</v>
       </c>
       <c r="B514" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C514" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="C514" s="4" t="s">
-        <v>783</v>
       </c>
       <c r="D514" s="4"/>
       <c r="E514" s="4" t="s">
@@ -11413,10 +11413,10 @@
         <v>87</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="4" t="s">
@@ -11428,7 +11428,7 @@
         <v>87</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>369</v>
@@ -11443,10 +11443,10 @@
         <v>87</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D517" s="4"/>
       <c r="E517" s="4" t="s">
@@ -11458,7 +11458,7 @@
         <v>87</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>103</v>
@@ -11473,7 +11473,7 @@
         <v>87</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>360</v>
@@ -11488,10 +11488,10 @@
         <v>88</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4" t="s">
@@ -11503,10 +11503,10 @@
         <v>88</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
@@ -11518,10 +11518,10 @@
         <v>88</v>
       </c>
       <c r="B522" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C522" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4" t="s">
@@ -11533,7 +11533,7 @@
         <v>88</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>108</v>
@@ -11548,7 +11548,7 @@
         <v>88</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>87</v>
@@ -11563,10 +11563,10 @@
         <v>88</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D525" s="4"/>
       <c r="E525" s="4" t="s">
@@ -11578,7 +11578,7 @@
         <v>88</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>111</v>
@@ -11593,10 +11593,10 @@
         <v>89</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D527" s="4"/>
       <c r="E527" s="4" t="s">
@@ -11608,10 +11608,10 @@
         <v>89</v>
       </c>
       <c r="B528" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C528" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="C528" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
@@ -11623,10 +11623,10 @@
         <v>89</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
@@ -11638,10 +11638,10 @@
         <v>89</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -11653,10 +11653,10 @@
         <v>89</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -11668,10 +11668,10 @@
         <v>89</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532" s="4" t="s">
@@ -11683,7 +11683,7 @@
         <v>90</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>331</v>
@@ -11698,7 +11698,7 @@
         <v>90</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>385</v>
@@ -11713,10 +11713,10 @@
         <v>90</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535" s="4" t="s">
@@ -11728,10 +11728,10 @@
         <v>90</v>
       </c>
       <c r="B536" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C536" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>796</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="4" t="s">
@@ -11743,7 +11743,7 @@
         <v>90</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>267</v>
@@ -11758,10 +11758,10 @@
         <v>90</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538" s="4" t="s">
@@ -11773,10 +11773,10 @@
         <v>90</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
@@ -11788,7 +11788,7 @@
         <v>91</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>34</v>
@@ -11803,10 +11803,10 @@
         <v>91</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="4" t="s">
@@ -11818,7 +11818,7 @@
         <v>91</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C542" s="4" t="s">
         <v>675</v>
@@ -11833,7 +11833,7 @@
         <v>91</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C543" s="4" t="s">
         <v>673</v>
@@ -11848,7 +11848,7 @@
         <v>91</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>673</v>
@@ -11863,10 +11863,10 @@
         <v>91</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -11878,10 +11878,10 @@
         <v>92</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
@@ -11893,10 +11893,10 @@
         <v>92</v>
       </c>
       <c r="B547" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C547" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
@@ -11908,7 +11908,7 @@
         <v>92</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>612</v>
@@ -11923,10 +11923,10 @@
         <v>92</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4" t="s">
@@ -11938,10 +11938,10 @@
         <v>92</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
@@ -11953,10 +11953,10 @@
         <v>92</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
@@ -11968,10 +11968,10 @@
         <v>92</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -11983,10 +11983,10 @@
         <v>93</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
@@ -11998,10 +11998,10 @@
         <v>93</v>
       </c>
       <c r="B554" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>809</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
@@ -12013,10 +12013,10 @@
         <v>93</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12028,10 +12028,10 @@
         <v>93</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
@@ -12043,10 +12043,10 @@
         <v>93</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12058,10 +12058,10 @@
         <v>93</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4" t="s">
@@ -12073,10 +12073,10 @@
         <v>93</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12088,10 +12088,10 @@
         <v>94</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4" t="s">
@@ -12103,10 +12103,10 @@
         <v>94</v>
       </c>
       <c r="B561" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C561" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="C561" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
@@ -12118,10 +12118,10 @@
         <v>94</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4" t="s">
@@ -12133,10 +12133,10 @@
         <v>94</v>
       </c>
       <c r="B563" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C563" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="C563" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12148,10 +12148,10 @@
         <v>94</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12163,10 +12163,10 @@
         <v>94</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="4" t="s">
@@ -12178,10 +12178,10 @@
         <v>94</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566" s="4" t="s">
@@ -12193,10 +12193,10 @@
         <v>95</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12208,10 +12208,10 @@
         <v>95</v>
       </c>
       <c r="B568" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C568" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12223,7 +12223,7 @@
         <v>95</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>559</v>
@@ -12238,7 +12238,7 @@
         <v>95</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>555</v>
@@ -12253,7 +12253,7 @@
         <v>95</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C571" s="4" t="s">
         <v>559</v>
@@ -12268,10 +12268,10 @@
         <v>95</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572" s="4" t="s">
@@ -12283,10 +12283,10 @@
         <v>95</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12298,10 +12298,10 @@
         <v>95</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12313,10 +12313,10 @@
         <v>95</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12328,10 +12328,10 @@
         <v>96</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4" t="s">
@@ -12343,7 +12343,7 @@
         <v>96</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C577" s="4" t="s">
         <v>243</v>
@@ -12358,10 +12358,10 @@
         <v>96</v>
       </c>
       <c r="B578" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C578" s="4" t="s">
         <v>826</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4" t="s">
@@ -12373,10 +12373,10 @@
         <v>96</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12388,10 +12388,10 @@
         <v>96</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
@@ -12403,7 +12403,7 @@
         <v>96</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C581" s="4" t="s">
         <v>333</v>
@@ -12418,10 +12418,10 @@
         <v>97</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12433,7 +12433,7 @@
         <v>97</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C583" s="4" t="s">
         <v>130</v>
@@ -12448,7 +12448,7 @@
         <v>97</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>600</v>
@@ -12463,10 +12463,10 @@
         <v>97</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
@@ -12478,10 +12478,10 @@
         <v>97</v>
       </c>
       <c r="B586" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C586" s="4" t="s">
         <v>831</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>833</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="4" t="s">
@@ -12493,10 +12493,10 @@
         <v>97</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
@@ -12508,10 +12508,10 @@
         <v>97</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588" s="4" t="s">
@@ -12523,7 +12523,7 @@
         <v>98</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C589" s="4" t="s">
         <v>608</v>
@@ -12538,10 +12538,10 @@
         <v>98</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590" s="4" t="s">
@@ -12553,7 +12553,7 @@
         <v>98</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C591" s="4" t="s">
         <v>604</v>
@@ -12568,10 +12568,10 @@
         <v>98</v>
       </c>
       <c r="B592" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C592" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="C592" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
@@ -12583,7 +12583,7 @@
         <v>98</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C593" s="4" t="s">
         <v>605</v>
@@ -12598,10 +12598,10 @@
         <v>98</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -12613,7 +12613,7 @@
         <v>99</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>71</v>
@@ -12628,10 +12628,10 @@
         <v>99</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596" s="4" t="s">
@@ -12643,10 +12643,10 @@
         <v>99</v>
       </c>
       <c r="B597" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C597" s="4" t="s">
         <v>840</v>
-      </c>
-      <c r="C597" s="4" t="s">
-        <v>842</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
@@ -12658,7 +12658,7 @@
         <v>99</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C598" s="4" t="s">
         <v>90</v>
@@ -12673,7 +12673,7 @@
         <v>99</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>94</v>
@@ -12688,10 +12688,10 @@
         <v>99</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D600" s="4"/>
       <c r="E600" s="4" t="s">
@@ -12703,10 +12703,10 @@
         <v>99</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
@@ -12718,7 +12718,7 @@
         <v>99</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>92</v>
@@ -12733,10 +12733,10 @@
         <v>100</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="4" t="s">
@@ -12748,10 +12748,10 @@
         <v>100</v>
       </c>
       <c r="B604" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C604" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="C604" s="4" t="s">
-        <v>847</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
@@ -12763,7 +12763,7 @@
         <v>100</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C605" s="4" t="s">
         <v>471</v>
@@ -12778,7 +12778,7 @@
         <v>100</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>21</v>
@@ -12793,10 +12793,10 @@
         <v>100</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="4" t="s">
@@ -12808,10 +12808,10 @@
         <v>100</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12823,10 +12823,10 @@
         <v>101</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
@@ -12838,10 +12838,10 @@
         <v>101</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -12853,10 +12853,10 @@
         <v>101</v>
       </c>
       <c r="B611" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C611" s="4" t="s">
         <v>850</v>
-      </c>
-      <c r="C611" s="4" t="s">
-        <v>852</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12868,10 +12868,10 @@
         <v>101</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612" s="4" t="s">
@@ -12883,10 +12883,10 @@
         <v>101</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -12898,10 +12898,10 @@
         <v>101</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
@@ -12913,10 +12913,10 @@
         <v>101</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -12928,10 +12928,10 @@
         <v>101</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="4" t="s">
@@ -12943,7 +12943,7 @@
         <v>102</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C617" s="4" t="s">
         <v>246</v>
@@ -12958,10 +12958,10 @@
         <v>102</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618" s="4" t="s">
@@ -12973,7 +12973,7 @@
         <v>102</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>537</v>
@@ -12988,7 +12988,7 @@
         <v>102</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>237</v>
@@ -13003,7 +13003,7 @@
         <v>102</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>533</v>
@@ -13018,7 +13018,7 @@
         <v>102</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>528</v>
@@ -13033,7 +13033,7 @@
         <v>102</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C623" s="4" t="s">
         <v>535</v>
@@ -13048,7 +13048,7 @@
         <v>102</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C624" s="4" t="s">
         <v>526</v>
@@ -13063,10 +13063,10 @@
         <v>103</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13078,10 +13078,10 @@
         <v>103</v>
       </c>
       <c r="B626" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C626" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="C626" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13093,10 +13093,10 @@
         <v>103</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
@@ -13108,10 +13108,10 @@
         <v>103</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13123,10 +13123,10 @@
         <v>103</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13138,10 +13138,10 @@
         <v>103</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
@@ -13153,10 +13153,10 @@
         <v>103</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
@@ -13168,10 +13168,10 @@
         <v>104</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13183,10 +13183,10 @@
         <v>104</v>
       </c>
       <c r="B633" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C633" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="C633" s="4" t="s">
-        <v>870</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13198,10 +13198,10 @@
         <v>104</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13213,7 +13213,7 @@
         <v>104</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>282</v>
@@ -13228,10 +13228,10 @@
         <v>104</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
@@ -13243,7 +13243,7 @@
         <v>104</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>658</v>
@@ -13258,10 +13258,10 @@
         <v>105</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13273,10 +13273,10 @@
         <v>105</v>
       </c>
       <c r="B639" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C639" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="C639" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13288,10 +13288,10 @@
         <v>105</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
@@ -13303,10 +13303,10 @@
         <v>105</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
@@ -13318,10 +13318,10 @@
         <v>105</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13333,10 +13333,10 @@
         <v>105</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13348,10 +13348,10 @@
         <v>105</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="4" t="s">
@@ -13363,7 +13363,7 @@
         <v>106</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C645" s="4" t="s">
         <v>329</v>
@@ -13378,10 +13378,10 @@
         <v>106</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D646" s="4"/>
       <c r="E646" s="4" t="s">
@@ -13393,10 +13393,10 @@
         <v>106</v>
       </c>
       <c r="B647" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C647" s="4" t="s">
         <v>881</v>
-      </c>
-      <c r="C647" s="4" t="s">
-        <v>883</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13408,10 +13408,10 @@
         <v>106</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13423,7 +13423,7 @@
         <v>106</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>105</v>
@@ -13438,10 +13438,10 @@
         <v>106</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D650" s="4"/>
       <c r="E650" s="4" t="s">
@@ -13453,7 +13453,7 @@
         <v>106</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>236</v>
@@ -13468,10 +13468,10 @@
         <v>106</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="4" t="s">
@@ -13483,10 +13483,10 @@
         <v>107</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13498,10 +13498,10 @@
         <v>107</v>
       </c>
       <c r="B654" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C654" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="C654" s="4" t="s">
-        <v>888</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13513,7 +13513,7 @@
         <v>107</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C655" s="4" t="s">
         <v>128</v>
@@ -13528,10 +13528,10 @@
         <v>107</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D656" s="4"/>
       <c r="E656" s="4" t="s">
@@ -13543,10 +13543,10 @@
         <v>107</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13558,10 +13558,10 @@
         <v>107</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
@@ -13573,10 +13573,10 @@
         <v>107</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
@@ -13588,10 +13588,10 @@
         <v>107</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13603,10 +13603,10 @@
         <v>107</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13618,10 +13618,10 @@
         <v>108</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13633,10 +13633,10 @@
         <v>108</v>
       </c>
       <c r="B663" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C663" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="C663" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663" s="4" t="s">
@@ -13648,10 +13648,10 @@
         <v>108</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
@@ -13663,10 +13663,10 @@
         <v>108</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665" s="4" t="s">
@@ -13678,10 +13678,10 @@
         <v>108</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13693,10 +13693,10 @@
         <v>108</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13708,7 +13708,7 @@
         <v>109</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C668" s="4" t="s">
         <v>395</v>
@@ -13723,10 +13723,10 @@
         <v>109</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669" s="4" t="s">
@@ -13738,7 +13738,7 @@
         <v>109</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C670" s="4" t="s">
         <v>76</v>
@@ -13753,10 +13753,10 @@
         <v>109</v>
       </c>
       <c r="B671" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C671" s="4" t="s">
         <v>902</v>
-      </c>
-      <c r="C671" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="D671" s="4"/>
       <c r="E671" s="4" t="s">
@@ -13768,10 +13768,10 @@
         <v>109</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D672" s="4"/>
       <c r="E672" s="4" t="s">
@@ -13783,10 +13783,10 @@
         <v>109</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D673" s="4"/>
       <c r="E673" s="4" t="s">
@@ -13798,10 +13798,10 @@
         <v>109</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D674" s="4"/>
       <c r="E674" s="4" t="s">

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="910">
   <si>
     <t>id</t>
   </si>
@@ -3096,10 +3096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E674"/>
+  <dimension ref="A1:E670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
+      <selection activeCell="A558" sqref="A558:XFD558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11050,13 +11050,13 @@
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>764</v>
+        <v>99</v>
       </c>
       <c r="D491" s="4"/>
       <c r="E491" s="4" t="s">
@@ -11071,7 +11071,7 @@
         <v>767</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
@@ -11086,11 +11086,11 @@
         <v>767</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="D493" s="4"/>
       <c r="E493" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11101,11 +11101,11 @@
         <v>767</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>96</v>
+        <v>768</v>
       </c>
       <c r="D494" s="4"/>
       <c r="E494" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11116,7 +11116,7 @@
         <v>767</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D495" s="4"/>
       <c r="E495" s="4" t="s">
@@ -11131,7 +11131,7 @@
         <v>767</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496" s="4" t="s">
@@ -11146,7 +11146,7 @@
         <v>767</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>770</v>
+        <v>72</v>
       </c>
       <c r="D497" s="4"/>
       <c r="E497" s="4" t="s">
@@ -11155,13 +11155,13 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>72</v>
+        <v>772</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="4" t="s">
@@ -11176,7 +11176,7 @@
         <v>771</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>772</v>
+        <v>236</v>
       </c>
       <c r="D499" s="4"/>
       <c r="E499" s="4" t="s">
@@ -11191,11 +11191,11 @@
         <v>771</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>236</v>
+        <v>773</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11206,11 +11206,11 @@
         <v>771</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11221,7 +11221,7 @@
         <v>771</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4" t="s">
@@ -11236,7 +11236,7 @@
         <v>771</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4" t="s">
@@ -11245,13 +11245,13 @@
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>776</v>
+        <v>457</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504" s="4" t="s">
@@ -11266,7 +11266,7 @@
         <v>777</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="4" t="s">
@@ -11281,7 +11281,7 @@
         <v>777</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
@@ -11296,7 +11296,7 @@
         <v>777</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="4" t="s">
@@ -11311,11 +11311,11 @@
         <v>777</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>466</v>
+        <v>778</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11326,11 +11326,11 @@
         <v>777</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>778</v>
+        <v>462</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11341,7 +11341,7 @@
         <v>777</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D510" s="4"/>
       <c r="E510" s="4" t="s">
@@ -11350,13 +11350,13 @@
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="D511" s="4"/>
       <c r="E511" s="4" t="s">
@@ -11371,7 +11371,7 @@
         <v>779</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>780</v>
+        <v>102</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512" s="4" t="s">
@@ -11386,11 +11386,11 @@
         <v>779</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>102</v>
+        <v>781</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11401,11 +11401,11 @@
         <v>779</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D514" s="4"/>
       <c r="E514" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11416,7 +11416,7 @@
         <v>779</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>782</v>
+        <v>369</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="4" t="s">
@@ -11431,7 +11431,7 @@
         <v>779</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>369</v>
+        <v>783</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="4" t="s">
@@ -11446,7 +11446,7 @@
         <v>779</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>783</v>
+        <v>103</v>
       </c>
       <c r="D517" s="4"/>
       <c r="E517" s="4" t="s">
@@ -11461,7 +11461,7 @@
         <v>779</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="D518" s="4"/>
       <c r="E518" s="4" t="s">
@@ -11470,17 +11470,17 @@
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>360</v>
+        <v>785</v>
       </c>
       <c r="D519" s="4"/>
       <c r="E519" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11491,11 +11491,11 @@
         <v>784</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>785</v>
+        <v>716</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11506,7 +11506,7 @@
         <v>784</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
@@ -11521,7 +11521,7 @@
         <v>784</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>786</v>
+        <v>108</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4" t="s">
@@ -11536,7 +11536,7 @@
         <v>784</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523" s="4" t="s">
@@ -11551,7 +11551,7 @@
         <v>784</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>87</v>
+        <v>787</v>
       </c>
       <c r="D524" s="4"/>
       <c r="E524" s="4" t="s">
@@ -11566,7 +11566,7 @@
         <v>784</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>787</v>
+        <v>111</v>
       </c>
       <c r="D525" s="4"/>
       <c r="E525" s="4" t="s">
@@ -11575,13 +11575,13 @@
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>111</v>
+        <v>789</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526" s="4" t="s">
@@ -11596,11 +11596,11 @@
         <v>788</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D527" s="4"/>
       <c r="E527" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11611,11 +11611,11 @@
         <v>788</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11626,7 +11626,7 @@
         <v>788</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>791</v>
+        <v>701</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
@@ -11641,7 +11641,7 @@
         <v>788</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>701</v>
+        <v>759</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -11656,7 +11656,7 @@
         <v>788</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -11665,17 +11665,17 @@
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>758</v>
+        <v>331</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -11686,11 +11686,11 @@
         <v>792</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="D533" s="4"/>
       <c r="E533" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11701,7 +11701,7 @@
         <v>792</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>385</v>
+        <v>793</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534" s="4" t="s">
@@ -11716,7 +11716,7 @@
         <v>792</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535" s="4" t="s">
@@ -11731,7 +11731,7 @@
         <v>792</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>794</v>
+        <v>267</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="4" t="s">
@@ -11746,7 +11746,7 @@
         <v>792</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>267</v>
+        <v>795</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537" s="4" t="s">
@@ -11761,7 +11761,7 @@
         <v>792</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538" s="4" t="s">
@@ -11770,13 +11770,13 @@
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>796</v>
+        <v>34</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
@@ -11791,11 +11791,11 @@
         <v>797</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>34</v>
+        <v>798</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -11806,11 +11806,11 @@
         <v>797</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>798</v>
+        <v>675</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -11821,7 +11821,7 @@
         <v>797</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
@@ -11836,7 +11836,7 @@
         <v>797</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>673</v>
+        <v>798</v>
       </c>
       <c r="D543" s="4"/>
       <c r="E543" s="4" t="s">
@@ -11845,28 +11845,28 @@
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>673</v>
+        <v>800</v>
       </c>
       <c r="D544" s="4"/>
       <c r="E544" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -11881,11 +11881,11 @@
         <v>799</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>800</v>
+        <v>612</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -11896,7 +11896,7 @@
         <v>799</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
@@ -11911,7 +11911,7 @@
         <v>799</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>612</v>
+        <v>803</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
@@ -11926,7 +11926,7 @@
         <v>799</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4" t="s">
@@ -11935,28 +11935,28 @@
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
@@ -11965,13 +11965,13 @@
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>800</v>
+        <v>686</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -11986,11 +11986,11 @@
         <v>805</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12001,7 +12001,7 @@
         <v>805</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
@@ -12016,7 +12016,7 @@
         <v>805</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12031,7 +12031,7 @@
         <v>805</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
@@ -12040,13 +12040,13 @@
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>691</v>
+        <v>811</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12055,13 +12055,13 @@
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>688</v>
+        <v>813</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4" t="s">
@@ -12070,13 +12070,13 @@
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12091,7 +12091,7 @@
         <v>810</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4" t="s">
@@ -12106,11 +12106,11 @@
         <v>810</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12121,7 +12121,7 @@
         <v>810</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4" t="s">
@@ -12130,13 +12130,13 @@
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12145,13 +12145,13 @@
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12160,32 +12160,32 @@
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>815</v>
+        <v>559</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>816</v>
+        <v>555</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12196,7 +12196,7 @@
         <v>817</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>818</v>
+        <v>559</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12211,7 +12211,7 @@
         <v>817</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12226,7 +12226,7 @@
         <v>817</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>559</v>
+        <v>821</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
@@ -12241,11 +12241,11 @@
         <v>817</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>555</v>
+        <v>822</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12256,7 +12256,7 @@
         <v>817</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>559</v>
+        <v>823</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4" t="s">
@@ -12265,13 +12265,13 @@
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572" s="4" t="s">
@@ -12280,13 +12280,13 @@
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>821</v>
+        <v>243</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12295,13 +12295,13 @@
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12310,13 +12310,13 @@
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12331,11 +12331,11 @@
         <v>824</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12346,7 +12346,7 @@
         <v>824</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12355,13 +12355,13 @@
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>826</v>
+        <v>706</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4" t="s">
@@ -12370,13 +12370,13 @@
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>827</v>
+        <v>130</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12385,32 +12385,32 @@
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>828</v>
+        <v>600</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>333</v>
+        <v>830</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12421,7 +12421,7 @@
         <v>829</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>706</v>
+        <v>831</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12436,7 +12436,7 @@
         <v>829</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>130</v>
+        <v>832</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12451,7 +12451,7 @@
         <v>829</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="D584" s="4"/>
       <c r="E584" s="4" t="s">
@@ -12460,28 +12460,28 @@
     </row>
     <row r="585" spans="1:5">
       <c r="A585" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>830</v>
+        <v>608</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="4" t="s">
@@ -12490,13 +12490,13 @@
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>832</v>
+        <v>604</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
@@ -12505,17 +12505,17 @@
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -12526,7 +12526,7 @@
         <v>834</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589" s="4" t="s">
@@ -12541,7 +12541,7 @@
         <v>834</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590" s="4" t="s">
@@ -12550,13 +12550,13 @@
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>604</v>
+        <v>71</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="4" t="s">
@@ -12565,28 +12565,28 @@
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>605</v>
+        <v>840</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593" s="4" t="s">
@@ -12595,13 +12595,13 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>837</v>
+        <v>90</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -12616,7 +12616,7 @@
         <v>838</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -12631,7 +12631,7 @@
         <v>838</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596" s="4" t="s">
@@ -12646,11 +12646,11 @@
         <v>838</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -12661,7 +12661,7 @@
         <v>838</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -12670,13 +12670,13 @@
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>94</v>
+        <v>844</v>
       </c>
       <c r="D599" s="4"/>
       <c r="E599" s="4" t="s">
@@ -12685,43 +12685,43 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D600" s="4"/>
       <c r="E600" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>842</v>
+        <v>471</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="4" t="s">
@@ -12736,7 +12736,7 @@
         <v>843</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="4" t="s">
@@ -12751,37 +12751,37 @@
         <v>843</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>471</v>
+        <v>696</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="4" t="s">
@@ -12790,13 +12790,13 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="4" t="s">
@@ -12805,13 +12805,13 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12826,11 +12826,11 @@
         <v>848</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>696</v>
+        <v>852</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -12841,7 +12841,7 @@
         <v>848</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -12856,7 +12856,7 @@
         <v>848</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12871,7 +12871,7 @@
         <v>848</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612" s="4" t="s">
@@ -12880,13 +12880,13 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>852</v>
+        <v>246</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -12895,28 +12895,28 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>854</v>
+        <v>537</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -12925,13 +12925,13 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>855</v>
+        <v>237</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="4" t="s">
@@ -12946,7 +12946,7 @@
         <v>856</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>246</v>
+        <v>533</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617" s="4" t="s">
@@ -12961,11 +12961,11 @@
         <v>856</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>857</v>
+        <v>528</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -12976,7 +12976,7 @@
         <v>856</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D619" s="4"/>
       <c r="E619" s="4" t="s">
@@ -12991,7 +12991,7 @@
         <v>856</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>237</v>
+        <v>526</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620" s="4" t="s">
@@ -13000,13 +13000,13 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>533</v>
+        <v>859</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621" s="4" t="s">
@@ -13015,13 +13015,13 @@
     </row>
     <row r="622" spans="1:5">
       <c r="A622" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>528</v>
+        <v>860</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="4" t="s">
@@ -13030,28 +13030,28 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>535</v>
+        <v>861</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>526</v>
+        <v>862</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624" s="4" t="s">
@@ -13066,7 +13066,7 @@
         <v>858</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13081,7 +13081,7 @@
         <v>858</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13096,22 +13096,22 @@
         <v>858</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13120,13 +13120,13 @@
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13135,13 +13135,13 @@
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
@@ -13150,17 +13150,17 @@
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>865</v>
+        <v>282</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -13171,7 +13171,7 @@
         <v>866</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13186,7 +13186,7 @@
         <v>866</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>868</v>
+        <v>658</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13195,13 +13195,13 @@
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13210,43 +13210,43 @@
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>282</v>
+        <v>873</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>658</v>
+        <v>875</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637" s="4" t="s">
@@ -13261,7 +13261,7 @@
         <v>871</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13276,7 +13276,7 @@
         <v>871</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13291,37 +13291,37 @@
         <v>871</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="1:5">
       <c r="A641" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>875</v>
+        <v>329</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="642" spans="1:5">
       <c r="A642" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13330,13 +13330,13 @@
     </row>
     <row r="643" spans="1:5">
       <c r="A643" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13345,13 +13345,13 @@
     </row>
     <row r="644" spans="1:5">
       <c r="A644" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="4" t="s">
@@ -13366,11 +13366,11 @@
         <v>879</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -13381,7 +13381,7 @@
         <v>879</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D646" s="4"/>
       <c r="E646" s="4" t="s">
@@ -13396,7 +13396,7 @@
         <v>879</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>881</v>
+        <v>236</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13411,7 +13411,7 @@
         <v>879</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>882</v>
+        <v>772</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13420,13 +13420,13 @@
     </row>
     <row r="649" spans="1:5">
       <c r="A649" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>105</v>
+        <v>885</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649" s="4" t="s">
@@ -13435,13 +13435,13 @@
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D650" s="4"/>
       <c r="E650" s="4" t="s">
@@ -13450,28 +13450,28 @@
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652" spans="1:5">
       <c r="A652" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>772</v>
+        <v>887</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="4" t="s">
@@ -13486,7 +13486,7 @@
         <v>884</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13501,7 +13501,7 @@
         <v>884</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13516,11 +13516,11 @@
         <v>884</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>128</v>
+        <v>890</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -13531,7 +13531,7 @@
         <v>884</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="D656" s="4"/>
       <c r="E656" s="4" t="s">
@@ -13546,7 +13546,7 @@
         <v>884</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13555,13 +13555,13 @@
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
@@ -13570,28 +13570,28 @@
     </row>
     <row r="659" spans="1:5">
       <c r="A659" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="660" spans="1:5">
       <c r="A660" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13600,13 +13600,13 @@
     </row>
     <row r="661" spans="1:5">
       <c r="A661" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13621,7 +13621,7 @@
         <v>893</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13636,37 +13636,37 @@
         <v>893</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>896</v>
+        <v>395</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665" s="4" t="s">
@@ -13675,13 +13675,13 @@
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>898</v>
+        <v>76</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13690,13 +13690,13 @@
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13711,11 +13711,11 @@
         <v>900</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>395</v>
+        <v>903</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -13726,7 +13726,7 @@
         <v>900</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669" s="4" t="s">
@@ -13741,70 +13741,10 @@
         <v>900</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>76</v>
+        <v>905</v>
       </c>
       <c r="D670" s="4"/>
       <c r="E670" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5">
-      <c r="A671" s="4">
-        <v>109</v>
-      </c>
-      <c r="B671" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C671" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="D671" s="4"/>
-      <c r="E671" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5">
-      <c r="A672" s="4">
-        <v>109</v>
-      </c>
-      <c r="B672" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C672" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="D672" s="4"/>
-      <c r="E672" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="673" spans="1:5">
-      <c r="A673" s="4">
-        <v>109</v>
-      </c>
-      <c r="B673" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C673" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="D673" s="4"/>
-      <c r="E673" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="674" spans="1:5">
-      <c r="A674" s="4">
-        <v>109</v>
-      </c>
-      <c r="B674" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C674" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D674" s="4"/>
-      <c r="E674" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="910">
   <si>
     <t>id</t>
   </si>
@@ -3096,10 +3096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E670"/>
+  <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
-      <selection activeCell="A558" sqref="A558:XFD558"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="D628" sqref="D628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12196,7 +12196,7 @@
         <v>817</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>559</v>
+        <v>820</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12211,7 +12211,7 @@
         <v>817</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12226,7 +12226,7 @@
         <v>817</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
@@ -12241,7 +12241,7 @@
         <v>817</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
@@ -12250,13 +12250,13 @@
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4" t="s">
@@ -12271,7 +12271,7 @@
         <v>824</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>825</v>
+        <v>243</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572" s="4" t="s">
@@ -12286,7 +12286,7 @@
         <v>824</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>243</v>
+        <v>826</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12301,7 +12301,7 @@
         <v>824</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12316,11 +12316,11 @@
         <v>824</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12331,22 +12331,22 @@
         <v>824</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>828</v>
+        <v>333</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>333</v>
+        <v>706</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12361,7 +12361,7 @@
         <v>829</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>706</v>
+        <v>130</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4" t="s">
@@ -12376,7 +12376,7 @@
         <v>829</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12391,11 +12391,11 @@
         <v>829</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12406,11 +12406,11 @@
         <v>829</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12421,7 +12421,7 @@
         <v>829</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12436,7 +12436,7 @@
         <v>829</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12445,13 +12445,13 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>833</v>
+        <v>608</v>
       </c>
       <c r="D584" s="4"/>
       <c r="E584" s="4" t="s">
@@ -12466,7 +12466,7 @@
         <v>834</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>608</v>
+        <v>835</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
@@ -12481,7 +12481,7 @@
         <v>834</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>835</v>
+        <v>604</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="4" t="s">
@@ -12496,11 +12496,11 @@
         <v>834</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>604</v>
+        <v>836</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -12511,11 +12511,11 @@
         <v>834</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>836</v>
+        <v>605</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -12526,7 +12526,7 @@
         <v>834</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>605</v>
+        <v>837</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589" s="4" t="s">
@@ -12535,13 +12535,13 @@
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>837</v>
+        <v>71</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590" s="4" t="s">
@@ -12556,7 +12556,7 @@
         <v>838</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>71</v>
+        <v>839</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="4" t="s">
@@ -12571,7 +12571,7 @@
         <v>838</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
@@ -12586,7 +12586,7 @@
         <v>838</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>840</v>
+        <v>90</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593" s="4" t="s">
@@ -12601,7 +12601,7 @@
         <v>838</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -12616,7 +12616,7 @@
         <v>838</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>94</v>
+        <v>841</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -12631,11 +12631,11 @@
         <v>838</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -12646,22 +12646,22 @@
         <v>838</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>842</v>
+        <v>92</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>92</v>
+        <v>844</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -12676,11 +12676,11 @@
         <v>843</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D599" s="4"/>
       <c r="E599" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -12691,11 +12691,11 @@
         <v>843</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>845</v>
+        <v>471</v>
       </c>
       <c r="D600" s="4"/>
       <c r="E600" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -12706,7 +12706,7 @@
         <v>843</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>471</v>
+        <v>21</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
@@ -12721,7 +12721,7 @@
         <v>843</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>21</v>
+        <v>846</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="4" t="s">
@@ -12736,7 +12736,7 @@
         <v>843</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="4" t="s">
@@ -12745,17 +12745,17 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>847</v>
+        <v>696</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -12766,11 +12766,11 @@
         <v>848</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>696</v>
+        <v>849</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -12781,7 +12781,7 @@
         <v>848</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="4" t="s">
@@ -12796,7 +12796,7 @@
         <v>848</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="4" t="s">
@@ -12811,7 +12811,7 @@
         <v>848</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12826,7 +12826,7 @@
         <v>848</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
@@ -12841,7 +12841,7 @@
         <v>848</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -12856,7 +12856,7 @@
         <v>848</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12865,13 +12865,13 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>855</v>
+        <v>246</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612" s="4" t="s">
@@ -12886,11 +12886,11 @@
         <v>856</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>246</v>
+        <v>857</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -12901,11 +12901,11 @@
         <v>856</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>857</v>
+        <v>537</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -12916,7 +12916,7 @@
         <v>856</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>537</v>
+        <v>237</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -12931,7 +12931,7 @@
         <v>856</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>237</v>
+        <v>533</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="4" t="s">
@@ -12946,7 +12946,7 @@
         <v>856</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617" s="4" t="s">
@@ -12961,7 +12961,7 @@
         <v>856</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618" s="4" t="s">
@@ -12976,7 +12976,7 @@
         <v>856</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D619" s="4"/>
       <c r="E619" s="4" t="s">
@@ -12985,13 +12985,13 @@
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>526</v>
+        <v>859</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620" s="4" t="s">
@@ -13006,7 +13006,7 @@
         <v>858</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621" s="4" t="s">
@@ -13021,11 +13021,11 @@
         <v>858</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -13036,11 +13036,11 @@
         <v>858</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -13051,7 +13051,7 @@
         <v>858</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624" s="4" t="s">
@@ -13066,7 +13066,7 @@
         <v>858</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13081,7 +13081,7 @@
         <v>858</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13090,13 +13090,13 @@
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
@@ -13111,7 +13111,7 @@
         <v>866</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13126,7 +13126,7 @@
         <v>866</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13141,11 +13141,11 @@
         <v>866</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>869</v>
+        <v>282</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13156,11 +13156,11 @@
         <v>866</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>282</v>
+        <v>870</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -13171,7 +13171,7 @@
         <v>866</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>870</v>
+        <v>658</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13180,13 +13180,13 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>658</v>
+        <v>872</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13201,7 +13201,7 @@
         <v>871</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13216,11 +13216,11 @@
         <v>871</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13231,11 +13231,11 @@
         <v>871</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13246,7 +13246,7 @@
         <v>871</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637" s="4" t="s">
@@ -13261,7 +13261,7 @@
         <v>871</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13276,7 +13276,7 @@
         <v>871</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13285,17 +13285,17 @@
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>878</v>
+        <v>329</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13306,11 +13306,11 @@
         <v>879</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>329</v>
+        <v>880</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -13321,7 +13321,7 @@
         <v>879</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13336,7 +13336,7 @@
         <v>879</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13351,7 +13351,7 @@
         <v>879</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>882</v>
+        <v>105</v>
       </c>
       <c r="D644" s="4"/>
       <c r="E644" s="4" t="s">
@@ -13366,7 +13366,7 @@
         <v>879</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>105</v>
+        <v>883</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645" s="4" t="s">
@@ -13381,7 +13381,7 @@
         <v>879</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>883</v>
+        <v>236</v>
       </c>
       <c r="D646" s="4"/>
       <c r="E646" s="4" t="s">
@@ -13396,7 +13396,7 @@
         <v>879</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>236</v>
+        <v>772</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13405,13 +13405,13 @@
     </row>
     <row r="648" spans="1:5">
       <c r="A648" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>772</v>
+        <v>885</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13426,7 +13426,7 @@
         <v>884</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649" s="4" t="s">
@@ -13441,11 +13441,11 @@
         <v>884</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>886</v>
+        <v>128</v>
       </c>
       <c r="D650" s="4"/>
       <c r="E650" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -13456,11 +13456,11 @@
         <v>884</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>128</v>
+        <v>887</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -13471,7 +13471,7 @@
         <v>884</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="4" t="s">
@@ -13486,7 +13486,7 @@
         <v>884</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13501,7 +13501,7 @@
         <v>884</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13516,7 +13516,7 @@
         <v>884</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="4" t="s">
@@ -13531,7 +13531,7 @@
         <v>884</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D656" s="4"/>
       <c r="E656" s="4" t="s">
@@ -13540,13 +13540,13 @@
     </row>
     <row r="657" spans="1:5">
       <c r="A657" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13561,11 +13561,11 @@
         <v>893</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -13576,11 +13576,11 @@
         <v>893</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -13591,7 +13591,7 @@
         <v>893</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13606,7 +13606,7 @@
         <v>893</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13621,7 +13621,7 @@
         <v>893</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13630,17 +13630,17 @@
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>899</v>
+        <v>395</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -13651,11 +13651,11 @@
         <v>900</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>395</v>
+        <v>901</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -13666,7 +13666,7 @@
         <v>900</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>901</v>
+        <v>76</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665" s="4" t="s">
@@ -13681,7 +13681,7 @@
         <v>900</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>76</v>
+        <v>902</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13696,7 +13696,7 @@
         <v>900</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13711,7 +13711,7 @@
         <v>900</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="4" t="s">
@@ -13726,25 +13726,10 @@
         <v>900</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5">
-      <c r="A670" s="4">
-        <v>109</v>
-      </c>
-      <c r="B670" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D670" s="4"/>
-      <c r="E670" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -1848,9 +1848,6 @@
     <t>ETEK</t>
   </si>
   <si>
-    <t>CEGET</t>
-  </si>
-  <si>
     <t>E,A,M,D,D</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>E,K,T,P,E,H</t>
+  </si>
+  <si>
+    <t>CEKET</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="D628" sqref="D628"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4255,7 +4255,7 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>190</v>
@@ -8126,7 +8126,7 @@
         <v>54</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>125</v>
@@ -8143,7 +8143,7 @@
         <v>54</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>599</v>
@@ -8158,7 +8158,7 @@
         <v>54</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>600</v>
@@ -8173,7 +8173,7 @@
         <v>54</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>601</v>
@@ -8281,7 +8281,7 @@
         <v>602</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>609</v>
+        <v>909</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
@@ -8293,10 +8293,10 @@
         <v>56</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
@@ -8308,10 +8308,10 @@
         <v>56</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
@@ -8323,7 +8323,7 @@
         <v>56</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>71</v>
@@ -8338,10 +8338,10 @@
         <v>56</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="4" t="s">
@@ -8353,10 +8353,10 @@
         <v>56</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="4" t="s">
@@ -8368,10 +8368,10 @@
         <v>57</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="4" t="s">
@@ -8383,10 +8383,10 @@
         <v>57</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
@@ -8398,10 +8398,10 @@
         <v>57</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="4" t="s">
@@ -8413,10 +8413,10 @@
         <v>57</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="4" t="s">
@@ -8428,7 +8428,7 @@
         <v>57</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>87</v>
@@ -8443,7 +8443,7 @@
         <v>57</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>129</v>
@@ -8458,7 +8458,7 @@
         <v>57</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>50</v>
@@ -8473,10 +8473,10 @@
         <v>57</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
@@ -8488,10 +8488,10 @@
         <v>58</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>622</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
@@ -8503,10 +8503,10 @@
         <v>58</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
@@ -8518,10 +8518,10 @@
         <v>58</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
@@ -8533,10 +8533,10 @@
         <v>58</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="4" t="s">
@@ -8548,10 +8548,10 @@
         <v>58</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
@@ -8563,10 +8563,10 @@
         <v>58</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="4" t="s">
@@ -8578,10 +8578,10 @@
         <v>58</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="4" t="s">
@@ -8593,10 +8593,10 @@
         <v>58</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="4" t="s">
@@ -8608,10 +8608,10 @@
         <v>59</v>
       </c>
       <c r="B328" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C328" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328" s="4" t="s">
@@ -8623,10 +8623,10 @@
         <v>59</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="4" t="s">
@@ -8638,10 +8638,10 @@
         <v>59</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="4" t="s">
@@ -8653,10 +8653,10 @@
         <v>59</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
@@ -8668,10 +8668,10 @@
         <v>59</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D332" s="4"/>
       <c r="E332" s="4" t="s">
@@ -8683,10 +8683,10 @@
         <v>59</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="4" t="s">
@@ -8698,10 +8698,10 @@
         <v>59</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="4" t="s">
@@ -8713,10 +8713,10 @@
         <v>59</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D335" s="4"/>
       <c r="E335" s="4" t="s">
@@ -8728,7 +8728,7 @@
         <v>60</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>87</v>
@@ -8743,10 +8743,10 @@
         <v>60</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
@@ -8758,10 +8758,10 @@
         <v>60</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="4" t="s">
@@ -8773,10 +8773,10 @@
         <v>60</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339" s="4" t="s">
@@ -8788,10 +8788,10 @@
         <v>60</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="4" t="s">
@@ -8803,10 +8803,10 @@
         <v>60</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="4" t="s">
@@ -8818,7 +8818,7 @@
         <v>60</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>50</v>
@@ -8833,10 +8833,10 @@
         <v>60</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D343" s="4"/>
       <c r="E343" s="4" t="s">
@@ -8848,10 +8848,10 @@
         <v>60</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="4" t="s">
@@ -8863,10 +8863,10 @@
         <v>61</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="4" t="s">
@@ -8878,10 +8878,10 @@
         <v>61</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C346" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="4" t="s">
@@ -8893,10 +8893,10 @@
         <v>61</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="4" t="s">
@@ -8908,10 +8908,10 @@
         <v>61</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348" s="4" t="s">
@@ -8923,10 +8923,10 @@
         <v>61</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D349" s="4"/>
       <c r="E349" s="4" t="s">
@@ -8938,10 +8938,10 @@
         <v>61</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350" s="4" t="s">
@@ -8953,10 +8953,10 @@
         <v>61</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351" s="4" t="s">
@@ -8968,10 +8968,10 @@
         <v>62</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352" s="4" t="s">
@@ -8983,10 +8983,10 @@
         <v>62</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4" t="s">
@@ -8998,7 +8998,7 @@
         <v>62</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>326</v>
@@ -9013,10 +9013,10 @@
         <v>62</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4" t="s">
@@ -9028,10 +9028,10 @@
         <v>62</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4" t="s">
@@ -9043,10 +9043,10 @@
         <v>62</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4" t="s">
@@ -9058,10 +9058,10 @@
         <v>63</v>
       </c>
       <c r="B358" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C358" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4" t="s">
@@ -9073,10 +9073,10 @@
         <v>63</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
@@ -9088,10 +9088,10 @@
         <v>63</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="4" t="s">
@@ -9103,10 +9103,10 @@
         <v>63</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="4" t="s">
@@ -9118,10 +9118,10 @@
         <v>63</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="4" t="s">
@@ -9133,10 +9133,10 @@
         <v>63</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
@@ -9148,10 +9148,10 @@
         <v>63</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
@@ -9163,10 +9163,10 @@
         <v>64</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="4" t="s">
@@ -9178,10 +9178,10 @@
         <v>64</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
@@ -9193,7 +9193,7 @@
         <v>64</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>416</v>
@@ -9208,10 +9208,10 @@
         <v>64</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="4" t="s">
@@ -9223,10 +9223,10 @@
         <v>64</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="4" t="s">
@@ -9238,10 +9238,10 @@
         <v>64</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370" s="4" t="s">
@@ -9253,10 +9253,10 @@
         <v>65</v>
       </c>
       <c r="B371" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C371" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371" s="4" t="s">
@@ -9268,10 +9268,10 @@
         <v>65</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372" s="4" t="s">
@@ -9283,10 +9283,10 @@
         <v>65</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373" s="4" t="s">
@@ -9298,10 +9298,10 @@
         <v>65</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D374" s="4"/>
       <c r="E374" s="4" t="s">
@@ -9313,10 +9313,10 @@
         <v>65</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375" s="4" t="s">
@@ -9328,10 +9328,10 @@
         <v>66</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C376" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376" s="4" t="s">
@@ -9343,10 +9343,10 @@
         <v>66</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="4" t="s">
@@ -9358,10 +9358,10 @@
         <v>66</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378" s="4" t="s">
@@ -9373,7 +9373,7 @@
         <v>66</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>484</v>
@@ -9388,10 +9388,10 @@
         <v>66</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380" s="4" t="s">
@@ -9403,7 +9403,7 @@
         <v>66</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>488</v>
@@ -9418,10 +9418,10 @@
         <v>66</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="4" t="s">
@@ -9433,10 +9433,10 @@
         <v>66</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="4" t="s">
@@ -9448,10 +9448,10 @@
         <v>66</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384" s="4" t="s">
@@ -9463,7 +9463,7 @@
         <v>67</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>333</v>
@@ -9478,7 +9478,7 @@
         <v>67</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>331</v>
@@ -9493,7 +9493,7 @@
         <v>67</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>337</v>
@@ -9508,10 +9508,10 @@
         <v>67</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4" t="s">
@@ -9523,7 +9523,7 @@
         <v>67</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>269</v>
@@ -9538,7 +9538,7 @@
         <v>68</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>488</v>
@@ -9553,10 +9553,10 @@
         <v>68</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4" t="s">
@@ -9568,7 +9568,7 @@
         <v>68</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>605</v>
@@ -9583,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>604</v>
@@ -9598,7 +9598,7 @@
         <v>68</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>608</v>
@@ -9613,10 +9613,10 @@
         <v>68</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4" t="s">
@@ -9628,7 +9628,7 @@
         <v>68</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>378</v>
@@ -9643,10 +9643,10 @@
         <v>69</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4" t="s">
@@ -9658,10 +9658,10 @@
         <v>69</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4" t="s">
@@ -9673,10 +9673,10 @@
         <v>69</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4" t="s">
@@ -9688,10 +9688,10 @@
         <v>69</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4" t="s">
@@ -9703,10 +9703,10 @@
         <v>69</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4" t="s">
@@ -9718,10 +9718,10 @@
         <v>69</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4" t="s">
@@ -9733,10 +9733,10 @@
         <v>70</v>
       </c>
       <c r="B403" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C403" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>693</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4" t="s">
@@ -9748,10 +9748,10 @@
         <v>70</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4" t="s">
@@ -9763,10 +9763,10 @@
         <v>70</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
@@ -9778,7 +9778,7 @@
         <v>70</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>484</v>
@@ -9793,10 +9793,10 @@
         <v>70</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4" t="s">
@@ -9808,7 +9808,7 @@
         <v>71</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>237</v>
@@ -9823,10 +9823,10 @@
         <v>71</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>697</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>698</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4" t="s">
@@ -9838,7 +9838,7 @@
         <v>71</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>342</v>
@@ -9853,10 +9853,10 @@
         <v>71</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4" t="s">
@@ -9868,10 +9868,10 @@
         <v>71</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4" t="s">
@@ -9883,7 +9883,7 @@
         <v>71</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>478</v>
@@ -9898,10 +9898,10 @@
         <v>71</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4" t="s">
@@ -9913,7 +9913,7 @@
         <v>72</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>61</v>
@@ -9928,10 +9928,10 @@
         <v>72</v>
       </c>
       <c r="B416" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C416" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4" t="s">
@@ -9943,7 +9943,7 @@
         <v>72</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>364</v>
@@ -9958,10 +9958,10 @@
         <v>72</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4" t="s">
@@ -9973,10 +9973,10 @@
         <v>72</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4" t="s">
@@ -9988,7 +9988,7 @@
         <v>72</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>362</v>
@@ -10003,10 +10003,10 @@
         <v>73</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>704</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>705</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4" t="s">
@@ -10018,10 +10018,10 @@
         <v>73</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4" t="s">
@@ -10033,7 +10033,7 @@
         <v>73</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>512</v>
@@ -10048,10 +10048,10 @@
         <v>73</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4" t="s">
@@ -10063,7 +10063,7 @@
         <v>73</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>600</v>
@@ -10078,10 +10078,10 @@
         <v>73</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4" t="s">
@@ -10093,10 +10093,10 @@
         <v>73</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4" t="s">
@@ -10108,7 +10108,7 @@
         <v>74</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>283</v>
@@ -10123,10 +10123,10 @@
         <v>74</v>
       </c>
       <c r="B429" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C429" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="C429" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4" t="s">
@@ -10138,10 +10138,10 @@
         <v>74</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4" t="s">
@@ -10153,10 +10153,10 @@
         <v>74</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4" t="s">
@@ -10168,7 +10168,7 @@
         <v>74</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>114</v>
@@ -10183,7 +10183,7 @@
         <v>74</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>59</v>
@@ -10198,10 +10198,10 @@
         <v>74</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
@@ -10213,10 +10213,10 @@
         <v>74</v>
       </c>
       <c r="B435" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C435" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
@@ -10228,10 +10228,10 @@
         <v>75</v>
       </c>
       <c r="B436" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C436" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4" t="s">
@@ -10243,10 +10243,10 @@
         <v>75</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
@@ -10258,10 +10258,10 @@
         <v>75</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4" t="s">
@@ -10273,10 +10273,10 @@
         <v>75</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4" t="s">
@@ -10288,10 +10288,10 @@
         <v>75</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D440" s="4"/>
       <c r="E440" s="4" t="s">
@@ -10303,7 +10303,7 @@
         <v>75</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>588</v>
@@ -10318,7 +10318,7 @@
         <v>75</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>584</v>
@@ -10333,10 +10333,10 @@
         <v>76</v>
       </c>
       <c r="B443" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="C443" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="D443" s="4"/>
       <c r="E443" s="4" t="s">
@@ -10348,10 +10348,10 @@
         <v>76</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D444" s="4"/>
       <c r="E444" s="4" t="s">
@@ -10363,10 +10363,10 @@
         <v>76</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D445" s="4"/>
       <c r="E445" s="4" t="s">
@@ -10378,10 +10378,10 @@
         <v>76</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
@@ -10393,10 +10393,10 @@
         <v>76</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D447" s="4"/>
       <c r="E447" s="4" t="s">
@@ -10408,10 +10408,10 @@
         <v>76</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D448" s="4"/>
       <c r="E448" s="4" t="s">
@@ -10423,10 +10423,10 @@
         <v>76</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D449" s="4"/>
       <c r="E449" s="4" t="s">
@@ -10438,10 +10438,10 @@
         <v>76</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D450" s="4"/>
       <c r="E450" s="4" t="s">
@@ -10453,10 +10453,10 @@
         <v>77</v>
       </c>
       <c r="B451" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C451" s="4" t="s">
         <v>730</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>731</v>
       </c>
       <c r="D451" s="4"/>
       <c r="E451" s="4" t="s">
@@ -10468,10 +10468,10 @@
         <v>77</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D452" s="4"/>
       <c r="E452" s="4" t="s">
@@ -10483,10 +10483,10 @@
         <v>77</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453" s="4" t="s">
@@ -10498,10 +10498,10 @@
         <v>77</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="4" t="s">
@@ -10513,10 +10513,10 @@
         <v>77</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
@@ -10528,10 +10528,10 @@
         <v>77</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456" s="4" t="s">
@@ -10543,10 +10543,10 @@
         <v>77</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D457" s="4"/>
       <c r="E457" s="4" t="s">
@@ -10558,10 +10558,10 @@
         <v>78</v>
       </c>
       <c r="B458" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C458" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>739</v>
       </c>
       <c r="D458" s="4"/>
       <c r="E458" s="4" t="s">
@@ -10573,10 +10573,10 @@
         <v>78</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D459" s="4"/>
       <c r="E459" s="4" t="s">
@@ -10588,10 +10588,10 @@
         <v>78</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D460" s="4"/>
       <c r="E460" s="4" t="s">
@@ -10603,10 +10603,10 @@
         <v>78</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
@@ -10618,10 +10618,10 @@
         <v>79</v>
       </c>
       <c r="B462" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C462" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="C462" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="D462" s="4"/>
       <c r="E462" s="4" t="s">
@@ -10633,10 +10633,10 @@
         <v>79</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D463" s="4"/>
       <c r="E463" s="4" t="s">
@@ -10648,10 +10648,10 @@
         <v>79</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D464" s="4"/>
       <c r="E464" s="4" t="s">
@@ -10663,7 +10663,7 @@
         <v>79</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>128</v>
@@ -10678,10 +10678,10 @@
         <v>79</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D466" s="4"/>
       <c r="E466" s="4" t="s">
@@ -10693,10 +10693,10 @@
         <v>79</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D467" s="4"/>
       <c r="E467" s="4" t="s">
@@ -10708,10 +10708,10 @@
         <v>80</v>
       </c>
       <c r="B468" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C468" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>749</v>
       </c>
       <c r="D468" s="4"/>
       <c r="E468" s="4" t="s">
@@ -10723,10 +10723,10 @@
         <v>80</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D469" s="4"/>
       <c r="E469" s="4" t="s">
@@ -10738,10 +10738,10 @@
         <v>80</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D470" s="4"/>
       <c r="E470" s="4" t="s">
@@ -10753,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D471" s="4"/>
       <c r="E471" s="4" t="s">
@@ -10768,10 +10768,10 @@
         <v>80</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D472" s="4"/>
       <c r="E472" s="4" t="s">
@@ -10783,10 +10783,10 @@
         <v>80</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473" s="4" t="s">
@@ -10798,10 +10798,10 @@
         <v>81</v>
       </c>
       <c r="B474" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C474" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474" s="4" t="s">
@@ -10813,10 +10813,10 @@
         <v>81</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475" s="4" t="s">
@@ -10828,10 +10828,10 @@
         <v>81</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D476" s="4"/>
       <c r="E476" s="4" t="s">
@@ -10843,10 +10843,10 @@
         <v>81</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D477" s="4"/>
       <c r="E477" s="4" t="s">
@@ -10858,10 +10858,10 @@
         <v>81</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D478" s="4"/>
       <c r="E478" s="4" t="s">
@@ -10873,7 +10873,7 @@
         <v>82</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>115</v>
@@ -10888,7 +10888,7 @@
         <v>82</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>20</v>
@@ -10903,7 +10903,7 @@
         <v>82</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>22</v>
@@ -10918,10 +10918,10 @@
         <v>82</v>
       </c>
       <c r="B482" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C482" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>762</v>
       </c>
       <c r="D482" s="4"/>
       <c r="E482" s="4" t="s">
@@ -10933,7 +10933,7 @@
         <v>82</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>23</v>
@@ -10948,7 +10948,7 @@
         <v>82</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>87</v>
@@ -10963,7 +10963,7 @@
         <v>83</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>63</v>
@@ -10978,7 +10978,7 @@
         <v>83</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>64</v>
@@ -10993,10 +10993,10 @@
         <v>83</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C487" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="D487" s="4"/>
       <c r="E487" s="4" t="s">
@@ -11008,10 +11008,10 @@
         <v>83</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="4" t="s">
@@ -11023,7 +11023,7 @@
         <v>83</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>271</v>
@@ -11038,10 +11038,10 @@
         <v>83</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D490" s="4"/>
       <c r="E490" s="4" t="s">
@@ -11053,7 +11053,7 @@
         <v>84</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>99</v>
@@ -11068,7 +11068,7 @@
         <v>84</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>281</v>
@@ -11083,7 +11083,7 @@
         <v>84</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>96</v>
@@ -11098,10 +11098,10 @@
         <v>84</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="D494" s="4"/>
       <c r="E494" s="4" t="s">
@@ -11113,10 +11113,10 @@
         <v>84</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D495" s="4"/>
       <c r="E495" s="4" t="s">
@@ -11128,10 +11128,10 @@
         <v>84</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496" s="4" t="s">
@@ -11143,7 +11143,7 @@
         <v>84</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>72</v>
@@ -11158,10 +11158,10 @@
         <v>85</v>
       </c>
       <c r="B498" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C498" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="4" t="s">
@@ -11173,7 +11173,7 @@
         <v>85</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>236</v>
@@ -11188,10 +11188,10 @@
         <v>85</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500" s="4" t="s">
@@ -11203,10 +11203,10 @@
         <v>85</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="4" t="s">
@@ -11218,10 +11218,10 @@
         <v>85</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4" t="s">
@@ -11233,10 +11233,10 @@
         <v>85</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4" t="s">
@@ -11248,7 +11248,7 @@
         <v>86</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>457</v>
@@ -11263,7 +11263,7 @@
         <v>86</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>350</v>
@@ -11278,7 +11278,7 @@
         <v>86</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>464</v>
@@ -11293,7 +11293,7 @@
         <v>86</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>466</v>
@@ -11308,10 +11308,10 @@
         <v>86</v>
       </c>
       <c r="B508" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C508" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="C508" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508" s="4" t="s">
@@ -11323,7 +11323,7 @@
         <v>86</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>462</v>
@@ -11338,7 +11338,7 @@
         <v>86</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>460</v>
@@ -11353,10 +11353,10 @@
         <v>87</v>
       </c>
       <c r="B511" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C511" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="C511" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="D511" s="4"/>
       <c r="E511" s="4" t="s">
@@ -11368,7 +11368,7 @@
         <v>87</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>102</v>
@@ -11383,10 +11383,10 @@
         <v>87</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513" s="4" t="s">
@@ -11398,10 +11398,10 @@
         <v>87</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D514" s="4"/>
       <c r="E514" s="4" t="s">
@@ -11413,7 +11413,7 @@
         <v>87</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C515" s="4" t="s">
         <v>369</v>
@@ -11428,10 +11428,10 @@
         <v>87</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="4" t="s">
@@ -11443,7 +11443,7 @@
         <v>87</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>103</v>
@@ -11458,7 +11458,7 @@
         <v>87</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>360</v>
@@ -11473,10 +11473,10 @@
         <v>88</v>
       </c>
       <c r="B519" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C519" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="C519" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="D519" s="4"/>
       <c r="E519" s="4" t="s">
@@ -11488,10 +11488,10 @@
         <v>88</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4" t="s">
@@ -11503,10 +11503,10 @@
         <v>88</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
@@ -11518,7 +11518,7 @@
         <v>88</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C522" s="4" t="s">
         <v>108</v>
@@ -11533,7 +11533,7 @@
         <v>88</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>87</v>
@@ -11548,10 +11548,10 @@
         <v>88</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D524" s="4"/>
       <c r="E524" s="4" t="s">
@@ -11563,7 +11563,7 @@
         <v>88</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>111</v>
@@ -11578,10 +11578,10 @@
         <v>89</v>
       </c>
       <c r="B526" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C526" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="C526" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526" s="4" t="s">
@@ -11593,10 +11593,10 @@
         <v>89</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D527" s="4"/>
       <c r="E527" s="4" t="s">
@@ -11608,10 +11608,10 @@
         <v>89</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
@@ -11623,10 +11623,10 @@
         <v>89</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
@@ -11638,10 +11638,10 @@
         <v>89</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -11653,10 +11653,10 @@
         <v>89</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -11668,7 +11668,7 @@
         <v>90</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>331</v>
@@ -11683,7 +11683,7 @@
         <v>90</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>385</v>
@@ -11698,10 +11698,10 @@
         <v>90</v>
       </c>
       <c r="B534" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C534" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="C534" s="4" t="s">
-        <v>793</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534" s="4" t="s">
@@ -11713,10 +11713,10 @@
         <v>90</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535" s="4" t="s">
@@ -11728,7 +11728,7 @@
         <v>90</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>267</v>
@@ -11743,10 +11743,10 @@
         <v>90</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537" s="4" t="s">
@@ -11758,10 +11758,10 @@
         <v>90</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538" s="4" t="s">
@@ -11773,7 +11773,7 @@
         <v>91</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C539" s="4" t="s">
         <v>34</v>
@@ -11788,10 +11788,10 @@
         <v>91</v>
       </c>
       <c r="B540" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C540" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>798</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
@@ -11803,10 +11803,10 @@
         <v>91</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="4" t="s">
@@ -11818,10 +11818,10 @@
         <v>91</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
@@ -11833,10 +11833,10 @@
         <v>91</v>
       </c>
       <c r="B543" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C543" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>798</v>
       </c>
       <c r="D543" s="4"/>
       <c r="E543" s="4" t="s">
@@ -11848,10 +11848,10 @@
         <v>92</v>
       </c>
       <c r="B544" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C544" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="C544" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="D544" s="4"/>
       <c r="E544" s="4" t="s">
@@ -11863,10 +11863,10 @@
         <v>92</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -11878,10 +11878,10 @@
         <v>92</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
@@ -11893,10 +11893,10 @@
         <v>92</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
@@ -11908,10 +11908,10 @@
         <v>92</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
@@ -11923,10 +11923,10 @@
         <v>92</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4" t="s">
@@ -11938,10 +11938,10 @@
         <v>93</v>
       </c>
       <c r="B550" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C550" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
@@ -11953,10 +11953,10 @@
         <v>93</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
@@ -11968,10 +11968,10 @@
         <v>93</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -11983,10 +11983,10 @@
         <v>93</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
@@ -11998,10 +11998,10 @@
         <v>93</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
@@ -12013,10 +12013,10 @@
         <v>93</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12028,10 +12028,10 @@
         <v>93</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
@@ -12043,10 +12043,10 @@
         <v>94</v>
       </c>
       <c r="B557" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C557" s="4" t="s">
         <v>810</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>811</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12058,10 +12058,10 @@
         <v>94</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4" t="s">
@@ -12073,10 +12073,10 @@
         <v>94</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12088,10 +12088,10 @@
         <v>94</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4" t="s">
@@ -12103,10 +12103,10 @@
         <v>94</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
@@ -12118,10 +12118,10 @@
         <v>94</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4" t="s">
@@ -12133,10 +12133,10 @@
         <v>95</v>
       </c>
       <c r="B563" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C563" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="C563" s="4" t="s">
-        <v>818</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12148,10 +12148,10 @@
         <v>95</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12163,7 +12163,7 @@
         <v>95</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>559</v>
@@ -12178,7 +12178,7 @@
         <v>95</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>555</v>
@@ -12193,10 +12193,10 @@
         <v>95</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12208,10 +12208,10 @@
         <v>95</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12223,10 +12223,10 @@
         <v>95</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
@@ -12238,10 +12238,10 @@
         <v>95</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
@@ -12253,10 +12253,10 @@
         <v>96</v>
       </c>
       <c r="B571" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C571" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>825</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4" t="s">
@@ -12268,7 +12268,7 @@
         <v>96</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C572" s="4" t="s">
         <v>243</v>
@@ -12283,10 +12283,10 @@
         <v>96</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4" t="s">
@@ -12298,10 +12298,10 @@
         <v>96</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12313,10 +12313,10 @@
         <v>96</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12328,7 +12328,7 @@
         <v>96</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C576" s="4" t="s">
         <v>333</v>
@@ -12343,10 +12343,10 @@
         <v>97</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12358,7 +12358,7 @@
         <v>97</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C578" s="4" t="s">
         <v>130</v>
@@ -12373,7 +12373,7 @@
         <v>97</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>600</v>
@@ -12388,10 +12388,10 @@
         <v>97</v>
       </c>
       <c r="B580" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C580" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="C580" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
@@ -12403,10 +12403,10 @@
         <v>97</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
@@ -12418,10 +12418,10 @@
         <v>97</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12433,10 +12433,10 @@
         <v>97</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12448,7 +12448,7 @@
         <v>98</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>608</v>
@@ -12463,10 +12463,10 @@
         <v>98</v>
       </c>
       <c r="B585" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C585" s="4" t="s">
         <v>834</v>
-      </c>
-      <c r="C585" s="4" t="s">
-        <v>835</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
@@ -12478,7 +12478,7 @@
         <v>98</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C586" s="4" t="s">
         <v>604</v>
@@ -12493,10 +12493,10 @@
         <v>98</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="4" t="s">
@@ -12508,7 +12508,7 @@
         <v>98</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C588" s="4" t="s">
         <v>605</v>
@@ -12523,10 +12523,10 @@
         <v>98</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589" s="4" t="s">
@@ -12538,7 +12538,7 @@
         <v>99</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>71</v>
@@ -12553,10 +12553,10 @@
         <v>99</v>
       </c>
       <c r="B591" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C591" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>839</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591" s="4" t="s">
@@ -12568,10 +12568,10 @@
         <v>99</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
@@ -12583,7 +12583,7 @@
         <v>99</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C593" s="4" t="s">
         <v>90</v>
@@ -12598,7 +12598,7 @@
         <v>99</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C594" s="4" t="s">
         <v>94</v>
@@ -12613,10 +12613,10 @@
         <v>99</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -12628,10 +12628,10 @@
         <v>99</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596" s="4" t="s">
@@ -12643,7 +12643,7 @@
         <v>99</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C597" s="4" t="s">
         <v>92</v>
@@ -12658,10 +12658,10 @@
         <v>100</v>
       </c>
       <c r="B598" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C598" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="C598" s="4" t="s">
-        <v>844</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -12673,10 +12673,10 @@
         <v>100</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D599" s="4"/>
       <c r="E599" s="4" t="s">
@@ -12688,7 +12688,7 @@
         <v>100</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>471</v>
@@ -12703,7 +12703,7 @@
         <v>100</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C601" s="4" t="s">
         <v>21</v>
@@ -12718,10 +12718,10 @@
         <v>100</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602" s="4" t="s">
@@ -12733,10 +12733,10 @@
         <v>100</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="4" t="s">
@@ -12748,10 +12748,10 @@
         <v>101</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D604" s="4"/>
       <c r="E604" s="4" t="s">
@@ -12763,10 +12763,10 @@
         <v>101</v>
       </c>
       <c r="B605" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C605" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C605" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
@@ -12778,10 +12778,10 @@
         <v>101</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="4" t="s">
@@ -12793,10 +12793,10 @@
         <v>101</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="4" t="s">
@@ -12808,10 +12808,10 @@
         <v>101</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -12823,10 +12823,10 @@
         <v>101</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
@@ -12838,10 +12838,10 @@
         <v>101</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -12853,10 +12853,10 @@
         <v>101</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -12868,7 +12868,7 @@
         <v>102</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C612" s="4" t="s">
         <v>246</v>
@@ -12883,10 +12883,10 @@
         <v>102</v>
       </c>
       <c r="B613" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C613" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="C613" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -12898,7 +12898,7 @@
         <v>102</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C614" s="4" t="s">
         <v>537</v>
@@ -12913,7 +12913,7 @@
         <v>102</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C615" s="4" t="s">
         <v>237</v>
@@ -12928,7 +12928,7 @@
         <v>102</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>533</v>
@@ -12943,7 +12943,7 @@
         <v>102</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C617" s="4" t="s">
         <v>528</v>
@@ -12958,7 +12958,7 @@
         <v>102</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>535</v>
@@ -12973,7 +12973,7 @@
         <v>102</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>526</v>
@@ -12988,10 +12988,10 @@
         <v>103</v>
       </c>
       <c r="B620" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C620" s="4" t="s">
         <v>858</v>
-      </c>
-      <c r="C620" s="4" t="s">
-        <v>859</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620" s="4" t="s">
@@ -13003,10 +13003,10 @@
         <v>103</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621" s="4" t="s">
@@ -13018,10 +13018,10 @@
         <v>103</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="4" t="s">
@@ -13033,10 +13033,10 @@
         <v>103</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="4" t="s">
@@ -13048,10 +13048,10 @@
         <v>103</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624" s="4" t="s">
@@ -13063,10 +13063,10 @@
         <v>103</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13078,10 +13078,10 @@
         <v>103</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13093,10 +13093,10 @@
         <v>104</v>
       </c>
       <c r="B627" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C627" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="C627" s="4" t="s">
-        <v>867</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
@@ -13108,10 +13108,10 @@
         <v>104</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13123,10 +13123,10 @@
         <v>104</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13138,7 +13138,7 @@
         <v>104</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>282</v>
@@ -13153,10 +13153,10 @@
         <v>104</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
@@ -13168,10 +13168,10 @@
         <v>104</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13183,10 +13183,10 @@
         <v>105</v>
       </c>
       <c r="B633" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C633" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="C633" s="4" t="s">
-        <v>872</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13198,10 +13198,10 @@
         <v>105</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13213,10 +13213,10 @@
         <v>105</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635" s="4" t="s">
@@ -13228,10 +13228,10 @@
         <v>105</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
@@ -13243,10 +13243,10 @@
         <v>105</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637" s="4" t="s">
@@ -13258,10 +13258,10 @@
         <v>105</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13273,10 +13273,10 @@
         <v>105</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13288,7 +13288,7 @@
         <v>106</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C640" s="4" t="s">
         <v>329</v>
@@ -13303,10 +13303,10 @@
         <v>106</v>
       </c>
       <c r="B641" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C641" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="C641" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
@@ -13318,10 +13318,10 @@
         <v>106</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="4" t="s">
@@ -13333,10 +13333,10 @@
         <v>106</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643" s="4" t="s">
@@ -13348,7 +13348,7 @@
         <v>106</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C644" s="4" t="s">
         <v>105</v>
@@ -13363,10 +13363,10 @@
         <v>106</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645" s="4" t="s">
@@ -13378,7 +13378,7 @@
         <v>106</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C646" s="4" t="s">
         <v>236</v>
@@ -13393,10 +13393,10 @@
         <v>106</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="4" t="s">
@@ -13408,10 +13408,10 @@
         <v>107</v>
       </c>
       <c r="B648" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C648" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="C648" s="4" t="s">
-        <v>885</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="4" t="s">
@@ -13423,10 +13423,10 @@
         <v>107</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649" s="4" t="s">
@@ -13438,7 +13438,7 @@
         <v>107</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>128</v>
@@ -13453,10 +13453,10 @@
         <v>107</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651" s="4" t="s">
@@ -13468,10 +13468,10 @@
         <v>107</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="4" t="s">
@@ -13483,10 +13483,10 @@
         <v>107</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653" s="4" t="s">
@@ -13498,10 +13498,10 @@
         <v>107</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654" s="4" t="s">
@@ -13513,10 +13513,10 @@
         <v>107</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="4" t="s">
@@ -13528,10 +13528,10 @@
         <v>107</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D656" s="4"/>
       <c r="E656" s="4" t="s">
@@ -13543,10 +13543,10 @@
         <v>108</v>
       </c>
       <c r="B657" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C657" s="4" t="s">
         <v>893</v>
-      </c>
-      <c r="C657" s="4" t="s">
-        <v>894</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657" s="4" t="s">
@@ -13558,10 +13558,10 @@
         <v>108</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658" s="4" t="s">
@@ -13573,10 +13573,10 @@
         <v>108</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="4" t="s">
@@ -13588,10 +13588,10 @@
         <v>108</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="4" t="s">
@@ -13603,10 +13603,10 @@
         <v>108</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661" s="4" t="s">
@@ -13618,10 +13618,10 @@
         <v>108</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662" s="4" t="s">
@@ -13633,7 +13633,7 @@
         <v>109</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C663" s="4" t="s">
         <v>395</v>
@@ -13648,10 +13648,10 @@
         <v>109</v>
       </c>
       <c r="B664" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C664" s="4" t="s">
         <v>900</v>
-      </c>
-      <c r="C664" s="4" t="s">
-        <v>901</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664" s="4" t="s">
@@ -13663,7 +13663,7 @@
         <v>109</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C665" s="4" t="s">
         <v>76</v>
@@ -13678,10 +13678,10 @@
         <v>109</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666" s="4" t="s">
@@ -13693,10 +13693,10 @@
         <v>109</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667" s="4" t="s">
@@ -13708,10 +13708,10 @@
         <v>109</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="4" t="s">
@@ -13723,10 +13723,10 @@
         <v>109</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669" s="4" t="s">

--- a/Levels/tr/Wordlist.xlsx
+++ b/Levels/tr/Wordlist.xlsx
@@ -2382,9 +2382,6 @@
     <t>AHIR</t>
   </si>
   <si>
-    <t>U,N,O,K,D</t>
-  </si>
-  <si>
     <t>ODUN</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>CEKET</t>
+  </si>
+  <si>
+    <t>Z.U,N,O,K,D</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N672" sqref="N671:N672"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="B505" sqref="B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5149,7 +5149,7 @@
         <v>124</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>190</v>
@@ -7916,7 +7916,7 @@
         <v>51</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>125</v>
@@ -7934,7 +7934,7 @@
         <v>51</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>599</v>
@@ -7950,7 +7950,7 @@
         <v>51</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>600</v>
@@ -7966,7 +7966,7 @@
         <v>51</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>601</v>
@@ -8081,7 +8081,7 @@
         <v>602</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278" s="4" t="s">
@@ -9342,7 +9342,7 @@
         <v>64</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>333</v>
@@ -9358,7 +9358,7 @@
         <v>64</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>331</v>
@@ -9374,7 +9374,7 @@
         <v>64</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>337</v>
@@ -9390,7 +9390,7 @@
         <v>64</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>654</v>
@@ -9406,7 +9406,7 @@
         <v>64</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>269</v>
@@ -9422,7 +9422,7 @@
         <v>65</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>488</v>
@@ -9438,7 +9438,7 @@
         <v>65</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>682</v>
@@ -9454,7 +9454,7 @@
         <v>65</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>605</v>
@@ -9470,7 +9470,7 @@
         <v>65</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>604</v>
@@ -9486,7 +9486,7 @@
         <v>65</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>608</v>
@@ -9502,7 +9502,7 @@
         <v>65</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>683</v>
@@ -9518,7 +9518,7 @@
         <v>65</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>378</v>
@@ -11598,10 +11598,10 @@
         <v>86</v>
       </c>
       <c r="B498" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C498" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="4" t="s">
@@ -11614,10 +11614,10 @@
         <v>86</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D499" s="4"/>
       <c r="E499" s="4" t="s">
@@ -11630,10 +11630,10 @@
         <v>86</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500" s="4" t="s">
@@ -11646,7 +11646,7 @@
         <v>86</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>700</v>
@@ -11662,7 +11662,7 @@
         <v>86</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>758</v>
@@ -11678,7 +11678,7 @@
         <v>86</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>757</v>
@@ -11694,7 +11694,7 @@
         <v>87</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>331</v>
@@ -11710,7 +11710,7 @@
         <v>87</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>385</v>
@@ -11726,10 +11726,10 @@
         <v>87</v>
       </c>
       <c r="B506" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C506" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="C506" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
@@ -11742,10 +11742,10 @@
         <v>87</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="4" t="s">
@@ -11758,7 +11758,7 @@
         <v>87</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>267</v>
@@ -11774,10 +11774,10 @@
         <v>87</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509" s="4" t="s">
@@ -11790,10 +11790,10 @@
         <v>87</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D510" s="4"/>
       <c r="E510" s="4" t="s">
@@ -11806,7 +11806,7 @@
         <v>88</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>34</v>
@@ -11822,10 +11822,10 @@
         <v>88</v>
       </c>
       <c r="B512" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C512" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="C512" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512" s="4" t="s">
@@ -11838,7 +11838,7 @@
         <v>88</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>674</v>
@@ -11854,7 +11854,7 @@
         <v>88</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>672</v>
@@ -11870,10 +11870,10 @@
         <v>88</v>
       </c>
       <c r="B515" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C515" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="C515" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="4" t="s">
@@ -11886,10 +11886,10 @@
         <v>89</v>
       </c>
       <c r="B516" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C516" s="4" t="s">
         <v>798</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>799</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="4" t="s">
@@ -11902,10 +11902,10 @@
         <v>89</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D517" s="4"/>
       <c r="E517" s="4" t="s">
@@ -11918,7 +11918,7 @@
         <v>89</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>611</v>
@@ -11934,10 +11934,10 @@
         <v>89</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D519" s="4"/>
       <c r="E519" s="4" t="s">
@@ -11950,10 +11950,10 @@
         <v>89</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4" t="s">
@@ -11966,10 +11966,10 @@
         <v>89</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4" t="s">
@@ -11982,10 +11982,10 @@
         <v>90</v>
       </c>
       <c r="B522" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C522" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4" t="s">
@@ -11998,10 +11998,10 @@
         <v>90</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523" s="4" t="s">
@@ -12014,7 +12014,7 @@
         <v>90</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>685</v>
@@ -12030,10 +12030,10 @@
         <v>90</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D525" s="4"/>
       <c r="E525" s="4" t="s">
@@ -12046,7 +12046,7 @@
         <v>90</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>690</v>
@@ -12062,7 +12062,7 @@
         <v>90</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>687</v>
@@ -12078,10 +12078,10 @@
         <v>90</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
@@ -12094,10 +12094,10 @@
         <v>91</v>
       </c>
       <c r="B529" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C529" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="C529" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
@@ -12110,10 +12110,10 @@
         <v>91</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
@@ -12126,10 +12126,10 @@
         <v>91</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
@@ -12142,10 +12142,10 @@
         <v>91</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532" s="4" t="s">
@@ -12158,10 +12158,10 @@
         <v>91</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D533" s="4"/>
       <c r="E533" s="4" t="s">
@@ -12174,10 +12174,10 @@
         <v>91</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534" s="4" t="s">
@@ -12190,10 +12190,10 @@
         <v>92</v>
       </c>
       <c r="B535" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C535" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C535" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535" s="4" t="s">
@@ -12206,10 +12206,10 @@
         <v>92</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="4" t="s">
@@ -12222,7 +12222,7 @@
         <v>92</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>559</v>
@@ -12238,7 +12238,7 @@
         <v>92</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C538" s="4" t="s">
         <v>555</v>
@@ -12254,10 +12254,10 @@
         <v>92</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
@@ -12270,10 +12270,10 @@
         <v>92</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
@@ -12286,10 +12286,10 @@
         <v>92</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="4" t="s">
@@ -12302,10 +12302,10 @@
         <v>92</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
@@ -12318,10 +12318,10 @@
         <v>93</v>
       </c>
       <c r="B543" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C543" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D543" s="4"/>
       <c r="E543" s="4" t="s">
@@ -12334,7 +12334,7 @@
         <v>93</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>243</v>
@@ -12350,10 +12350,10 @@
         <v>93</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545" s="4" t="s">
@@ -12366,10 +12366,10 @@
         <v>93</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546" s="4" t="s">
@@ -12382,10 +12382,10 @@
         <v>93</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547" s="4" t="s">
@@ -12398,7 +12398,7 @@
         <v>93</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>333</v>
@@ -12414,7 +12414,7 @@
         <v>94</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C549" s="4" t="s">
         <v>705</v>
@@ -12430,7 +12430,7 @@
         <v>94</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>130</v>
@@ -12446,7 +12446,7 @@
         <v>94</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>600</v>
@@ -12462,10 +12462,10 @@
         <v>94</v>
       </c>
       <c r="B552" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C552" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="C552" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
@@ -12478,10 +12478,10 @@
         <v>94</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
@@ -12494,10 +12494,10 @@
         <v>94</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
@@ -12510,10 +12510,10 @@
         <v>94</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
@@ -12526,7 +12526,7 @@
         <v>95</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>608</v>
@@ -12542,10 +12542,10 @@
         <v>95</v>
       </c>
       <c r="B557" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C557" s="4" t="s">
         <v>833</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>834</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
@@ -12558,7 +12558,7 @@
         <v>95</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C558" s="4" t="s">
         <v>604</v>
@@ -12574,10 +12574,10 @@
         <v>95</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4" t="s">
@@ -12590,7 +12590,7 @@
         <v>95</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C560" s="4" t="s">
         <v>605</v>
@@ -12606,10 +12606,10 @@
         <v>95</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="4" t="s">
@@ -12622,7 +12622,7 @@
         <v>96</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C562" s="4" t="s">
         <v>71</v>
@@ -12638,10 +12638,10 @@
         <v>96</v>
       </c>
       <c r="B563" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C563" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="C563" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="4" t="s">
@@ -12654,10 +12654,10 @@
         <v>96</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4" t="s">
@@ -12670,7 +12670,7 @@
         <v>96</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>90</v>
@@ -12686,7 +12686,7 @@
         <v>96</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>94</v>
@@ -12702,10 +12702,10 @@
         <v>96</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
@@ -12718,10 +12718,10 @@
         <v>96</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4" t="s">
@@ -12734,7 +12734,7 @@
         <v>96</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>92</v>
@@ -12750,10 +12750,10 @@
         <v>97</v>
       </c>
       <c r="B570" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C570" s="4" t="s">
         <v>842</v>
-      </c>
-      <c r="C570" s="4" t="s">
-        <v>843</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
@@ -12766,10 +12766,10 @@
         <v>97</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4" t="s">
@@ -12782,7 +12782,7 @@
         <v>97</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C572" s="4" t="s">
         <v>471</v>
@@ -12798,7 +12798,7 @@
         <v>97</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C573" s="4" t="s">
         <v>21</v>
@@ -12814,10 +12814,10 @@
         <v>97</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
@@ -12830,10 +12830,10 @@
         <v>97</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
@@ -12846,7 +12846,7 @@
         <v>98</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C576" s="4" t="s">
         <v>695</v>
@@ -12862,10 +12862,10 @@
         <v>98</v>
       </c>
       <c r="B577" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C577" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4" t="s">
@@ -12878,10 +12878,10 @@
         <v>98</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4" t="s">
@@ -12894,10 +12894,10 @@
         <v>98</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="4" t="s">
@@ -12910,10 +12910,10 @@
         <v>98</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580" s="4" t="s">
@@ -12926,10 +12926,10 @@
         <v>98</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581" s="4" t="s">
@@ -12942,10 +12942,10 @@
         <v>98</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582" s="4" t="s">
@@ -12958,10 +12958,10 @@
         <v>98</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="4" t="s">
@@ -12974,7 +12974,7 @@
         <v>99</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>246</v>
@@ -12990,10 +12990,10 @@
         <v>99</v>
       </c>
       <c r="B585" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C585" s="4" t="s">
         <v>855</v>
-      </c>
-      <c r="C585" s="4" t="s">
-        <v>856</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585" s="4" t="s">
@@ -13006,7 +13006,7 @@
         <v>99</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C586" s="4" t="s">
         <v>537</v>
@@ -13022,7 +13022,7 @@
         <v>99</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C587" s="4" t="s">
         <v>237</v>
@@ -13038,7 +13038,7 @@
         <v>99</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C588" s="4" t="s">
         <v>533</v>
@@ -13054,7 +13054,7 @@
         <v>99</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C589" s="4" t="s">
         <v>528</v>
@@ -13070,7 +13070,7 @@
         <v>99</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>535</v>
@@ -13086,7 +13086,7 @@
         <v>99</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C591" s="4" t="s">
         <v>526</v>
@@ -13102,10 +13102,10 @@
         <v>100</v>
       </c>
       <c r="B592" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C592" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="C592" s="4" t="s">
-        <v>858</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="4" t="s">
@@ -13118,10 +13118,10 @@
         <v>100</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593" s="4" t="s">
@@ -13134,10 +13134,10 @@
         <v>100</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="4" t="s">
@@ -13150,10 +13150,10 @@
         <v>100</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595" s="4" t="s">
@@ -13166,10 +13166,10 @@
         <v>100</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596" s="4" t="s">
@@ -13182,10 +13182,10 @@
         <v>100</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597" s="4" t="s">
@@ -13198,10 +13198,10 @@
         <v>100</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D598" s="4"/>
       <c r="E598" s="4" t="s">
@@ -13214,10 +13214,10 @@
         <v>101</v>
       </c>
       <c r="B599" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C599" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="C599" s="4" t="s">
-        <v>866</v>
       </c>
       <c r="D599" s="4"/>
       <c r="E599" s="4" t="s">
@@ -13230,10 +13230,10 @@
         <v>101</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D600" s="4"/>
       <c r="E600" s="4" t="s">
@@ -13246,10 +13246,10 @@
         <v>101</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="4" t="s">
@@ -13262,7 +13262,7 @@
         <v>101</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>282</v>
@@ -13278,10 +13278,10 @@
         <v>101</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603" s="4" t="s">
@@ -13294,7 +13294,7 @@
         <v>101</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>657</v>
@@ -13310,10 +13310,10 @@
         <v>102</v>
       </c>
       <c r="B605" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C605" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="C605" s="4" t="s">
-        <v>871</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="4" t="s">
@@ -13326,10 +13326,10 @@
         <v>102</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="4" t="s">
@@ -13342,10 +13342,10 @@
         <v>102</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="4" t="s">
@@ -13358,10 +13358,10 @@
         <v>102</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="4" t="s">
@@ -13374,10 +13374,10 @@
         <v>102</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609" s="4" t="s">
@@ -13390,10 +13390,10 @@
         <v>102</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610" s="4" t="s">
@@ -13406,10 +13406,10 @@
         <v>102</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611" s="4" t="s">
@@ -13422,7 +13422,7 @@
         <v>103</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C612" s="4" t="s">
         <v>329</v>
@@ -13438,10 +13438,10 @@
         <v>103</v>
       </c>
       <c r="B613" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C613" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="C613" s="4" t="s">
-        <v>879</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613" s="4" t="s">
@@ -13454,10 +13454,10 @@
         <v>103</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614" s="4" t="s">
@@ -13470,10 +13470,10 @@
         <v>103</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="4" t="s">
@@ -13486,7 +13486,7 @@
         <v>103</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>105</v>
@@ -13502,10 +13502,10 @@
         <v>103</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617" s="4" t="s">
@@ -13518,7 +13518,7 @@
         <v>103</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>236</v>
@@ -13534,7 +13534,7 @@
         <v>103</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>771</v>
@@ -13550,10 +13550,10 @@
         <v>104</v>
       </c>
       <c r="B620" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C620" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="C620" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620" s="4" t="s">
@@ -13566,10 +13566,10 @@
         <v>104</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621" s="4" t="s">
@@ -13582,7 +13582,7 @@
         <v>104</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>128</v>
@@ -13598,10 +13598,10 @@
         <v>104</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="4" t="s">
@@ -13614,10 +13614,10 @@
         <v>104</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624" s="4" t="s">
@@ -13630,10 +13630,10 @@
         <v>104</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625" s="4" t="s">
@@ -13646,10 +13646,10 @@
         <v>104</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626" s="4" t="s">
@@ -13662,10 +13662,10 @@
         <v>104</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627" s="4" t="s">
@@ -13678,10 +13678,10 @@
         <v>104</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628" s="4" t="s">
@@ -13694,10 +13694,10 @@
         <v>105</v>
       </c>
       <c r="B629" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C629" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="C629" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629" s="4" t="s">
@@ -13710,10 +13710,10 @@
         <v>105</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D630" s="4"/>
       <c r="E630" s="4" t="s">
@@ -13726,10 +13726,10 @@
         <v>105</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631" s="4" t="s">
@@ -13742,10 +13742,10 @@
         <v>105</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632" s="4" t="s">
@@ -13758,10 +13758,10 @@
         <v>105</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633" s="4" t="s">
@@ -13774,10 +13774,10 @@
         <v>105</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634" s="4" t="s">
@@ -13790,7 +13790,7 @@
         <v>106</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>395</v>
@@ -13806,10 +13806,10 @@
         <v>106</v>
       </c>
       <c r="B636" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C636" s="4" t="s">
         <v>899</v>
-      </c>
-      <c r="C636" s="4" t="s">
-        <v>900</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636" s="4" t="s">
@@ -13822,7 +13822,7 @@
         <v>106</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>76</v>
@@ -13838,10 +13838,10 @@
         <v>106</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638" s="4" t="s">
@@ -13854,10 +13854,10 @@
         <v>106</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639" s="4" t="s">
@@ -13870,10 +13870,10 @@
         <v>106</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="4" t="s">
@@ -13886,10 +13886,10 @@
         <v>106</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641" s="4" t="s">
